--- a/docs/__PROJECT_BACKLOG.xlsx
+++ b/docs/__PROJECT_BACKLOG.xlsx
@@ -511,9 +511,9 @@
           <t>Tasks Count</t>
         </is>
       </c>
-      <c r="K1" s="10" t="inlineStr">
-        <is>
-          <t>Story Points</t>
+      <c r="K1" s="20" t="inlineStr">
+        <is>
+          <t>Story Points (Calculated)</t>
         </is>
       </c>
       <c r="L1" s="10" t="inlineStr">
@@ -572,8 +572,9 @@
       <c r="J2" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="K2" s="11" t="n">
-        <v>42</v>
+      <c r="K2" s="11">
+        <f>SUMIF(Features!B:B,A2,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L2" s="11" t="inlineStr">
         <is>
@@ -631,8 +632,9 @@
       <c r="J3" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="K3" s="12" t="n">
-        <v>35</v>
+      <c r="K3" s="12">
+        <f>SUMIF(Features!B:B,A3,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L3" s="12" t="inlineStr">
         <is>
@@ -690,8 +692,9 @@
       <c r="J4" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="K4" s="13" t="n">
-        <v>28</v>
+      <c r="K4" s="13">
+        <f>SUMIF(Features!B:B,A4,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
@@ -749,8 +752,9 @@
       <c r="J5" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="K5" s="12" t="n">
-        <v>52</v>
+      <c r="K5" s="12">
+        <f>SUMIF(Features!B:B,A5,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L5" s="12" t="inlineStr">
         <is>
@@ -808,8 +812,9 @@
       <c r="J6" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="K6" s="12" t="n">
-        <v>45</v>
+      <c r="K6" s="12">
+        <f>SUMIF(Features!B:B,A6,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L6" s="12" t="inlineStr">
         <is>
@@ -867,8 +872,9 @@
       <c r="J7" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="K7" s="12" t="n">
-        <v>28</v>
+      <c r="K7" s="12">
+        <f>SUMIF(Features!B:B,A7,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L7" s="12" t="inlineStr">
         <is>
@@ -926,8 +932,9 @@
       <c r="J8" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="K8" s="11" t="n">
-        <v>33</v>
+      <c r="K8" s="11">
+        <f>SUMIF(Features!B:B,A8,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L8" s="11" t="inlineStr">
         <is>
@@ -985,8 +992,9 @@
       <c r="J9" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="K9" s="12" t="n">
-        <v>25</v>
+      <c r="K9" s="12">
+        <f>SUMIF(Features!B:B,A9,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L9" s="12" t="inlineStr">
         <is>
@@ -1044,8 +1052,9 @@
       <c r="J10" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="K10" s="12" t="n">
-        <v>20</v>
+      <c r="K10" s="12">
+        <f>SUMIF(Features!B:B,A10,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L10" s="12" t="inlineStr">
         <is>
@@ -1103,8 +1112,9 @@
       <c r="J11" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="K11" s="12" t="n">
-        <v>30</v>
+      <c r="K11" s="12">
+        <f>SUMIF(Features!B:B,A11,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L11" s="12" t="inlineStr">
         <is>
@@ -1162,8 +1172,9 @@
       <c r="J12" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="K12" s="12" t="n">
-        <v>40</v>
+      <c r="K12" s="12">
+        <f>SUMIF(Features!B:B,A12,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L12" s="12" t="inlineStr">
         <is>
@@ -1221,8 +1232,9 @@
       <c r="J13" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="K13" s="11" t="n">
-        <v>28</v>
+      <c r="K13" s="11">
+        <f>SUMIF(Features!B:B,A13,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L13" s="11" t="inlineStr">
         <is>
@@ -1280,8 +1292,9 @@
       <c r="J14" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="K14" s="11" t="n">
-        <v>25</v>
+      <c r="K14" s="11">
+        <f>SUMIF(Features!B:B,A14,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L14" s="11" t="inlineStr">
         <is>
@@ -1339,8 +1352,9 @@
       <c r="J15" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="K15" s="12" t="n">
-        <v>30</v>
+      <c r="K15" s="12">
+        <f>SUMIF(Features!B:B,A15,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L15" s="12" t="inlineStr">
         <is>
@@ -1398,8 +1412,9 @@
       <c r="J16" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="K16" s="13" t="n">
-        <v>45</v>
+      <c r="K16" s="13">
+        <f>SUMIF(Features!B:B,A16,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L16" s="13" t="inlineStr">
         <is>
@@ -1457,8 +1472,9 @@
       <c r="J17" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="K17" s="13" t="n">
-        <v>30</v>
+      <c r="K17" s="13">
+        <f>SUMIF(Features!B:B,A17,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L17" s="13" t="inlineStr">
         <is>
@@ -1516,8 +1532,9 @@
       <c r="J18" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="K18" s="13" t="n">
-        <v>28</v>
+      <c r="K18" s="13">
+        <f>SUMIF(Features!B:B,A18,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L18" s="13" t="inlineStr">
         <is>
@@ -1575,8 +1592,9 @@
       <c r="J19" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="K19" s="13" t="n">
-        <v>25</v>
+      <c r="K19" s="13">
+        <f>SUMIF(Features!B:B,A19,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L19" s="13" t="inlineStr">
         <is>
@@ -1634,8 +1652,9 @@
       <c r="J20" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="K20" s="13" t="n">
-        <v>25</v>
+      <c r="K20" s="13">
+        <f>SUMIF(Features!B:B,A20,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L20" s="13" t="inlineStr">
         <is>
@@ -1693,8 +1712,9 @@
       <c r="J21" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="K21" s="13" t="n">
-        <v>22</v>
+      <c r="K21" s="13">
+        <f>SUMIF(Features!B:B,A21,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L21" s="13" t="inlineStr">
         <is>
@@ -1752,8 +1772,9 @@
       <c r="J22" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="K22" s="11" t="n">
-        <v>35</v>
+      <c r="K22" s="11">
+        <f>SUMIF(Features!B:B,A22,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L22" s="11" t="inlineStr">
         <is>
@@ -1811,8 +1832,9 @@
       <c r="J23" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="K23" s="13" t="n">
-        <v>20</v>
+      <c r="K23" s="13">
+        <f>SUMIF(Features!B:B,A23,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L23" s="13" t="inlineStr">
         <is>
@@ -1870,8 +1892,9 @@
       <c r="J24" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="K24" s="13" t="n">
-        <v>25</v>
+      <c r="K24" s="13">
+        <f>SUMIF(Features!B:B,A24,Features!I:I)</f>
+        <v/>
       </c>
       <c r="L24" s="13" t="inlineStr">
         <is>
@@ -1960,9 +1983,9 @@
           <t>Story Count</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
-        <is>
-          <t>Story Points</t>
+      <c r="I1" s="20" t="inlineStr">
+        <is>
+          <t>Story Points (Calculated)</t>
         </is>
       </c>
       <c r="J1" s="10" t="inlineStr">
@@ -2019,8 +2042,9 @@
       <c r="H2" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="n">
-        <v>13</v>
+      <c r="I2" s="17">
+        <f>SUMIF(User_Stories!B:B,A2,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J2" s="17" t="inlineStr">
         <is>
@@ -2076,8 +2100,9 @@
       <c r="H3" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="n">
-        <v>13</v>
+      <c r="I3" s="18">
+        <f>SUMIF(User_Stories!B:B,A3,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J3" s="18" t="inlineStr">
         <is>
@@ -2133,8 +2158,9 @@
       <c r="H4" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="18" t="n">
-        <v>7</v>
+      <c r="I4" s="18">
+        <f>SUMIF(User_Stories!B:B,A4,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J4" s="18" t="inlineStr">
         <is>
@@ -2190,8 +2216,9 @@
       <c r="H5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="17" t="n">
-        <v>9</v>
+      <c r="I5" s="17">
+        <f>SUMIF(User_Stories!B:B,A5,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J5" s="17" t="inlineStr">
         <is>
@@ -2247,8 +2274,9 @@
       <c r="H6" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="17" t="n">
-        <v>11</v>
+      <c r="I6" s="17">
+        <f>SUMIF(User_Stories!B:B,A6,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J6" s="17" t="inlineStr">
         <is>
@@ -2304,8 +2332,9 @@
       <c r="H7" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="17" t="n">
-        <v>12</v>
+      <c r="I7" s="17">
+        <f>SUMIF(User_Stories!B:B,A7,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J7" s="17" t="inlineStr">
         <is>
@@ -2361,8 +2390,9 @@
       <c r="H8" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="17" t="n">
-        <v>12</v>
+      <c r="I8" s="17">
+        <f>SUMIF(User_Stories!B:B,A8,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J8" s="17" t="inlineStr">
         <is>
@@ -2418,8 +2448,9 @@
       <c r="H9" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="19" t="n">
-        <v>10</v>
+      <c r="I9" s="19">
+        <f>SUMIF(User_Stories!B:B,A9,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J9" s="19" t="inlineStr">
         <is>
@@ -2475,8 +2506,9 @@
       <c r="H10" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="19" t="n">
-        <v>10</v>
+      <c r="I10" s="19">
+        <f>SUMIF(User_Stories!B:B,A10,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J10" s="19" t="inlineStr">
         <is>
@@ -2532,8 +2564,9 @@
       <c r="H11" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="19" t="n">
-        <v>8</v>
+      <c r="I11" s="19">
+        <f>SUMIF(User_Stories!B:B,A11,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J11" s="19" t="inlineStr">
         <is>
@@ -2589,8 +2622,9 @@
       <c r="H12" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="17" t="n">
-        <v>18</v>
+      <c r="I12" s="17">
+        <f>SUMIF(User_Stories!B:B,A12,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J12" s="17" t="inlineStr">
         <is>
@@ -2646,8 +2680,9 @@
       <c r="H13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="17" t="n">
-        <v>15</v>
+      <c r="I13" s="17">
+        <f>SUMIF(User_Stories!B:B,A13,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J13" s="17" t="inlineStr">
         <is>
@@ -2703,8 +2738,9 @@
       <c r="H14" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="17" t="n">
-        <v>10</v>
+      <c r="I14" s="17">
+        <f>SUMIF(User_Stories!B:B,A14,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J14" s="17" t="inlineStr">
         <is>
@@ -2760,8 +2796,9 @@
       <c r="H15" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I15" s="17" t="n">
-        <v>9</v>
+      <c r="I15" s="17">
+        <f>SUMIF(User_Stories!B:B,A15,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J15" s="17" t="inlineStr">
         <is>
@@ -2817,8 +2854,9 @@
       <c r="H16" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="17" t="n">
-        <v>11</v>
+      <c r="I16" s="17">
+        <f>SUMIF(User_Stories!B:B,A16,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J16" s="17" t="inlineStr">
         <is>
@@ -2874,8 +2912,9 @@
       <c r="H17" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="17" t="n">
-        <v>17</v>
+      <c r="I17" s="17">
+        <f>SUMIF(User_Stories!B:B,A17,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J17" s="17" t="inlineStr">
         <is>
@@ -2931,8 +2970,9 @@
       <c r="H18" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I18" s="17" t="n">
-        <v>17</v>
+      <c r="I18" s="17">
+        <f>SUMIF(User_Stories!B:B,A18,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J18" s="17" t="inlineStr">
         <is>
@@ -2988,8 +3028,9 @@
       <c r="H19" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I19" s="17" t="n">
-        <v>13</v>
+      <c r="I19" s="17">
+        <f>SUMIF(User_Stories!B:B,A19,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J19" s="17" t="inlineStr">
         <is>
@@ -3045,8 +3086,9 @@
       <c r="H20" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="17" t="n">
-        <v>15</v>
+      <c r="I20" s="17">
+        <f>SUMIF(User_Stories!B:B,A20,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J20" s="17" t="inlineStr">
         <is>
@@ -3102,8 +3144,9 @@
       <c r="H21" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="18" t="n">
-        <v>15</v>
+      <c r="I21" s="18">
+        <f>SUMIF(User_Stories!B:B,A21,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J21" s="18" t="inlineStr">
         <is>
@@ -3159,8 +3202,9 @@
       <c r="H22" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I22" s="17" t="n">
-        <v>10</v>
+      <c r="I22" s="17">
+        <f>SUMIF(User_Stories!B:B,A22,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J22" s="17" t="inlineStr">
         <is>
@@ -3216,8 +3260,9 @@
       <c r="H23" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="17" t="n">
-        <v>8</v>
+      <c r="I23" s="17">
+        <f>SUMIF(User_Stories!B:B,A23,User_Stories!F:F)</f>
+        <v/>
       </c>
       <c r="J23" s="17" t="inlineStr">
         <is>
@@ -3270,7 +3315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
@@ -4017,22 +4062,662 @@
       </c>
       <c r="I17" s="21" t="n"/>
     </row>
-    <row r="18" ht="147.75" customHeight="1" s="9"/>
-    <row r="19" ht="147.75" customHeight="1" s="9"/>
-    <row r="20" ht="132.75" customHeight="1" s="9"/>
-    <row r="21" ht="221.25" customHeight="1" s="9"/>
-    <row r="22" ht="147.75" customHeight="1" s="9"/>
-    <row r="23" ht="132.75" customHeight="1" s="9"/>
-    <row r="24" ht="132.75" customHeight="1" s="9"/>
-    <row r="25" ht="147.75" customHeight="1" s="9"/>
-    <row r="26" ht="162.75" customHeight="1" s="9"/>
-    <row r="27" ht="147.75" customHeight="1" s="9"/>
-    <row r="28" ht="118.5" customHeight="1" s="9"/>
-    <row r="29" ht="118.5" customHeight="1" s="9"/>
-    <row r="30" ht="118.5" customHeight="1" s="9"/>
-    <row r="31" ht="147.75" customHeight="1" s="9"/>
-    <row r="32" ht="147.75" customHeight="1" s="9"/>
-    <row r="33" ht="118.5" customHeight="1" s="9"/>
+    <row r="18" ht="147.75" customHeight="1" s="9">
+      <c r="A18" s="21" t="inlineStr">
+        <is>
+          <t>US1.3.1</t>
+        </is>
+      </c>
+      <c r="B18" s="21" t="inlineStr">
+        <is>
+          <t>F1.3</t>
+        </is>
+      </c>
+      <c r="C18" s="21" t="inlineStr">
+        <is>
+          <t>As an admin, I can define multiple currencies for the company</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="inlineStr">
+        <is>
+          <t>Given admin role, When I add currency, Then I set code, symbol, exchange rate</t>
+        </is>
+      </c>
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>Use CCurrency entity (already exists). Add CRUD UI if missing.</t>
+        </is>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+      <c r="I18" s="21" t="n"/>
+    </row>
+    <row r="19" ht="147.75" customHeight="1" s="9">
+      <c r="A19" s="21" t="inlineStr">
+        <is>
+          <t>US1.3.2</t>
+        </is>
+      </c>
+      <c r="B19" s="21" t="inlineStr">
+        <is>
+          <t>F1.3</t>
+        </is>
+      </c>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>As a PM, I can see expenses in multiple currencies with auto-conversion</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="inlineStr">
+        <is>
+          <t>Given expenses in different currencies, When I view list, Then I see original + converted to base currency</t>
+        </is>
+      </c>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>Use CCurrencyConversionService. Add calculated column to grids.</t>
+        </is>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H19" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I19" s="21" t="n"/>
+    </row>
+    <row r="20" ht="132.75" customHeight="1" s="9">
+      <c r="A20" s="21" t="inlineStr">
+        <is>
+          <t>US1.4.1</t>
+        </is>
+      </c>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>F1.4</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>As a PM, I can view cost trend chart over time</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="inlineStr">
+        <is>
+          <t>Given project, When I view financial dashboard, Then I see line chart of costs over months</t>
+        </is>
+      </c>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>Create CFinancialDashboardService. Use Vaadin Charts. Group by month.</t>
+        </is>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H20" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I20" s="21" t="n"/>
+    </row>
+    <row r="21" ht="221.25" customHeight="1" s="9">
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>US1.4.2</t>
+        </is>
+      </c>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>F1.4</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>As an exec, I can view P&amp;L dashboard for all projects</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="inlineStr">
+        <is>
+          <t>Given portfolio, When I view P&amp;L, Then I see income vs expenses with profit/loss</t>
+        </is>
+      </c>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>Aggregate across projects. Create CComponentProfitLoss widget.</t>
+        </is>
+      </c>
+      <c r="F21" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H21" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I21" s="21" t="n"/>
+    </row>
+    <row r="22" ht="147.75" customHeight="1" s="9">
+      <c r="A22" s="21" t="inlineStr">
+        <is>
+          <t>US2.3.3</t>
+        </is>
+      </c>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>F2.3</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>As a manager, I can approve/reject timesheets</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="inlineStr">
+        <is>
+          <t>Given submitted timesheet, When I review, Then I can approve or reject with comments</t>
+        </is>
+      </c>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>Add approval workflow. Manager role check. Status transitions.</t>
+        </is>
+      </c>
+      <c r="F22" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="21" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H22" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I22" s="21" t="n"/>
+    </row>
+    <row r="23" ht="132.75" customHeight="1" s="9">
+      <c r="A23" s="21" t="inlineStr">
+        <is>
+          <t>US4.2.1</t>
+        </is>
+      </c>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>F4.2</t>
+        </is>
+      </c>
+      <c r="C23" s="21" t="inlineStr">
+        <is>
+          <t>As a PM, I can view project cost dashboard with charts</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="inlineStr">
+        <is>
+          <t>Given project, When I view cost dashboard, Then I see total cost, cost breakdown by category, trend</t>
+        </is>
+      </c>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>Create CProjectCostDashboard. Use Vaadin Charts for pie and line charts.</t>
+        </is>
+      </c>
+      <c r="F23" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H23" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I23" s="21" t="n"/>
+    </row>
+    <row r="24" ht="132.75" customHeight="1" s="9">
+      <c r="A24" s="21" t="inlineStr">
+        <is>
+          <t>US4.2.2</t>
+        </is>
+      </c>
+      <c r="B24" s="21" t="inlineStr">
+        <is>
+          <t>F4.2</t>
+        </is>
+      </c>
+      <c r="C24" s="21" t="inlineStr">
+        <is>
+          <t>As a CFO, I can view portfolio financial summary</t>
+        </is>
+      </c>
+      <c r="D24" s="21" t="inlineStr">
+        <is>
+          <t>Given portfolio, When I view summary, Then I see aggregated costs, revenues, profits across all projects</t>
+        </is>
+      </c>
+      <c r="E24" s="21" t="inlineStr">
+        <is>
+          <t>Aggregate financials across portfolio. Create CPortfolioFinancialSummary.</t>
+        </is>
+      </c>
+      <c r="F24" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="21" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H24" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I24" s="21" t="n"/>
+    </row>
+    <row r="25" ht="147.75" customHeight="1" s="9">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>US4.3.1</t>
+        </is>
+      </c>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>F4.3</t>
+        </is>
+      </c>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>As a PM, I can view resource utilization report</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="inlineStr">
+        <is>
+          <t>Given date range, When I view report, Then I see each resource with hours allocated, available, utilization %</t>
+        </is>
+      </c>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>Create CResourceUtilizationReport. Calculate from CResourceAllocation + CTimesheet.</t>
+        </is>
+      </c>
+      <c r="F25" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H25" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I25" s="21" t="n"/>
+    </row>
+    <row r="26" ht="162.75" customHeight="1" s="9">
+      <c r="A26" s="21" t="inlineStr">
+        <is>
+          <t>US4.3.2</t>
+        </is>
+      </c>
+      <c r="B26" s="21" t="inlineStr">
+        <is>
+          <t>F4.3</t>
+        </is>
+      </c>
+      <c r="C26" s="21" t="inlineStr">
+        <is>
+          <t>As a PM, I can export resource report to Excel</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="inlineStr">
+        <is>
+          <t>Given resource report, When I click export, Then I download XLSX with all data</t>
+        </is>
+      </c>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>Use CExcelExportService. Format as table with conditional formatting.</t>
+        </is>
+      </c>
+      <c r="F26" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H26" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I26" s="21" t="n"/>
+    </row>
+    <row r="27" ht="147.75" customHeight="1" s="9">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>US4.4.1</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>F4.4</t>
+        </is>
+      </c>
+      <c r="C27" s="21" t="inlineStr">
+        <is>
+          <t>As an admin, I can create custom report definitions</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>Given report builder, When I define report, Then I select entity, columns, filters, grouping</t>
+        </is>
+      </c>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>Create CReport entity. Report builder UI with query construction.</t>
+        </is>
+      </c>
+      <c r="F27" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="21" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="H27" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I27" s="21" t="n"/>
+    </row>
+    <row r="28" ht="118.5" customHeight="1" s="9">
+      <c r="A28" s="21" t="inlineStr">
+        <is>
+          <t>US4.4.2</t>
+        </is>
+      </c>
+      <c r="B28" s="21" t="inlineStr">
+        <is>
+          <t>F4.4</t>
+        </is>
+      </c>
+      <c r="C28" s="21" t="inlineStr">
+        <is>
+          <t>As an admin, I can schedule automated report emails</t>
+        </is>
+      </c>
+      <c r="D28" s="21" t="inlineStr">
+        <is>
+          <t>Given report definition, When I schedule, Then report runs daily/weekly/monthly and emails recipients</t>
+        </is>
+      </c>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>Use Spring @Scheduled. Generate report, email as PDF/XLSX attachment.</t>
+        </is>
+      </c>
+      <c r="F28" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" s="21" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="H28" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I28" s="21" t="n"/>
+    </row>
+    <row r="29" ht="118.5" customHeight="1" s="9">
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>US7.1.1</t>
+        </is>
+      </c>
+      <c r="B29" s="21" t="inlineStr">
+        <is>
+          <t>F7.1</t>
+        </is>
+      </c>
+      <c r="C29" s="21" t="inlineStr">
+        <is>
+          <t>As a QA, I can log bugs with severity and reproduction steps</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>Given bug found, When I create ticket, Then I set severity (CRITICAL/HIGH/MEDIUM/LOW), steps to reproduce, environment</t>
+        </is>
+      </c>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>Enhance CTicket with severity, priority, reproductionSteps, environment fields.</t>
+        </is>
+      </c>
+      <c r="F29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H29" s="11" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+      <c r="I29" s="21" t="n"/>
+    </row>
+    <row r="30" ht="118.5" customHeight="1" s="9">
+      <c r="A30" s="21" t="inlineStr">
+        <is>
+          <t>US7.1.2</t>
+        </is>
+      </c>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t>F7.1</t>
+        </is>
+      </c>
+      <c r="C30" s="21" t="inlineStr">
+        <is>
+          <t>As a developer, I can link bugs to code commits</t>
+        </is>
+      </c>
+      <c r="D30" s="21" t="inlineStr">
+        <is>
+          <t>Given bug, When I fix it, Then I link commit hash, branch, pull request</t>
+        </is>
+      </c>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>Add commitHash, branch, pullRequestUrl fields to CTicket. Git integration.</t>
+        </is>
+      </c>
+      <c r="F30" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H30" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I30" s="21" t="n"/>
+    </row>
+    <row r="31" ht="147.75" customHeight="1" s="9">
+      <c r="A31" s="21" t="inlineStr">
+        <is>
+          <t>US7.2.1</t>
+        </is>
+      </c>
+      <c r="B31" s="21" t="inlineStr">
+        <is>
+          <t>F7.2</t>
+        </is>
+      </c>
+      <c r="C31" s="21" t="inlineStr">
+        <is>
+          <t>As a lead, I can triage bugs by severity/priority</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="inlineStr">
+        <is>
+          <t>Given new bugs, When I triage, Then I assign priority, assign developer, set target version</t>
+        </is>
+      </c>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>Create bug triage view. Bulk actions. Drag-drop prioritization.</t>
+        </is>
+      </c>
+      <c r="F31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H31" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I31" s="21" t="n"/>
+    </row>
+    <row r="32" ht="147.75" customHeight="1" s="9">
+      <c r="A32" s="21" t="inlineStr">
+        <is>
+          <t>US7.2.2</t>
+        </is>
+      </c>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>F7.2</t>
+        </is>
+      </c>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>As a PM, I can view bug metrics dashboard</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="inlineStr">
+        <is>
+          <t>Given project, When I view bug metrics, Then I see open/closed count, resolution time, bugs by severity</t>
+        </is>
+      </c>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>Create CBugMetricsService. Charts: pie (by severity), line (open/closed trend).</t>
+        </is>
+      </c>
+      <c r="F32" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H32" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I32" s="21" t="n"/>
+    </row>
+    <row r="33" ht="118.5" customHeight="1" s="9">
+      <c r="A33" s="21" t="inlineStr">
+        <is>
+          <t>US7.3.1</t>
+        </is>
+      </c>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>F7.3</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>As a PM, I can view aging bugs report</t>
+        </is>
+      </c>
+      <c r="D33" s="21" t="inlineStr">
+        <is>
+          <t>Given project, When I view aging report, Then I see bugs sorted by days open, highlight stale bugs</t>
+        </is>
+      </c>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>Calculate days since created. Color-code: &gt;30 days red, 15-30 yellow.</t>
+        </is>
+      </c>
+      <c r="F33" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="21" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="H33" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I33" s="21" t="n"/>
+    </row>
     <row r="34" ht="118.5" customHeight="1" s="9"/>
     <row r="35" ht="132.75" customHeight="1" s="9"/>
     <row r="36" ht="132.75" customHeight="1" s="9"/>
@@ -4050,7 +4735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
@@ -4060,13 +4745,13 @@
   <cols>
     <col width="12" customWidth="1" style="8" min="1" max="1"/>
     <col width="12" customWidth="1" style="8" min="2" max="2"/>
-    <col width="50" customWidth="1" style="8" min="3" max="3"/>
-    <col width="70" customWidth="1" style="8" min="4" max="4"/>
-    <col width="70" customWidth="1" style="8" min="5" max="5"/>
+    <col width="45" customWidth="1" style="8" min="3" max="3"/>
+    <col width="60" customWidth="1" style="8" min="4" max="4"/>
+    <col width="50" customWidth="1" style="8" min="5" max="5"/>
     <col width="50" customWidth="1" style="8" min="6" max="6"/>
     <col width="12" customWidth="1" style="8" min="7" max="7"/>
-    <col width="15" customWidth="1" style="9" min="8" max="8"/>
-    <col width="20" customWidth="1" style="9" min="9" max="9"/>
+    <col width="12" customWidth="1" style="9" min="8" max="8"/>
+    <col width="15" customWidth="1" style="9" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="9">
@@ -4102,7 +4787,7 @@
       </c>
       <c r="G1" s="20" t="inlineStr">
         <is>
-          <t>Estimate (hrs)</t>
+          <t>Story Points</t>
         </is>
       </c>
       <c r="H1" s="20" t="inlineStr">
@@ -4119,83 +4804,84 @@
     <row r="2" hidden="1" ht="89.25" customHeight="1" s="9">
       <c r="A2" s="21" t="inlineStr">
         <is>
+          <t>T1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t>US1.1.1</t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr">
+        <is>
+          <t>Create budget category selection in form</t>
+        </is>
+      </c>
+      <c r="D2" s="21" t="inlineStr">
+        <is>
+          <t>Add CBudgetType combobox to budget creation form using FormBuilder</t>
+        </is>
+      </c>
+      <c r="E2" s="21" t="inlineStr">
+        <is>
+          <t>✓ Use @AMetaData dataProviderBean="CBudgetTypeService"
+✓ ComboBox with entity column
+✓ Required field validation</t>
+        </is>
+      </c>
+      <c r="F2" s="21" t="inlineStr">
+        <is>
+          <t>CBudget entity, CDialogBudget</t>
+        </is>
+      </c>
+      <c r="G2" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="I2" s="21" t="n"/>
+    </row>
+    <row r="3" hidden="1" ht="132.75" customHeight="1" s="9">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
           <t>T1.1.2.1</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>US1.1.2</t>
         </is>
       </c>
-      <c r="C2" s="21" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>Create CBudgetAnalysisService</t>
         </is>
       </c>
-      <c r="D2" s="21" t="inlineStr">
-        <is>
-          <t>Create service class with calculateActualCosts(CProject) and compareBudgetVsActual(CProject) methods</t>
-        </is>
-      </c>
-      <c r="E2" s="21" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>Service with calculateActualCosts(CProject) returning Map&lt;CBudget, BigDecimal&gt; and compareBudgetVsActual(CProject) returning List&lt;BudgetComparison&gt;</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>✓ Extend CAbstractService
 ✓ Constructor injection
-✓ @Transactional methods
-✓ Stateless service (no user state)</t>
-        </is>
-      </c>
-      <c r="F2" s="21" t="inlineStr">
-        <is>
-          <t>src/.../budgets/service/CBudgetAnalysisService.java</t>
-        </is>
-      </c>
-      <c r="G2" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="I2" s="21" t="n"/>
-    </row>
-    <row r="3" hidden="1" ht="132.75" customHeight="1" s="9">
-      <c r="A3" s="21" t="inlineStr">
-        <is>
-          <t>T1.1.2.2</t>
-        </is>
-      </c>
-      <c r="B3" s="21" t="inlineStr">
-        <is>
-          <t>US1.1.2</t>
-        </is>
-      </c>
-      <c r="C3" s="21" t="inlineStr">
-        <is>
-          <t>Create CComponentBudgetComparison widget</t>
-        </is>
-      </c>
-      <c r="D3" s="21" t="inlineStr">
-        <is>
-          <t>Widget displaying budget comparison with color-coded variance. Red&gt;100%, Yellow 80-100%, Green&lt;80%</t>
-        </is>
-      </c>
-      <c r="E3" s="21" t="inlineStr">
-        <is>
-          <t>✓ Extend CComponentBase
-✓ Use CGrid with addEntityColumn
-✓ Custom cell renderer for variance
-✓ Refresh on data change</t>
+✓ @Transactional(readOnly=true)
+✓ Stateless (no instance user state)
+✓ Use Objects.requireNonNull() for validation</t>
         </is>
       </c>
       <c r="F3" s="21" t="inlineStr">
         <is>
-          <t>src/.../budgets/view/CComponentBudgetComparison.java</t>
+          <t>src/.../budgets/service/CBudgetAnalysisService.java
+src/.../budgets/dto/BudgetComparison.java</t>
         </is>
       </c>
       <c r="G3" s="21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H3" s="12" t="inlineStr">
         <is>
@@ -4207,7 +4893,7 @@
     <row r="4" hidden="1" ht="118.5" customHeight="1" s="9">
       <c r="A4" s="21" t="inlineStr">
         <is>
-          <t>T1.1.2.3</t>
+          <t>T1.1.2.2</t>
         </is>
       </c>
       <c r="B4" s="21" t="inlineStr">
@@ -4217,28 +4903,31 @@
       </c>
       <c r="C4" s="21" t="inlineStr">
         <is>
-          <t>Add to dashboard and project views</t>
+          <t>Create CComponentBudgetComparison widget</t>
         </is>
       </c>
       <c r="D4" s="21" t="inlineStr">
         <is>
-          <t>Integrate budget comparison widget into CDashboardView and project detail tabs</t>
+          <t>Dashboard widget with CGrid showing budget name, planned amount, actual amount, variance (actual-planned), percentage (actual/planned*100). Color-code rows: green &lt;80%, yellow 80-100%, red &gt;100%</t>
         </is>
       </c>
       <c r="E4" s="21" t="inlineStr">
         <is>
-          <t>✓ Use IPageServiceAutoRegistrable
-✓ Add to dashboard layout
-✓ Add refresh listener</t>
+          <t>✓ Extend CComponentBase
+✓ Use CGrid&lt;BudgetComparison&gt;
+✓ addColumn for each field
+✓ Custom cell renderer for variance color
+✓ Currency formatting for amounts
+✓ Percentage formatting</t>
         </is>
       </c>
       <c r="F4" s="21" t="inlineStr">
         <is>
-          <t>src/.../dashboard/CDashboardView.java</t>
+          <t>src/.../budgets/view/CComponentBudgetComparison.java</t>
         </is>
       </c>
       <c r="G4" s="21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
@@ -4250,39 +4939,40 @@
     <row r="5" hidden="1" ht="74.25" customHeight="1" s="9">
       <c r="A5" s="21" t="inlineStr">
         <is>
-          <t>T1.2.3.1</t>
+          <t>T1.1.2.3</t>
         </is>
       </c>
       <c r="B5" s="21" t="inlineStr">
         <is>
-          <t>US1.2.3</t>
+          <t>US1.1.2</t>
         </is>
       </c>
       <c r="C5" s="21" t="inlineStr">
         <is>
-          <t>Create CExcelExportService using Apache POI</t>
+          <t>Integrate widget into CDashboardView</t>
         </is>
       </c>
       <c r="D5" s="21" t="inlineStr">
         <is>
-          <t>Service to export financial data to XLSX format with formatting and formulas</t>
+          <t>Add budget comparison widget to main dashboard, project detail view, and financial summary tab</t>
         </is>
       </c>
       <c r="E5" s="21" t="inlineStr">
         <is>
-          <t>✓ Add Apache POI dependency
-✓ Create workbook with styles
-✓ Add formulas for totals
-✓ Return StreamResource</t>
+          <t>✓ Instantiate CComponentBudgetComparison
+✓ Pass project parameter
+✓ Add to layout
+✓ Register refresh listeners</t>
         </is>
       </c>
       <c r="F5" s="21" t="inlineStr">
         <is>
-          <t>src/.../reports/service/CExcelExportService.java</t>
+          <t>src/.../dashboard/CDashboardView.java
+src/.../projects/view/CProjectDetailView.java</t>
         </is>
       </c>
       <c r="G5" s="21" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" s="12" t="inlineStr">
         <is>
@@ -4294,39 +4984,39 @@
     <row r="6" hidden="1" ht="132.75" customHeight="1" s="9">
       <c r="A6" s="21" t="inlineStr">
         <is>
-          <t>T1.2.3.2</t>
+          <t>T1.1.3.1</t>
         </is>
       </c>
       <c r="B6" s="21" t="inlineStr">
         <is>
-          <t>US1.2.3</t>
+          <t>US1.1.3</t>
         </is>
       </c>
       <c r="C6" s="21" t="inlineStr">
         <is>
-          <t>Add export buttons to expense/income grids</t>
+          <t>Add budget threshold field to CBudget</t>
         </is>
       </c>
       <c r="D6" s="21" t="inlineStr">
         <is>
-          <t>Add export button to toolbar with VaadinIcon.DOWNLOAD, trigger export on click</t>
+          <t>Add alertThresholdPercentage field (default 80%) to trigger alerts when actual &gt; threshold</t>
         </is>
       </c>
       <c r="E6" s="21" t="inlineStr">
         <is>
-          <t>✓ Use CButton pattern
-✓ buttonExport naming
-✓ on_buttonExport_clicked() handler
-✓ Download StreamResource</t>
+          <t>✓ @Column(name="alert_threshold_percentage")
+✓ @AMetaData annotation
+✓ Default value 80
+✓ Validation 0-100 range</t>
         </is>
       </c>
       <c r="F6" s="21" t="inlineStr">
         <is>
-          <t>src/.../projectexpenses/view/CProjectExpenseView.java</t>
+          <t>src/.../budgets/domain/CBudget.java</t>
         </is>
       </c>
       <c r="G6" s="21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="12" t="inlineStr">
         <is>
@@ -4338,39 +5028,40 @@
     <row r="7" hidden="1" ht="30.75" customHeight="1" s="9">
       <c r="A7" s="21" t="inlineStr">
         <is>
-          <t>T2.1.1.1</t>
+          <t>T1.1.3.2</t>
         </is>
       </c>
       <c r="B7" s="21" t="inlineStr">
         <is>
-          <t>US2.1.1</t>
+          <t>US1.1.3</t>
         </is>
       </c>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>Create CResource entity</t>
+          <t>Create CBudgetAlertService with scheduled check</t>
         </is>
       </c>
       <c r="D7" s="21" t="inlineStr">
         <is>
-          <t>Entity for human/equipment/facility resources with availability and cost tracking</t>
+          <t>Service with @Scheduled method checking budgets every hour, sending notifications when threshold exceeded</t>
         </is>
       </c>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>✓ Extend CEntityOfCompany
-✓ @AMetaData on all fields
-✓ EResourceType enum
-✓ hourlyCost, availabilityHours fields</t>
+          <t>✓ @Service annotation
+✓ @Scheduled(cron="0 0 * * * ?")
+✓ Query budgets with exceeded threshold
+✓ Use CNotificationService
+✓ Send email via CEmailNotificationService</t>
         </is>
       </c>
       <c r="F7" s="21" t="inlineStr">
         <is>
-          <t>src/.../resources/domain/CResource.java</t>
+          <t>src/.../budgets/service/CBudgetAlertService.java</t>
         </is>
       </c>
       <c r="G7" s="21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" s="12" t="inlineStr">
         <is>
@@ -4382,42 +5073,43 @@
     <row r="8" hidden="1" ht="74.25" customHeight="1" s="9">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>T2.1.1.2</t>
+          <t>T1.2.1.1</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>US2.1.1</t>
+          <t>US1.2.1</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Create CResourceService with validation</t>
+          <t>Add receipt attachment to expense form</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Service class for resource management with business rule validation</t>
+          <t>Integrate IHasAttachments pattern into CProjectExpense, add attachment button to form</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>✓ Extend CEntityOfCompanyService
-✓ Validate user not linked to multiple resources
-✓ @Transactional methods</t>
+          <t>✓ CProjectExpense implements IHasAttachments
+✓ Add attachment list component to form
+✓ Upload receipt on expense creation</t>
         </is>
       </c>
       <c r="F8" s="21" t="inlineStr">
         <is>
-          <t>src/.../resources/service/CResourceService.java</t>
+          <t>src/.../projectexpenses/domain/CProjectExpense.java
+src/.../projectexpenses/view/CDialogProjectExpense.java</t>
         </is>
       </c>
       <c r="G8" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" s="12" t="inlineStr">
-        <is>
-          <t>TODO</t>
+        <v>2</v>
+      </c>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
       <c r="I8" s="21" t="n"/>
@@ -4425,43 +5117,44 @@
     <row r="9" hidden="1" ht="60" customHeight="1" s="9">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>T2.1.1.3</t>
+          <t>T1.2.2.1</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>US2.1.1</t>
+          <t>US1.2.2</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Create CRUD views with FormBuilder</t>
+          <t>Add approval workflow to CProjectExpense</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Dialog and grid views for resource management following standard patterns</t>
+          <t>Implement IHasStatusAndWorkflow, create expense approval workflow with states: DRAFT, PENDING, APPROVED, REJECTED</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>✓ CDialogResource (single dialog for create/edit)
-✓ FormBuilder for all fields
-✓ binder.writeBean() in save
-✓ Grid with entity columns</t>
+          <t>✓ Implement IHasStatusAndWorkflow
+✓ Create CProjectExpenseWorkflow
+✓ Approval states in workflow
+✓ Approval actions in service</t>
         </is>
       </c>
       <c r="F9" s="21" t="inlineStr">
         <is>
-          <t>src/.../resources/view/CDialogResource.java, CResourceView.java</t>
+          <t>src/.../projectexpenses/domain/CProjectExpense.java
+src/.../projectexpenses/domain/CProjectExpenseWorkflow.java</t>
         </is>
       </c>
       <c r="G9" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="12" t="inlineStr">
-        <is>
-          <t>TODO</t>
+        <v>3</v>
+      </c>
+      <c r="H9" s="11" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
         </is>
       </c>
       <c r="I9" s="21" t="n"/>
@@ -4469,39 +5162,37 @@
     <row r="10" hidden="1" ht="74.25" customHeight="1" s="9">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>T2.2.1.1</t>
+          <t>T1.2.3.1</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>US2.2.1</t>
+          <t>US1.2.3</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Create CResourceAllocation entity</t>
+          <t>Add Apache POI dependency to pom.xml</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Master-detail entity linking resources to activities with allocation percentage</t>
+          <t>Add Apache POI 5.2+ dependency for Excel generation</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>✓ Extend CEntityDB
-✓ @ManyToOne to CResource, CActivity
-✓ allocationPercentage field
-✓ CascadeType.ALL from Activity</t>
+          <t>✓ Add dependency to pom.xml
+✓ Include poi-ooxml for XLSX support</t>
         </is>
       </c>
       <c r="F10" s="21" t="inlineStr">
         <is>
-          <t>src/.../resources/domain/CResourceAllocation.java</t>
+          <t>pom.xml</t>
         </is>
       </c>
       <c r="G10" s="21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" s="12" t="inlineStr">
         <is>
@@ -4513,39 +5204,40 @@
     <row r="11" hidden="1" ht="60" customHeight="1" s="9">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>T2.2.1.2</t>
+          <t>T1.2.3.2</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>US2.2.1</t>
+          <t>US1.2.3</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Add @OneToMany to CActivity</t>
+          <t>Create CExcelExportService</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Add resource allocations collection to Activity entity</t>
+          <t>Service to export expenses/incomes to XLSX with formatting, formulas, and charts</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>✓ @OneToMany(mappedBy="activity")
-✓ CascadeType.ALL
-✓ orphanRemoval=true
-✓ Set&lt;CResourceAllocation&gt;</t>
+          <t>✓ Create Workbook with XSSFWorkbook
+✓ Apply cell styles (headers, currency)
+✓ Add formulas for totals
+✓ Return StreamResource for download
+✓ Set filename with timestamp</t>
         </is>
       </c>
       <c r="F11" s="21" t="inlineStr">
         <is>
-          <t>src/.../activities/domain/CActivity.java</t>
+          <t>src/.../reports/service/CExcelExportService.java</t>
         </is>
       </c>
       <c r="G11" s="21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" s="12" t="inlineStr">
         <is>
@@ -4557,39 +5249,41 @@
     <row r="12" hidden="1" ht="118.5" customHeight="1" s="9">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>T2.2.1.3</t>
+          <t>T1.2.3.3</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>US2.2.1</t>
+          <t>US1.2.3</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Create CComponentListResourceAllocations</t>
+          <t>Add export buttons to expense/income grids</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Grid component for managing resource allocations with CRUD toolbar</t>
+          <t>Add CButton with VaadinIcon.DOWNLOAD to toolbar, trigger export on click</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>✓ Extend CComponentListEntityBase
-✓ Selection-aware buttons
-✓ Double-click to edit
-✓ Entity column helpers</t>
+          <t>✓ Create buttonExport with CButton
+✓ on_buttonExport_clicked() handler
+✓ Call exportService.exportExpenses()
+✓ Trigger download with StreamResource
+✓ Show success notification</t>
         </is>
       </c>
       <c r="F12" s="21" t="inlineStr">
         <is>
-          <t>src/.../resources/view/CComponentListResourceAllocations.java</t>
+          <t>src/.../projectexpenses/view/CProjectExpenseView.java
+src/.../projectincomes/view/CProjectIncomeView.java</t>
         </is>
       </c>
       <c r="G12" s="21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H12" s="12" t="inlineStr">
         <is>
@@ -4601,132 +5295,127 @@
     <row r="13" hidden="1" ht="60" customHeight="1" s="9">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>T3.1.1</t>
+          <t>T1.3.1.1</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>US3.1.1</t>
+          <t>US1.3.1</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Document type auto-detection (DONE)</t>
+          <t>Add exchangeRate field to CCurrency</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Auto-detect document type from file extension using CDocumentTypeService</t>
+          <t>Add exchange rate to base currency field with validation</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>✓ DONE: detectDocumentType(filename, mimeType)
-✓ Extension-based lookup
-✓ MIME type fallback</t>
+          <t>✓ @Column(name="exchange_rate", precision=10, scale=6)
+✓ BigDecimal type
+✓ @AMetaData annotation
+✓ Positive value validation</t>
         </is>
       </c>
       <c r="F13" s="21" t="inlineStr">
         <is>
-          <t>src/.../documenttypes/service/CDocumentTypeService.java</t>
+          <t>src/.../api/domain/CCurrency.java</t>
         </is>
       </c>
       <c r="G13" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="I13" s="21" t="inlineStr">
-        <is>
-          <t>Developer</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I13" s="21" t="n"/>
     </row>
     <row r="14" hidden="1" ht="74.25" customHeight="1" s="9">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>T3.2.1</t>
+          <t>T1.3.2.1</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>US3.2.1</t>
+          <t>US1.3.2</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Version control implementation (DONE)</t>
+          <t>Create CCurrencyConversionService</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Upload new version linking to previous version, increment version number</t>
+          <t>Service to convert amounts between currencies using exchange rates</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>✓ DONE: uploadNewVersion() method
-✓ previousVersion reference
-✓ Auto-increment versionNumber</t>
+          <t>✓ Method: convert(BigDecimal amount, CCurrency from, CCurrency to)
+✓ Calculate: amount * fromRate / toRate
+✓ Handle null currencies with IllegalArgumentException
+✓ Round to 2 decimal places</t>
         </is>
       </c>
       <c r="F14" s="21" t="inlineStr">
         <is>
-          <t>src/.../attachments/service/CAttachmentService.java</t>
+          <t>src/.../api/service/CCurrencyConversionService.java</t>
         </is>
       </c>
       <c r="G14" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="I14" s="21" t="inlineStr">
-        <is>
-          <t>Developer</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H14" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I14" s="21" t="n"/>
     </row>
     <row r="15" hidden="1" ht="30.75" customHeight="1" s="9">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>T4.1.1.1</t>
+          <t>T1.3.2.2</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>US4.1.1</t>
+          <t>US1.3.2</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Create CSprintMetricsService</t>
+          <t>Update expense/income grids to show converted amounts</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Service for calculating sprint metrics (burndown, velocity, etc.)</t>
+          <t>Add calculated column showing amount in base currency if different from original</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>✓ Extend CAbstractService
-✓ calculateBurndown() returns Map&lt;LocalDate, Integer&gt;
-✓ calculateIdealBurndown()</t>
+          <t>✓ Add "Converted Amount" column to grids
+✓ Calculate on-the-fly using conversion service
+✓ Show "(original currency) = converted (base currency)"
+✓ Only show if currencies differ</t>
         </is>
       </c>
       <c r="F15" s="21" t="inlineStr">
         <is>
-          <t>src/.../sprints/service/CSprintMetricsService.java</t>
+          <t>CProjectExpenseView, CProjectIncomeView</t>
         </is>
       </c>
       <c r="G15" s="21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H15" s="12" t="inlineStr">
         <is>
@@ -4738,39 +5427,42 @@
     <row r="16" hidden="1" ht="118.5" customHeight="1" s="9">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>T4.1.1.2</t>
+          <t>T2.1.1.1</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>US4.1.1</t>
+          <t>US2.1.1</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Create burndown chart component using Vaadin Charts</t>
+          <t>Create CResource entity</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Line chart with actual vs ideal burndown, X-axis=days, Y-axis=story points</t>
+          <t>Entity for human/equipment/facility resources with type, availability, and cost tracking</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>✓ Add Vaadin Charts dependency
-✓ Chart component with 2 series
-✓ Extend Div
-✓ Refresh on data change</t>
+          <t>✓ Extend CEntityOfCompany&lt;CResource&gt;
+✓ EResourceType enum (HUMAN, EQUIPMENT, FACILITY)
+✓ @ManyToOne to CUser (optional, for human resources)
+✓ BigDecimal hourlyCost field
+✓ Integer availabilityHoursPerDay (default 8)
+✓ @AMetaData on all fields</t>
         </is>
       </c>
       <c r="F16" s="21" t="inlineStr">
         <is>
-          <t>src/.../sprints/view/CComponentBurndownChart.java</t>
+          <t>src/.../resources/domain/CResource.java
+src/.../resources/domain/EResourceType.java</t>
         </is>
       </c>
       <c r="G16" s="21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16" s="12" t="inlineStr">
         <is>
@@ -4782,34 +5474,36 @@
     <row r="17" hidden="1" ht="30.75" customHeight="1" s="9">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>T4.1.1.3</t>
+          <t>T2.1.1.2</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>US4.1.1</t>
+          <t>US2.1.1</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Add burndown chart to sprint detail view</t>
+          <t>Create IResourceRepository</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Add Metrics tab to sprint detail view containing burndown chart</t>
+          <t>Repository interface with custom queries for resource management</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>✓ Add tab to sprint view
-✓ Instantiate CComponentBurndownChart
-✓ Pass sprint entity</t>
+          <t>✓ Extend IAbstractRepository&lt;CResource&gt;
+✓ findByCompany_Id with ORDER BY name
+✓ findByResourceType
+✓ findByUser (for human resources)
+✓ Custom query annotations</t>
         </is>
       </c>
       <c r="F17" s="21" t="inlineStr">
         <is>
-          <t>src/.../sprints/view/CSprintDetailView.java</t>
+          <t>src/.../resources/repository/IResourceRepository.java</t>
         </is>
       </c>
       <c r="G17" s="21" t="n">
@@ -4822,33 +5516,1218 @@
       </c>
       <c r="I17" s="21" t="n"/>
     </row>
-    <row r="18" hidden="1" ht="74.25" customHeight="1" s="9"/>
-    <row r="19" hidden="1" ht="74.25" customHeight="1" s="9"/>
-    <row r="20" hidden="1" ht="30.75" customHeight="1" s="9"/>
-    <row r="21" hidden="1" ht="74.25" customHeight="1" s="9"/>
-    <row r="22" hidden="1" ht="60" customHeight="1" s="9"/>
-    <row r="23" hidden="1" ht="74.25" customHeight="1" s="9"/>
-    <row r="24" hidden="1" ht="30.75" customHeight="1" s="9"/>
-    <row r="25" hidden="1" ht="60" customHeight="1" s="9"/>
-    <row r="26" hidden="1" ht="60" customHeight="1" s="9"/>
-    <row r="27" hidden="1" ht="74.25" customHeight="1" s="9"/>
-    <row r="28" hidden="1" ht="74.25" customHeight="1" s="9"/>
-    <row r="29" hidden="1" ht="60" customHeight="1" s="9"/>
-    <row r="30" hidden="1" ht="103.5" customHeight="1" s="9"/>
-    <row r="31" hidden="1" ht="74.25" customHeight="1" s="9"/>
-    <row r="32" hidden="1" ht="74.25" customHeight="1" s="9"/>
-    <row r="33" hidden="1" ht="60" customHeight="1" s="9"/>
-    <row r="34" ht="74.25" customHeight="1" s="9"/>
-    <row r="35" ht="60" customHeight="1" s="9"/>
-    <row r="36" ht="74.25" customHeight="1" s="9"/>
-    <row r="37" ht="74.25" customHeight="1" s="9"/>
-    <row r="38" ht="45" customHeight="1" s="9"/>
-    <row r="39" ht="118.5" customHeight="1" s="9"/>
-    <row r="40" ht="30.75" customHeight="1" s="9"/>
-    <row r="41" ht="74.25" customHeight="1" s="9"/>
-    <row r="42" ht="60" customHeight="1" s="9"/>
-    <row r="43" ht="74.25" customHeight="1" s="9"/>
-    <row r="44" ht="30.75" customHeight="1" s="9"/>
+    <row r="18" hidden="1" ht="74.25" customHeight="1" s="9">
+      <c r="A18" s="21" t="inlineStr">
+        <is>
+          <t>T2.1.1.3</t>
+        </is>
+      </c>
+      <c r="B18" s="21" t="inlineStr">
+        <is>
+          <t>US2.1.1</t>
+        </is>
+      </c>
+      <c r="C18" s="21" t="inlineStr">
+        <is>
+          <t>Create CResourceService with validation</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="inlineStr">
+        <is>
+          <t>Service for resource CRUD with business rule validation</t>
+        </is>
+      </c>
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CEntityOfCompanyService&lt;CResource&gt;
+✓ Override validateBeforeSave()
+✓ Check: User not linked to multiple resources
+✓ Check: hourlyCost &gt;= 0
+✓ @Transactional methods</t>
+        </is>
+      </c>
+      <c r="F18" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/service/CResourceService.java</t>
+        </is>
+      </c>
+      <c r="G18" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I18" s="21" t="n"/>
+    </row>
+    <row r="19" hidden="1" ht="74.25" customHeight="1" s="9">
+      <c r="A19" s="21" t="inlineStr">
+        <is>
+          <t>T2.1.1.4</t>
+        </is>
+      </c>
+      <c r="B19" s="21" t="inlineStr">
+        <is>
+          <t>US2.1.1</t>
+        </is>
+      </c>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>Create CDialogResource for CRUD</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="inlineStr">
+        <is>
+          <t>Single dialog for create and edit modes using FormBuilder</t>
+        </is>
+      </c>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CDialogDBEdit&lt;CResource&gt;
+✓ Two constructors (isNew=true/false)
+✓ FormBuilder.build() for all fields
+✓ binder.writeBean() in save()
+✓ CEnhancedBinder usage</t>
+        </is>
+      </c>
+      <c r="F19" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/view/CDialogResource.java</t>
+        </is>
+      </c>
+      <c r="G19" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I19" s="21" t="n"/>
+    </row>
+    <row r="20" hidden="1" ht="30.75" customHeight="1" s="9">
+      <c r="A20" s="21" t="inlineStr">
+        <is>
+          <t>T2.1.1.5</t>
+        </is>
+      </c>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>US2.1.1</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Create CResourceView with grid</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="inlineStr">
+        <is>
+          <t>Main view with grid and CRUD toolbar</t>
+        </is>
+      </c>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CAbstractPage
+✓ CGrid&lt;CResource&gt; with entity columns
+✓ addColumnEntityNamed for user, type
+✓ Selection-aware toolbar
+✓ Double-click opens edit dialog</t>
+        </is>
+      </c>
+      <c r="F20" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/view/CResourceView.java</t>
+        </is>
+      </c>
+      <c r="G20" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I20" s="21" t="n"/>
+    </row>
+    <row r="21" hidden="1" ht="74.25" customHeight="1" s="9">
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>T2.1.2.1</t>
+        </is>
+      </c>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>US2.1.2</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>Create CResourceCalendar entity</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="inlineStr">
+        <is>
+          <t>Calendar entity for resource availability with working hours and holidays</t>
+        </is>
+      </c>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CEntityDB&lt;CResourceCalendar&gt;
+✓ @ManyToOne to CResource
+✓ LocalDate date field
+✓ LocalTime startTime, endTime
+✓ Boolean isHoliday, isLeave</t>
+        </is>
+      </c>
+      <c r="F21" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/domain/CResourceCalendar.java</t>
+        </is>
+      </c>
+      <c r="G21" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I21" s="21" t="n"/>
+    </row>
+    <row r="22" hidden="1" ht="60" customHeight="1" s="9">
+      <c r="A22" s="21" t="inlineStr">
+        <is>
+          <t>T2.1.2.2</t>
+        </is>
+      </c>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>US2.1.2</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>Create calendar UI component</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="inlineStr">
+        <is>
+          <t>Full calendar view for managing resource availability</t>
+        </is>
+      </c>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>✓ Use FullCalendar Vaadin component
+✓ Show resource working hours
+✓ Highlight holidays and leave
+✓ Click to add/edit entries
+✓ Color-code by type</t>
+        </is>
+      </c>
+      <c r="F22" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/view/CComponentResourceCalendar.java</t>
+        </is>
+      </c>
+      <c r="G22" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I22" s="21" t="n"/>
+    </row>
+    <row r="23" hidden="1" ht="74.25" customHeight="1" s="9">
+      <c r="A23" s="21" t="inlineStr">
+        <is>
+          <t>T2.2.1.1</t>
+        </is>
+      </c>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>US2.2.1</t>
+        </is>
+      </c>
+      <c r="C23" s="21" t="inlineStr">
+        <is>
+          <t>Create CResourceAllocation entity</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="inlineStr">
+        <is>
+          <t>Master-detail entity linking resources to activities with allocation percentage and dates</t>
+        </is>
+      </c>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CEntityDB&lt;CResourceAllocation&gt;
+✓ @ManyToOne to CResource (required)
+✓ @ManyToOne to CActivity (required)
+✓ Integer allocationPercentage (1-100, default 100)
+✓ LocalDate startDate, endDate
+✓ @AMetaData with dataProviderBean</t>
+        </is>
+      </c>
+      <c r="F23" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/domain/CResourceAllocation.java</t>
+        </is>
+      </c>
+      <c r="G23" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I23" s="21" t="n"/>
+    </row>
+    <row r="24" hidden="1" ht="30.75" customHeight="1" s="9">
+      <c r="A24" s="21" t="inlineStr">
+        <is>
+          <t>T2.2.1.2</t>
+        </is>
+      </c>
+      <c r="B24" s="21" t="inlineStr">
+        <is>
+          <t>US2.2.1</t>
+        </is>
+      </c>
+      <c r="C24" s="21" t="inlineStr">
+        <is>
+          <t>Add resourceAllocations to CActivity</t>
+        </is>
+      </c>
+      <c r="D24" s="21" t="inlineStr">
+        <is>
+          <t>Add @OneToMany relationship to Activity entity</t>
+        </is>
+      </c>
+      <c r="E24" s="21" t="inlineStr">
+        <is>
+          <t>✓ @OneToMany(mappedBy="activity", cascade=CascadeType.ALL, orphanRemoval=true)
+✓ Set&lt;CResourceAllocation&gt; resourceAllocations
+✓ Getter/setter methods</t>
+        </is>
+      </c>
+      <c r="F24" s="21" t="inlineStr">
+        <is>
+          <t>src/.../activities/domain/CActivity.java</t>
+        </is>
+      </c>
+      <c r="G24" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I24" s="21" t="n"/>
+    </row>
+    <row r="25" hidden="1" ht="60" customHeight="1" s="9">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>T2.2.1.3</t>
+        </is>
+      </c>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>US2.2.1</t>
+        </is>
+      </c>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>Create CResourceAllocationService</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="inlineStr">
+        <is>
+          <t>Service for resource allocation management</t>
+        </is>
+      </c>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CAbstractService&lt;CResourceAllocation&gt;
+✓ Validate: allocation 1-100%
+✓ Validate: startDate &lt;= endDate
+✓ Validate: dates within activity dates
+✓ Calculate total allocation per resource</t>
+        </is>
+      </c>
+      <c r="F25" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/service/CResourceAllocationService.java</t>
+        </is>
+      </c>
+      <c r="G25" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I25" s="21" t="n"/>
+    </row>
+    <row r="26" hidden="1" ht="60" customHeight="1" s="9">
+      <c r="A26" s="21" t="inlineStr">
+        <is>
+          <t>T2.2.1.4</t>
+        </is>
+      </c>
+      <c r="B26" s="21" t="inlineStr">
+        <is>
+          <t>US2.2.1</t>
+        </is>
+      </c>
+      <c r="C26" s="21" t="inlineStr">
+        <is>
+          <t>Create CComponentListResourceAllocations</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="inlineStr">
+        <is>
+          <t>Grid component for activity detail view to manage resource allocations</t>
+        </is>
+      </c>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CComponentListEntityBase&lt;CResourceAllocation, CActivity&gt;
+✓ Grid columns: Resource, Allocation %, Start Date, End Date
+✓ addColumnEntityNamed for resource
+✓ Selection-aware buttons (add, edit, delete)
+✓ Double-click to edit</t>
+        </is>
+      </c>
+      <c r="F26" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/view/CComponentListResourceAllocations.java</t>
+        </is>
+      </c>
+      <c r="G26" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I26" s="21" t="n"/>
+    </row>
+    <row r="27" hidden="1" ht="74.25" customHeight="1" s="9">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>T2.2.1.5</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>US2.2.1</t>
+        </is>
+      </c>
+      <c r="C27" s="21" t="inlineStr">
+        <is>
+          <t>Add Resources tab to activity detail view</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>Integrate resource allocation component into activity detail</t>
+        </is>
+      </c>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>✓ Add "Resources" tab to activity tabs
+✓ Instantiate CComponentListResourceAllocations
+✓ Pass activity entity
+✓ Register refresh listeners</t>
+        </is>
+      </c>
+      <c r="F27" s="21" t="inlineStr">
+        <is>
+          <t>src/.../activities/view/CActivityDetailView.java</t>
+        </is>
+      </c>
+      <c r="G27" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I27" s="21" t="n"/>
+    </row>
+    <row r="28" hidden="1" ht="74.25" customHeight="1" s="9">
+      <c r="A28" s="21" t="inlineStr">
+        <is>
+          <t>T2.2.2.1</t>
+        </is>
+      </c>
+      <c r="B28" s="21" t="inlineStr">
+        <is>
+          <t>US2.2.2</t>
+        </is>
+      </c>
+      <c r="C28" s="21" t="inlineStr">
+        <is>
+          <t>Create CResourceCapacityService</t>
+        </is>
+      </c>
+      <c r="D28" s="21" t="inlineStr">
+        <is>
+          <t>Service to calculate resource capacity vs allocation</t>
+        </is>
+      </c>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>✓ Method: calculateCapacity(CResource, LocalDate start, end)
+✓ Method: calculateAllocation(CResource, LocalDate start, end)
+✓ Consider working hours from calendar
+✓ Sum allocation percentages
+✓ Return CapacityData DTO</t>
+        </is>
+      </c>
+      <c r="F28" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/service/CResourceCapacityService.java</t>
+        </is>
+      </c>
+      <c r="G28" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I28" s="21" t="n"/>
+    </row>
+    <row r="29" hidden="1" ht="60" customHeight="1" s="9">
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>T2.2.2.2</t>
+        </is>
+      </c>
+      <c r="B29" s="21" t="inlineStr">
+        <is>
+          <t>US2.2.2</t>
+        </is>
+      </c>
+      <c r="C29" s="21" t="inlineStr">
+        <is>
+          <t>Create capacity chart component using Vaadin Charts</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>Chart showing capacity bars vs allocation bars per resource</t>
+        </is>
+      </c>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>✓ Add Vaadin Charts dependency if missing
+✓ Bar chart with grouped bars
+✓ X-axis: Resources
+✓ Y-axis: Hours
+✓ Two series: Capacity (blue), Allocation (orange)
+✓ Highlight overallocated resources (red)</t>
+        </is>
+      </c>
+      <c r="F29" s="21" t="inlineStr">
+        <is>
+          <t>src/.../resources/view/CComponentResourceCapacity.java</t>
+        </is>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I29" s="21" t="n"/>
+    </row>
+    <row r="30" hidden="1" ht="103.5" customHeight="1" s="9">
+      <c r="A30" s="21" t="inlineStr">
+        <is>
+          <t>T2.3.1.1</t>
+        </is>
+      </c>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t>US2.3.1</t>
+        </is>
+      </c>
+      <c r="C30" s="21" t="inlineStr">
+        <is>
+          <t>Create CTimesheet entity</t>
+        </is>
+      </c>
+      <c r="D30" s="21" t="inlineStr">
+        <is>
+          <t>Weekly timesheet entity for user work hour tracking</t>
+        </is>
+      </c>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CEntityDB&lt;CTimesheet&gt;
+✓ @ManyToOne to CUser
+✓ LocalDate weekStartDate (Monday)
+✓ ETimesheetStatus enum (DRAFT, SUBMITTED, APPROVED, REJECTED)
+✓ @OneToMany to CTimesheetEntry</t>
+        </is>
+      </c>
+      <c r="F30" s="21" t="inlineStr">
+        <is>
+          <t>src/.../timesheets/domain/CTimesheet.java
+src/.../timesheets/domain/ETimesheetStatus.java</t>
+        </is>
+      </c>
+      <c r="G30" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I30" s="21" t="n"/>
+    </row>
+    <row r="31" hidden="1" ht="74.25" customHeight="1" s="9">
+      <c r="A31" s="21" t="inlineStr">
+        <is>
+          <t>T2.3.1.2</t>
+        </is>
+      </c>
+      <c r="B31" s="21" t="inlineStr">
+        <is>
+          <t>US2.3.1</t>
+        </is>
+      </c>
+      <c r="C31" s="21" t="inlineStr">
+        <is>
+          <t>Create CTimesheetEntry entity</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="inlineStr">
+        <is>
+          <t>Daily work log entry per activity</t>
+        </is>
+      </c>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CEntityDB&lt;CTimesheetEntry&gt;
+✓ @ManyToOne to CTimesheet
+✓ @ManyToOne to CActivity
+✓ LocalDate date
+✓ BigDecimal hoursWorked
+✓ String description (optional)</t>
+        </is>
+      </c>
+      <c r="F31" s="21" t="inlineStr">
+        <is>
+          <t>src/.../timesheets/domain/CTimesheetEntry.java</t>
+        </is>
+      </c>
+      <c r="G31" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I31" s="21" t="n"/>
+    </row>
+    <row r="32" hidden="1" ht="74.25" customHeight="1" s="9">
+      <c r="A32" s="21" t="inlineStr">
+        <is>
+          <t>T2.3.1.3</t>
+        </is>
+      </c>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>US2.3.1</t>
+        </is>
+      </c>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>Create weekly timesheet grid view</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="inlineStr">
+        <is>
+          <t>Custom grid with 7-day columns and activities as rows, inline editing</t>
+        </is>
+      </c>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>✓ Layout: 7 columns (Mon-Sun) + Activity column
+✓ Rows: Activities assigned to user
+✓ Cells: TextField for hours (inline edit)
+✓ Auto-save on blur
+✓ Total row at bottom
+✓ Total column on right</t>
+        </is>
+      </c>
+      <c r="F32" s="21" t="inlineStr">
+        <is>
+          <t>src/.../timesheets/view/CTimesheetView.java</t>
+        </is>
+      </c>
+      <c r="G32" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H32" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I32" s="21" t="n"/>
+    </row>
+    <row r="33" hidden="1" ht="60" customHeight="1" s="9">
+      <c r="A33" s="21" t="inlineStr">
+        <is>
+          <t>T2.3.1.4</t>
+        </is>
+      </c>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>US2.3.1</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>Create timesheet submission workflow</t>
+        </is>
+      </c>
+      <c r="D33" s="21" t="inlineStr">
+        <is>
+          <t>Workflow for submitting, approving, rejecting timesheets</t>
+        </is>
+      </c>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>✓ Submit button (DRAFT → SUBMITTED)
+✓ Approve button (SUBMITTED → APPROVED, manager only)
+✓ Reject button (SUBMITTED → REJECTED, manager only)
+✓ Status change notifications
+✓ Lock entries after approval</t>
+        </is>
+      </c>
+      <c r="F33" s="21" t="inlineStr">
+        <is>
+          <t>src/.../timesheets/service/CTimesheetWorkflowService.java</t>
+        </is>
+      </c>
+      <c r="G33" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I33" s="21" t="n"/>
+    </row>
+    <row r="34" ht="74.25" customHeight="1" s="9">
+      <c r="A34" s="21" t="inlineStr">
+        <is>
+          <t>T2.3.2.1</t>
+        </is>
+      </c>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>US2.3.2</t>
+        </is>
+      </c>
+      <c r="C34" s="21" t="inlineStr">
+        <is>
+          <t>Add actualHours field to CActivity</t>
+        </is>
+      </c>
+      <c r="D34" s="21" t="inlineStr">
+        <is>
+          <t>Track actual work hours from timesheets</t>
+        </is>
+      </c>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>✓ BigDecimal actualHours field
+✓ Calculated from approved timesheet entries
+✓ Method: calculateActualHours()
+✓ Display in activity detail view</t>
+        </is>
+      </c>
+      <c r="F34" s="21" t="inlineStr">
+        <is>
+          <t>src/.../activities/domain/CActivity.java</t>
+        </is>
+      </c>
+      <c r="G34" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I34" s="21" t="n"/>
+    </row>
+    <row r="35" ht="60" customHeight="1" s="9">
+      <c r="A35" s="21" t="inlineStr">
+        <is>
+          <t>T2.3.2.2</t>
+        </is>
+      </c>
+      <c r="B35" s="21" t="inlineStr">
+        <is>
+          <t>US2.3.2</t>
+        </is>
+      </c>
+      <c r="C35" s="21" t="inlineStr">
+        <is>
+          <t>Create actual vs planned hours comparison widget</t>
+        </is>
+      </c>
+      <c r="D35" s="21" t="inlineStr">
+        <is>
+          <t>Widget showing estimated hours vs actual hours per activity</t>
+        </is>
+      </c>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>✓ Grid with columns: Activity, Estimated, Actual, Variance, %
+✓ Color-code: green (under), yellow (equal), red (over)
+✓ Aggregation row for totals
+✓ Filter by date range</t>
+        </is>
+      </c>
+      <c r="F35" s="21" t="inlineStr">
+        <is>
+          <t>src/.../activities/view/CComponentActualVsPlanned.java</t>
+        </is>
+      </c>
+      <c r="G35" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I35" s="21" t="n"/>
+    </row>
+    <row r="36" ht="74.25" customHeight="1" s="9">
+      <c r="A36" s="21" t="inlineStr">
+        <is>
+          <t>T3.3.1</t>
+        </is>
+      </c>
+      <c r="B36" s="21" t="inlineStr">
+        <is>
+          <t>US3.3.1</t>
+        </is>
+      </c>
+      <c r="C36" s="21" t="inlineStr">
+        <is>
+          <t>Add in-browser preview for PDF/images</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="inlineStr">
+        <is>
+          <t>Preview common file types without downloading</t>
+        </is>
+      </c>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>✓ Use Vaadin PDFViewer for PDFs
+✓ Use Image component for images
+✓ Add Preview button to attachment grid
+✓ Open preview in dialog</t>
+        </is>
+      </c>
+      <c r="F36" s="21" t="inlineStr">
+        <is>
+          <t>src/.../attachments/view/CDialogAttachmentPreview.java</t>
+        </is>
+      </c>
+      <c r="G36" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I36" s="21" t="n"/>
+    </row>
+    <row r="37" ht="74.25" customHeight="1" s="9">
+      <c r="A37" s="21" t="inlineStr">
+        <is>
+          <t>T3.3.2</t>
+        </is>
+      </c>
+      <c r="B37" s="21" t="inlineStr">
+        <is>
+          <t>US3.3.2</t>
+        </is>
+      </c>
+      <c r="C37" s="21" t="inlineStr">
+        <is>
+          <t>Add full-text search for document content</t>
+        </is>
+      </c>
+      <c r="D37" s="21" t="inlineStr">
+        <is>
+          <t>Index and search document content using Apache Lucene</t>
+        </is>
+      </c>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>✓ Add Apache Lucene dependency
+✓ Index document content on upload
+✓ Create CDocumentSearchService
+✓ Add search field to attachment list
+✓ Highlight matching documents</t>
+        </is>
+      </c>
+      <c r="F37" s="21" t="inlineStr">
+        <is>
+          <t>src/.../attachments/service/CDocumentSearchService.java</t>
+        </is>
+      </c>
+      <c r="G37" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H37" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I37" s="21" t="n"/>
+    </row>
+    <row r="38" ht="45" customHeight="1" s="9">
+      <c r="A38" s="21" t="inlineStr">
+        <is>
+          <t>T4.1.1.1</t>
+        </is>
+      </c>
+      <c r="B38" s="21" t="inlineStr">
+        <is>
+          <t>US4.1.1</t>
+        </is>
+      </c>
+      <c r="C38" s="21" t="inlineStr">
+        <is>
+          <t>Create CSprintMetricsService</t>
+        </is>
+      </c>
+      <c r="D38" s="21" t="inlineStr">
+        <is>
+          <t>Service for calculating sprint metrics (burndown, velocity, CFD)</t>
+        </is>
+      </c>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend CAbstractService
+✓ Method: calculateBurndown(CSprint) → Map&lt;LocalDate, Integer&gt;
+✓ Method: calculateIdealBurndown(CSprint) → Map&lt;LocalDate, BigDecimal&gt;
+✓ Method: calculateVelocity(List&lt;CSprint&gt;) → Map&lt;CSprint, Integer&gt;
+✓ @Transactional(readOnly=true)</t>
+        </is>
+      </c>
+      <c r="F38" s="21" t="inlineStr">
+        <is>
+          <t>src/.../sprints/service/CSprintMetricsService.java</t>
+        </is>
+      </c>
+      <c r="G38" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I38" s="21" t="n"/>
+    </row>
+    <row r="39" ht="118.5" customHeight="1" s="9">
+      <c r="A39" s="21" t="inlineStr">
+        <is>
+          <t>T4.1.1.2</t>
+        </is>
+      </c>
+      <c r="B39" s="21" t="inlineStr">
+        <is>
+          <t>US4.1.1</t>
+        </is>
+      </c>
+      <c r="C39" s="21" t="inlineStr">
+        <is>
+          <t>Add Vaadin Charts dependency</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="inlineStr">
+        <is>
+          <t>Add Vaadin Charts for visualizations</t>
+        </is>
+      </c>
+      <c r="E39" s="21" t="inlineStr">
+        <is>
+          <t>✓ Add to pom.xml: vaadin-charts-flow
+✓ Verify license (commercial or trial)</t>
+        </is>
+      </c>
+      <c r="F39" s="21" t="inlineStr">
+        <is>
+          <t>pom.xml</t>
+        </is>
+      </c>
+      <c r="G39" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I39" s="21" t="n"/>
+    </row>
+    <row r="40" ht="30.75" customHeight="1" s="9">
+      <c r="A40" s="21" t="inlineStr">
+        <is>
+          <t>T4.1.1.3</t>
+        </is>
+      </c>
+      <c r="B40" s="21" t="inlineStr">
+        <is>
+          <t>US4.1.1</t>
+        </is>
+      </c>
+      <c r="C40" s="21" t="inlineStr">
+        <is>
+          <t>Create CComponentBurndownChart</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="inlineStr">
+        <is>
+          <t>Line chart showing actual vs ideal burndown</t>
+        </is>
+      </c>
+      <c r="E40" s="21" t="inlineStr">
+        <is>
+          <t>✓ Extend Div or VerticalLayout
+✓ Use Chart component
+✓ Configuration: line chart, 2 series
+✓ X-axis: Sprint days (dates)
+✓ Y-axis: Story points remaining
+✓ Legend: Actual (blue), Ideal (gray dashed)
+✓ Responsive design</t>
+        </is>
+      </c>
+      <c r="F40" s="21" t="inlineStr">
+        <is>
+          <t>src/.../sprints/view/CComponentBurndownChart.java</t>
+        </is>
+      </c>
+      <c r="G40" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I40" s="21" t="n"/>
+    </row>
+    <row r="41" ht="74.25" customHeight="1" s="9">
+      <c r="A41" s="21" t="inlineStr">
+        <is>
+          <t>T4.1.1.4</t>
+        </is>
+      </c>
+      <c r="B41" s="21" t="inlineStr">
+        <is>
+          <t>US4.1.1</t>
+        </is>
+      </c>
+      <c r="C41" s="21" t="inlineStr">
+        <is>
+          <t>Add Metrics tab to sprint detail view</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="inlineStr">
+        <is>
+          <t>Tab in sprint detail showing burndown chart</t>
+        </is>
+      </c>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>✓ Add "Metrics" tab to sprint tabs
+✓ Instantiate CComponentBurndownChart
+✓ Pass sprint entity
+✓ Refresh on sprint changes</t>
+        </is>
+      </c>
+      <c r="F41" s="21" t="inlineStr">
+        <is>
+          <t>src/.../sprints/view/CSprintDetailView.java</t>
+        </is>
+      </c>
+      <c r="G41" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I41" s="21" t="n"/>
+    </row>
+    <row r="42" ht="60" customHeight="1" s="9">
+      <c r="A42" s="21" t="inlineStr">
+        <is>
+          <t>T4.1.2.1</t>
+        </is>
+      </c>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>US4.1.2</t>
+        </is>
+      </c>
+      <c r="C42" s="21" t="inlineStr">
+        <is>
+          <t>Implement velocity calculation</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="inlineStr">
+        <is>
+          <t>Calculate completed story points per sprint</t>
+        </is>
+      </c>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>✓ Query sprint items with status=DONE
+✓ Sum story points per sprint
+✓ Return velocity per sprint
+✓ Calculate average velocity</t>
+        </is>
+      </c>
+      <c r="F42" s="21" t="inlineStr">
+        <is>
+          <t>CSprintMetricsService</t>
+        </is>
+      </c>
+      <c r="G42" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I42" s="21" t="n"/>
+    </row>
+    <row r="43" ht="74.25" customHeight="1" s="9">
+      <c r="A43" s="21" t="inlineStr">
+        <is>
+          <t>T4.1.2.2</t>
+        </is>
+      </c>
+      <c r="B43" s="21" t="inlineStr">
+        <is>
+          <t>US4.1.2</t>
+        </is>
+      </c>
+      <c r="C43" s="21" t="inlineStr">
+        <is>
+          <t>Create velocity chart component</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="inlineStr">
+        <is>
+          <t>Bar chart showing velocity over time with trend line</t>
+        </is>
+      </c>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>✓ Bar chart with velocity per sprint
+✓ Add trend line (moving average)
+✓ X-axis: Sprint names
+✓ Y-axis: Story points completed
+✓ Show average velocity line</t>
+        </is>
+      </c>
+      <c r="F43" s="21" t="inlineStr">
+        <is>
+          <t>src/.../sprints/view/CComponentVelocityChart.java</t>
+        </is>
+      </c>
+      <c r="G43" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I43" s="21" t="n"/>
+    </row>
+    <row r="44" ht="30.75" customHeight="1" s="9">
+      <c r="A44" s="21" t="inlineStr">
+        <is>
+          <t>T4.1.3.1</t>
+        </is>
+      </c>
+      <c r="B44" s="21" t="inlineStr">
+        <is>
+          <t>US4.1.3</t>
+        </is>
+      </c>
+      <c r="C44" s="21" t="inlineStr">
+        <is>
+          <t>Create cumulative flow diagram</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="inlineStr">
+        <is>
+          <t>Stacked area chart showing work items by status over time</t>
+        </is>
+      </c>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>✓ Stacked area chart
+✓ X-axis: Time (days)
+✓ Y-axis: Count of items
+✓ Areas: TODO, IN_PROGRESS, DONE
+✓ Different colors per status
+✓ Calculate daily snapshots</t>
+        </is>
+      </c>
+      <c r="F44" s="21" t="inlineStr">
+        <is>
+          <t>src/.../sprints/view/CComponentCumulativeFlow.java</t>
+        </is>
+      </c>
+      <c r="G44" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" s="12" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I44" s="21" t="n"/>
+    </row>
     <row r="45" ht="118.5" customHeight="1" s="9"/>
     <row r="46" ht="60" customHeight="1" s="9"/>
     <row r="47" ht="60" customHeight="1" s="9"/>

--- a/docs/__PROJECT_BACKLOG.xlsx
+++ b/docs/__PROJECT_BACKLOG.xlsx
@@ -155,7 +155,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -220,6 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
@@ -1907,6 +1908,254 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Workflow Management</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>Jira-like visual workflow designer with transitions, validators, conditions, post-functions, and screens</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="K25" s="8">
+        <f>SUMIF(Features!B:B,A25,Features!I:I)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>Issue Linking &amp; Dependencies</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>Link issues with relationships like 'blocks', 'depends on', 'relates to', 'duplicates'</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="K26" s="8">
+        <f>SUMIF(Features!B:B,A26,Features!I:I)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Workflow Management</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>Visual workflow designer with transitions, validators, conditions, post-functions, screens</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="K27" s="8">
+        <f>SUMIF(Features!B:B,A27,Features!I:I)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Issue Linking &amp; Dependencies</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>Link issues with relationships: blocks, depends on, relates to, duplicates, clones</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="K28" s="8">
+        <f>SUMIF(Features!B:B,A28,Features!I:I)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Kanban Features</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>WIP limits, swimlanes, quick filters, cycle time, control charts</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="K29" s="8">
+        <f>SUMIF(Features!B:B,A29,Features!I:I)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Time Tracking &amp; Worklog</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Track time spent, original estimate, remaining estimate with detailed work logs</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="K30">
+        <f>SUMIF(Features!B:B,A30,Features!I:I)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Customizable Dashboards</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>User-configurable dashboards with draggable widgets/gadgets</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="K31">
+        <f>SUMIF(Features!B:B,A31,Features!I:I)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Advanced Search &amp; JQL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Jira Query Language-like advanced search with saved filters</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="K32">
+        <f>SUMIF(Features!B:B,A32,Features!I:I)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G15"/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1921,7 +2170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
@@ -3275,15 +3524,330 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="118.5" customHeight="1" s="9"/>
-    <row r="25" ht="118.5" customHeight="1" s="9"/>
-    <row r="26" ht="147.75" customHeight="1" s="9"/>
-    <row r="27" ht="147.75" customHeight="1" s="9"/>
-    <row r="28" ht="118.5" customHeight="1" s="9"/>
-    <row r="29" ht="118.5" customHeight="1" s="9"/>
-    <row r="30" ht="132.75" customHeight="1" s="9"/>
-    <row r="31" ht="132.75" customHeight="1" s="9"/>
-    <row r="32" ht="13.8" customHeight="1" s="9"/>
+    <row r="24" ht="118.5" customHeight="1" s="9">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>F5.1</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>Visual Workflow Designer</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>Drag-drop workflow canvas with status nodes and transition arrows</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I24" s="8">
+        <f>SUMIF(User_Stories!B:B,A24,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="118.5" customHeight="1" s="9">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>F6.1</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>Issue Link Types</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>Define link types with forward/reverse names</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I25" s="8">
+        <f>SUMIF(User_Stories!B:B,A25,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="147.75" customHeight="1" s="9">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>F5.1</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>Visual Workflow Designer</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>Drag-drop canvas for workflow design with status nodes and transition arrows</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I26" s="8">
+        <f>SUMIF(User_Stories!B:B,A26,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="147.75" customHeight="1" s="9">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>F6.1</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>Issue Link Types</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>Define link types with forward/reverse names (blocks/is blocked by)</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I27" s="8">
+        <f>SUMIF(User_Stories!B:B,A27,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="118.5" customHeight="1" s="9">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>F7.1</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>WIP Limits</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>Set and enforce work-in-progress limits per column</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I28" s="8">
+        <f>SUMIF(User_Stories!B:B,A28,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="118.5" customHeight="1" s="9">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>F7.2</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>Swimlanes</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>Group kanban cards by assignee, priority, or project</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I29" s="8">
+        <f>SUMIF(User_Stories!B:B,A29,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="132.75" customHeight="1" s="9">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>F8.1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Work Log Entities</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Domain model for time tracking</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I30">
+        <f>SUMIF(User_Stories!B:B,A30,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="132.75" customHeight="1" s="9">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>F9.1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Dashboard Framework</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Core dashboard and widget architecture</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I31">
+        <f>SUMIF(User_Stories!B:B,A31,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="9">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>F10.1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>JQL Parser</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Parse and execute JQL-like queries</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="I32">
+        <f>SUMIF(User_Stories!B:B,A32,User_Stories!F:F)</f>
+        <v/>
+      </c>
+    </row>
     <row r="33" ht="13.8" customHeight="1" s="9"/>
     <row r="34" ht="13.8" customHeight="1" s="9"/>
     <row r="35" ht="13.8" customHeight="1" s="9"/>
@@ -3315,7 +3879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
@@ -4718,9 +5282,456 @@
       </c>
       <c r="I33" s="21" t="n"/>
     </row>
-    <row r="34" ht="118.5" customHeight="1" s="9"/>
-    <row r="35" ht="132.75" customHeight="1" s="9"/>
-    <row r="36" ht="132.75" customHeight="1" s="9"/>
+    <row r="34" ht="118.5" customHeight="1" s="9">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>F5.1</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>Workflow canvas component</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="inlineStr">
+        <is>
+          <t>As admin, I can design workflows visually with drag-drop</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="132.75" customHeight="1" s="9">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.1</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>F6.1</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>Link type management</t>
+        </is>
+      </c>
+      <c r="D35" s="8" t="inlineStr">
+        <is>
+          <t>As admin, I can create link types (blocks/is blocked by)</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" ht="132.75" customHeight="1" s="9">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>F5.1</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>Workflow entities</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>As developer, entities exist for workflow statuses and transitions</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.2</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>F5.1</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Workflow services</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>As developer, services exist for workflow CRUD and transition logic</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.3</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>F5.1</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>Workflow designer UI</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>As admin, I can design workflows visually in canvas</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.1</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>F6.1</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>Link type management</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr">
+        <is>
+          <t>As admin, I can create and manage issue link types</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.2</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>F6.1</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>Link management UI</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="inlineStr">
+        <is>
+          <t>As user, I can add/remove links between issues</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>US7.1.1</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>F7.1</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>WIP limit configuration</t>
+        </is>
+      </c>
+      <c r="D41" s="8" t="inlineStr">
+        <is>
+          <t>As admin, I can set WIP limits on kanban columns</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>US7.2.1</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>F7.2</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>Swimlane implementation</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="inlineStr">
+        <is>
+          <t>As user, I can view kanban board with swimlanes</t>
+        </is>
+      </c>
+      <c r="E42" s="8" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>US8.1.1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F8.1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Worklog entities</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>As developer, worklog entities exist</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>US8.1.2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F8.1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Worklog UI components</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>As user, I can log time on issues</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>US9.1.1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>F9.1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Dashboard entities</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>As developer, dashboard entities exist</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>US9.1.2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>F9.1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Dashboard UI</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>As user, I can customize my dashboard</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>US10.1.1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F10.1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>JQL parser implementation</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>As developer, JQL parser exists</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>US10.1.2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>F10.1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>JQL search UI</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>As user, I can use JQL to search issues</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J36"/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4735,7 +5746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
@@ -6728,53 +7739,2260 @@
       </c>
       <c r="I44" s="21" t="n"/>
     </row>
-    <row r="45" ht="118.5" customHeight="1" s="9"/>
-    <row r="46" ht="60" customHeight="1" s="9"/>
-    <row r="47" ht="60" customHeight="1" s="9"/>
-    <row r="48" ht="74.25" customHeight="1" s="9"/>
-    <row r="49" ht="30.75" customHeight="1" s="9"/>
-    <row r="50" ht="118.5" customHeight="1" s="9"/>
-    <row r="51" ht="74.25" customHeight="1" s="9"/>
-    <row r="52" ht="60" customHeight="1" s="9"/>
-    <row r="53" ht="74.25" customHeight="1" s="9"/>
-    <row r="54" ht="30.75" customHeight="1" s="9"/>
-    <row r="55" ht="89.25" customHeight="1" s="9"/>
-    <row r="56" ht="60" customHeight="1" s="9"/>
-    <row r="57" ht="132.75" customHeight="1" s="9"/>
-    <row r="58" ht="30.75" customHeight="1" s="9"/>
-    <row r="59" ht="74.25" customHeight="1" s="9"/>
-    <row r="60" ht="30.75" customHeight="1" s="9"/>
-    <row r="61" ht="118.5" customHeight="1" s="9"/>
-    <row r="62" ht="74.25" customHeight="1" s="9"/>
-    <row r="63" ht="74.25" customHeight="1" s="9"/>
-    <row r="64" ht="74.25" customHeight="1" s="9"/>
-    <row r="65" ht="74.25" customHeight="1" s="9"/>
-    <row r="66" ht="60" customHeight="1" s="9"/>
-    <row r="67" ht="74.25" customHeight="1" s="9"/>
-    <row r="68" ht="60" customHeight="1" s="9"/>
-    <row r="69" ht="60" customHeight="1" s="9"/>
-    <row r="70" ht="74.25" customHeight="1" s="9"/>
-    <row r="71" ht="30.75" customHeight="1" s="9"/>
-    <row r="72" ht="74.25" customHeight="1" s="9"/>
-    <row r="73" ht="74.25" customHeight="1" s="9"/>
-    <row r="74" ht="30.75" customHeight="1" s="9"/>
-    <row r="75" ht="74.25" customHeight="1" s="9"/>
-    <row r="76" ht="74.25" customHeight="1" s="9"/>
-    <row r="77" ht="74.25" customHeight="1" s="9"/>
-    <row r="78" ht="45" customHeight="1" s="9"/>
-    <row r="79" ht="60" customHeight="1" s="9"/>
-    <row r="80" ht="74.25" customHeight="1" s="9"/>
-    <row r="81" ht="30.75" customHeight="1" s="9"/>
-    <row r="82" ht="74.25" customHeight="1" s="9"/>
-    <row r="83" ht="74.25" customHeight="1" s="9"/>
-    <row r="84" ht="30.75" customHeight="1" s="9"/>
-    <row r="85" ht="74.25" customHeight="1" s="9"/>
-    <row r="86" ht="30.75" customHeight="1" s="9"/>
-    <row r="87" ht="74.25" customHeight="1" s="9"/>
-    <row r="88" ht="60" customHeight="1" s="9"/>
-    <row r="89" ht="74.25" customHeight="1" s="9"/>
-    <row r="90" ht="15.75" customHeight="1" s="9"/>
-    <row r="91" ht="74.25" customHeight="1" s="9"/>
+    <row r="45" ht="118.5" customHeight="1" s="9">
+      <c r="A45" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.1.1</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>Create CWorkflowStatus entity</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="inlineStr">
+        <is>
+          <t>Entity for workflow status nodes with position and visual properties.
+AI AGENT INSTRUCTIONS:
+1. Review CProjectItemStatus for existing pattern
+2. Create CWorkflowStatus extending CEntityOfCompany&lt;CWorkflowStatus&gt;
+3. Add fields: name, description, category (enum: TODO/IN_PROGRESS/DONE)
+4. Add visual fields: positionX, positionY (Integer), color (String #RRGGBB)
+5. Add boolean flags: isInitial (default start status), isFinal (terminal status)
+6. Add @ManyToOne to CWorkflowBase (owner workflow)
+7. Add statusOrder field (Integer) for default ordering
+8. Use @AMetaData on all fields for form generation</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Class name: CWorkflowStatus (C-prefix mandatory)
+✓ Extend: CEntityOfCompany&lt;CWorkflowStatus&gt;
+✓ Add ENTITY_TITLE_SINGULAR = "Workflow Status"
+✓ Add ENTITY_TITLE_PLURAL = "Workflow Statuses"
+✓ Add static final Logger LOGGER = LoggerFactory.getLogger(CWorkflowStatus.class)
+✓ All fields have @AMetaData(displayName="...", required=true/false)
+✓ Use @NotBlank on name field
+✓ Use @Size(max=255) on string fields
+✓ Use @ManyToOne(fetch = FetchType.LAZY) for workflow
+✓ Implement equals() and hashCode() based on id
+✓ Add DEFAULT_COLOR = "#4472C4" constant</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>CREATE:
+src/main/java/tech/derbent/app/workflows/domain/CWorkflowStatus.java
+src/main/java/tech/derbent/app/workflows/domain/EWorkflowStatusCategory.java (enum)
+MODIFY:
+src/main/java/tech/derbent/app/workflows/domain/CWorkflowBase.java
+  - Add @OneToMany(mappedBy="workflow", cascade=CascadeType.ALL, orphanRemoval=true) List&lt;CWorkflowStatus&gt; statuses</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="60" customHeight="1" s="9">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.1.2</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>Create CWorkflowTransition entity</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="inlineStr">
+        <is>
+          <t>Entity for transitions between statuses with validation rules.
+AI AGENT INSTRUCTIONS:
+1. Create entity extending CEntityOfCompany&lt;CWorkflowTransition&gt;
+2. Add @ManyToOne fromStatus, toStatus (both to CWorkflowStatus)
+3. Add name field (e.g., "Start Progress", "Complete", "Reject")
+4. Add description (what this transition does)
+5. Add screen field (which form fields to show during transition)
+6. Add validatorClass (String - fully qualified class name of validator)
+7. Add postFunctionClass (String - class to execute after transition)
+8. Add requireComment (Boolean - force user to add comment)
+9. Add conditionScript (String - Groovy/JavaScript condition)
+10. Add buttonStyle (String - CSS class for button appearance)
+11. Add transitionOrder (Integer) for button ordering</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Class: CWorkflowTransition extends CEntityOfCompany&lt;CWorkflowTransition&gt;
+✓ Add ENTITY_TITLE_SINGULAR/PLURAL constants
+✓ @ManyToOne(fetch=LAZY) for fromStatus, toStatus, workflow
+✓ Use @AMetaData on all fields
+✓ Add @NotNull on fromStatus, toStatus
+✓ Use @Size(max=500) for description
+✓ Use @Size(max=1000) for conditionScript
+✓ Add validation: fromStatus != toStatus
+✓ Implement equals/hashCode on id</t>
+        </is>
+      </c>
+      <c r="F46" s="8" t="inlineStr">
+        <is>
+          <t>CREATE:
+src/main/java/tech/derbent/app/workflows/domain/CWorkflowTransition.java
+src/main/java/tech/derbent/app/workflows/validators/IWorkflowValidator.java (interface)
+src/main/java/tech/derbent/app/workflows/postfunctions/IWorkflowPostFunction.java (interface)
+MODIFY:
+src/main/java/tech/derbent/app/workflows/domain/CWorkflowBase.java
+  - Add @OneToMany List&lt;CWorkflowTransition&gt; transitions</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="60" customHeight="1" s="9">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.1.3</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>Create IWorkflowStatusRepository</t>
+        </is>
+      </c>
+      <c r="D47" s="8" t="inlineStr">
+        <is>
+          <t>Repository interface for workflow status with ordering queries.
+AI AGENT INSTRUCTIONS:
+1. Create interface extending IAbstractRepository&lt;CWorkflowStatus&gt;
+2. Add method: List&lt;CWorkflowStatus&gt; findByWorkflow_Id(Long workflowId)
+3. Use JPQL with ORDER BY e.statusOrder ASC, e.name ASC
+4. Add method: Optional&lt;CWorkflowStatus&gt; findInitialStatus(Long workflowId)
+5. Add method: List&lt;CWorkflowStatus&gt; findFinalStatuses(Long workflowId)
+6. Add countByWorkflow_Id method
+7. Add existsByWorkflow_IdAndName method for uniqueness check</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Interface name: IWorkflowStatusRepository (I-prefix for interfaces)
+✓ Extend: IAbstractRepository&lt;CWorkflowStatus&gt;
+✓ Use @Query annotation for complex queries
+✓ Use #{#entityName} instead of hardcoded class name
+✓ Always include ORDER BY in queries returning List
+✓ Use @Param annotations for named parameters
+✓ JPQL format: SELECT e FROM #{#entityName} e WHERE...
+✓ Use e. prefix for all entity fields in WHERE/ORDER BY</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>CREATE:
+src/main/java/tech/derbent/app/workflows/repositories/IWorkflowStatusRepository.java
+EXAMPLE QUERIES:
+@Query("SELECT e FROM #{#entityName} e WHERE e.workflow.id = :workflowId ORDER BY e.statusOrder ASC, e.name ASC")
+List&lt;CWorkflowStatus&gt; findByWorkflow_Id(@Param("workflowId") Long workflowId);
+@Query("SELECT e FROM #{#entityName} e WHERE e.workflow.id = :workflowId AND e.isInitial = true")
+Optional&lt;CWorkflowStatus&gt; findInitialStatus(@Param("workflowId") Long workflowId);</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="74.25" customHeight="1" s="9">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>T6.1.1.1</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.1</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>Create CIssueLinkType entity</t>
+        </is>
+      </c>
+      <c r="D48" s="8" t="inlineStr">
+        <is>
+          <t>Entity defining relationship types between project items.
+AI AGENT INSTRUCTIONS:
+1. Create CIssueLinkType extending CEntityOfCompany&lt;CIssueLinkType&gt;
+2. Add name field (e.g., "Blocks", "Depends On")
+3. Add outwardName (e.g., "blocks") - shown on source item
+4. Add inwardName (e.g., "is blocked by") - shown on target item
+5. Add style field (BLOCKS, CLONES, RELATES, DUPLICATES enum)
+6. Add boolean isSystem (prevent deletion of system types)
+7. Pre-populate with standard Jira link types in initializer</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend CEntityOfCompany&lt;CIssueLinkType&gt;
+✓ Add ENTITY_TITLE constants
+✓ @AMetaData on all fields
+✓ @NotBlank on name, outwardName, inwardName
+✓ Add EIssueLinkStyle enum
+✓ Create CIssueLinkTypeInitializerService for sample data</t>
+        </is>
+      </c>
+      <c r="F48" s="8" t="inlineStr">
+        <is>
+          <t>CREATE:
+src/main/java/tech/derbent/app/issuelinks/domain/CIssueLinkType.java
+src/main/java/tech/derbent/app/issuelinks/domain/EIssueLinkStyle.java
+src/main/java/tech/derbent/app/issuelinks/services/CIssueLinkTypeInitializerService.java
+SYSTEM LINK TYPES TO CREATE:
+- Blocks / is blocked by
+- Depends on / is required by  
+- Relates to / relates to (symmetric)
+- Duplicates / is duplicated by
+- Causes / is caused by
+- Clones / is cloned by</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="30.75" customHeight="1" s="9">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.1.1</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>Create CWorkflowStatus entity</t>
+        </is>
+      </c>
+      <c r="D49" s="8" t="inlineStr">
+        <is>
+          <t>Status nodes in workflow with position and visual properties.
+AI: 1) Review CProjectItemStatus 2) Create CWorkflowStatus extends CEntityOfCompany
+3) Add: name, description, category(enum), positionX/Y, color, isInitial, isFinal, statusOrder
+4) Update CWorkflowBase with @OneToMany statuses</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Use C-prefix class name
+✓ Extend appropriate CEntity base class
+✓ Add ENTITY_TITLE_SINGULAR/PLURAL constants
+✓ Add static Logger LOGGER
+✓ All fields use @AMetaData annotations
+✓ Use @NotBlank, @NotNull, @Size validations
+✓ @ManyToOne uses FetchType.LAZY
+✓ Implement equals/hashCode on id only
+✓ No business logic in entities</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: workflows/domain/CWorkflowStatus.java, EWorkflowStatusCategory.java
+MODIFY: CWorkflowBase.java</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="118.5" customHeight="1" s="9">
+      <c r="A50" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.1.2</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>Create CWorkflowTransition entity</t>
+        </is>
+      </c>
+      <c r="D50" s="8" t="inlineStr">
+        <is>
+          <t>Transitions between statuses with validators and post-functions.
+AI: 1) Create CWorkflowTransition extends CEntityOfCompany 2) Add: fromStatus, toStatus, name, screen, validatorClass, postFunctionClass, requireComment, conditionScript, buttonStyle, transitionOrder
+3) Create IWorkflowValidator and IWorkflowPostFunction interfaces</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Use C-prefix class name
+✓ Extend appropriate CEntity base class
+✓ Add ENTITY_TITLE_SINGULAR/PLURAL constants
+✓ Add static Logger LOGGER
+✓ All fields use @AMetaData annotations
+✓ Use @NotBlank, @NotNull, @Size validations
+✓ @ManyToOne uses FetchType.LAZY
+✓ Implement equals/hashCode on id only
+✓ No business logic in entities</t>
+        </is>
+      </c>
+      <c r="F50" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: CWorkflowTransition.java, IWorkflowValidator.java, IWorkflowPostFunction.java</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="74.25" customHeight="1" s="9">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.1.3</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>Create IWorkflowStatusRepository</t>
+        </is>
+      </c>
+      <c r="D51" s="8" t="inlineStr">
+        <is>
+          <t>Repository for workflow status queries.
+AI: 1) Create interface extends IAbstractRepository 2) Add findByWorkflow_Id with ORDER BY
+3) Add findInitialStatus, findFinalStatuses, countByWorkflow_Id</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Interface name with I-prefix
+✓ Extend IAbstractRepository&lt;T&gt;
+✓ Use @Query with #{#entityName}
+✓ Always include ORDER BY in List queries
+✓ Use @Param for named parameters
+✓ JPQL format: SELECT e FROM #{#entityName} e
+✓ Use e. prefix for all fields</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: repositories/IWorkflowStatusRepository.java</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="60" customHeight="1" s="9">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.1.4</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.1</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Create IWorkflowTransitionRepository</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>Repository for transition queries.
+AI: 1) Create interface 2) Add findByWorkflow_Id 3) Add findAvailableTransitions(fromStatusId)
+4) Add findByFromStatus_Id, findByToStatus_Id</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Interface name with I-prefix
+✓ Extend IAbstractRepository&lt;T&gt;
+✓ Use @Query with #{#entityName}
+✓ Always include ORDER BY in List queries
+✓ Use @Param for named parameters
+✓ JPQL format: SELECT e FROM #{#entityName} e
+✓ Use e. prefix for all fields</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: repositories/IWorkflowTransitionRepository.java</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="74.25" customHeight="1" s="9">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.2.1</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.2</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>Create CWorkflowStatusService</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>Service for workflow status management.
+AI: 1) Create class extends CAbstractService 2) Add methods: getInitialStatus(workflowId), getFinalStatuses(workflowId), moveStatusUp/Down for ordering 3) Add validateStatusDelete (check if used by transitions) 4) Add getNextStatusOrder</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Class name with C-prefix
+✓ Extend CAbstractService&lt;T&gt; or CEntityOfProjectService&lt;T&gt;
+✓ @Service annotation
+✓ Constructor injection for dependencies
+✓ @Transactional on write methods
+✓ @Transactional(readOnly=true) on read methods
+✓ Use Objects.requireNonNull for validation
+✓ Use Check utility for fail-fast validation
+✓ No user state in service (stateless)
+✓ Get user from sessionService per-request</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: services/CWorkflowStatusService.java</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="30.75" customHeight="1" s="9">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.2.2</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.2</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>Create CWorkflowTransitionService</t>
+        </is>
+      </c>
+      <c r="D54" s="8" t="inlineStr">
+        <is>
+          <t>Service for transition management and execution.
+AI: 1) Create service 2) Add getAvailableTransitions(item, currentStatus) - filters by validator
+3) Add executeTransition(item, transition, user, comment) - runs validators, changes status, executes post-functions 4) Add validateTransition method</t>
+        </is>
+      </c>
+      <c r="E54" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Class name with C-prefix
+✓ Extend CAbstractService&lt;T&gt; or CEntityOfProjectService&lt;T&gt;
+✓ @Service annotation
+✓ Constructor injection for dependencies
+✓ @Transactional on write methods
+✓ @Transactional(readOnly=true) on read methods
+✓ Use Objects.requireNonNull for validation
+✓ Use Check utility for fail-fast validation
+✓ No user state in service (stateless)
+✓ Get user from sessionService per-request</t>
+        </is>
+      </c>
+      <c r="F54" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: services/CWorkflowTransitionService.java</t>
+        </is>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="89.25" customHeight="1" s="9">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.3.1</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.3</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>Create CWorkflowDesignerCanvas component</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>Main workflow designer canvas component.
+AI: 1) Check CComponentKanbanBoard for layout pattern 2) Create CWorkflowDesignerCanvas extends CDiv
+3) Use CSS Grid/Flexbox for positioning 4) Add drag-drop support with Vaadin DnD API
+5) Draw SVG lines for transitions 6) Click handlers for edit status/transition
+7) Toolbar: buttonAdd, buttonSave, buttonDelete 8) Use CNotificationService</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend appropriate CAbstract*Page base
+✓ Use C-prefixed components (CButton, CGrid, etc.)
+✓ Field naming: typeName format (buttonAdd, gridItems)
+✓ Event handlers: on_componentName_eventType format
+✓ Factory methods: create_componentName format
+✓ No lambda logic - delegate to named methods
+✓ @Autowired CNotificationService for messages
+✓ Use CNotifications for static contexts
+✓ Implement IGridRefreshListener for grid updates
+✓ Double-click on grid opens edit dialog
+✓ Selection-aware toolbar buttons</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CWorkflowDesignerCanvas.java
+REFERENCE: CComponentKanbanBoard.java</t>
+        </is>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H55" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="60" customHeight="1" s="9">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.3.2</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.3</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>Create CComponentWorkflowStatusNode</t>
+        </is>
+      </c>
+      <c r="D56" s="8" t="inlineStr">
+        <is>
+          <t>Individual status node in canvas.
+AI: 1) Create extends CDiv 2) Show status name, category icon, color badge
+3) Draggable=true 4) Double-click to edit 5) Click to select
+6) CSS: card style with border matching status color</t>
+        </is>
+      </c>
+      <c r="E56" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend appropriate CAbstract*Page base
+✓ Use C-prefixed components (CButton, CGrid, etc.)
+✓ Field naming: typeName format (buttonAdd, gridItems)
+✓ Event handlers: on_componentName_eventType format
+✓ Factory methods: create_componentName format
+✓ No lambda logic - delegate to named methods
+✓ @Autowired CNotificationService for messages
+✓ Use CNotifications for static contexts
+✓ Implement IGridRefreshListener for grid updates
+✓ Double-click on grid opens edit dialog
+✓ Selection-aware toolbar buttons</t>
+        </is>
+      </c>
+      <c r="F56" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CComponentWorkflowStatusNode.java</t>
+        </is>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="132.75" customHeight="1" s="9">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>T5.1.3.3</t>
+        </is>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>US5.1.3</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>Create CComponentWorkflowTransitionLine</t>
+        </is>
+      </c>
+      <c r="D57" s="8" t="inlineStr">
+        <is>
+          <t>Visual transition arrow between statuses.
+AI: 1) Create extends Div 2) Use SVG &lt;line&gt; and &lt;polygon&gt; for arrow
+3) Calculate coordinates from/to status positions 4) Color based on transition type
+5) Click shows transition dialog 6) Hover shows tooltip with transition name</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend appropriate CAbstract*Page base
+✓ Use C-prefixed components (CButton, CGrid, etc.)
+✓ Field naming: typeName format (buttonAdd, gridItems)
+✓ Event handlers: on_componentName_eventType format
+✓ Factory methods: create_componentName format
+✓ No lambda logic - delegate to named methods
+✓ @Autowired CNotificationService for messages
+✓ Use CNotifications for static contexts
+✓ Implement IGridRefreshListener for grid updates
+✓ Double-click on grid opens edit dialog
+✓ Selection-aware toolbar buttons</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CComponentWorkflowTransitionLine.java</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="30.75" customHeight="1" s="9">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>T6.1.1.1</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.1</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>Create CIssueLinkType entity</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>Link type definitions (Blocks, Depends On, etc).
+AI: 1) Create extends CEntityOfCompany 2) Add: name, outwardName (e.g. 'blocks'), inwardName (e.g. 'is blocked by'), style(enum), isSystem
+3) Create EIssueLinkStyle enum: BLOCKS, DEPENDS, RELATES, DUPLICATES, CLONES, CAUSES</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Use C-prefix class name
+✓ Extend appropriate CEntity base class
+✓ Add ENTITY_TITLE_SINGULAR/PLURAL constants
+✓ Add static Logger LOGGER
+✓ All fields use @AMetaData annotations
+✓ Use @NotBlank, @NotNull, @Size validations
+✓ @ManyToOne uses FetchType.LAZY
+✓ Implement equals/hashCode on id only
+✓ No business logic in entities</t>
+        </is>
+      </c>
+      <c r="F58" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: issuelinks/domain/CIssueLinkType.java, EIssueLinkStyle.java</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="74.25" customHeight="1" s="9">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>T6.1.1.2</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.1</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>Create CIssueLink entity</t>
+        </is>
+      </c>
+      <c r="D59" s="8" t="inlineStr">
+        <is>
+          <t>Actual link between two project items.
+AI: 1) Create extends CEntityDB 2) Add: @ManyToOne linkType, sourceItem, targetItem (both CProjectItem)
+3) Add createdBy user, createdDate 4) Add unique constraint on (linkType, sourceItem, targetItem)</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Use C-prefix class name
+✓ Extend appropriate CEntity base class
+✓ Add ENTITY_TITLE_SINGULAR/PLURAL constants
+✓ Add static Logger LOGGER
+✓ All fields use @AMetaData annotations
+✓ Use @NotBlank, @NotNull, @Size validations
+✓ @ManyToOne uses FetchType.LAZY
+✓ Implement equals/hashCode on id only
+✓ No business logic in entities</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: issuelinks/domain/CIssueLink.java</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="30.75" customHeight="1" s="9">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>T6.1.1.3</t>
+        </is>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.1</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>Create repositories</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
+        <is>
+          <t>Repositories for link types and links.
+AI: 1) Create IIssueLinkTypeRepository 2) Create IIssueLinkRepository
+3) Add queries: findBySourceItem, findByTargetItem, findLinksForItem(itemId)</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Interface name with I-prefix
+✓ Extend IAbstractRepository&lt;T&gt;
+✓ Use @Query with #{#entityName}
+✓ Always include ORDER BY in List queries
+✓ Use @Param for named parameters
+✓ JPQL format: SELECT e FROM #{#entityName} e
+✓ Use e. prefix for all fields</t>
+        </is>
+      </c>
+      <c r="F60" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: repositories/IIssueLinkTypeRepository.java, IIssueLinkRepository.java</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="118.5" customHeight="1" s="9">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>T6.1.1.4</t>
+        </is>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.1</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>Create CIssueLinkService</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>Service for managing issue links.
+AI: 1) Create service 2) Add createLink(sourceId, targetId, linkTypeId)
+3) Add deleteLink, getOutwardLinks, getInwardLinks 4) Add validateLink (prevent circular dependencies for BLOCKS/DEPENDS)
+5) Add hasCircularDependency check</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Class name with C-prefix
+✓ Extend CAbstractService&lt;T&gt; or CEntityOfProjectService&lt;T&gt;
+✓ @Service annotation
+✓ Constructor injection for dependencies
+✓ @Transactional on write methods
+✓ @Transactional(readOnly=true) on read methods
+✓ Use Objects.requireNonNull for validation
+✓ Use Check utility for fail-fast validation
+✓ No user state in service (stateless)
+✓ Get user from sessionService per-request</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: services/CIssueLinkService.java</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="74.25" customHeight="1" s="9">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>T6.1.1.5</t>
+        </is>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.1</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>Create CIssueLinkTypeInitializerService</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
+        <is>
+          <t>Initialize system link types.
+AI: 1) Create initializer 2) Add system types: Blocks/is blocked by, Depends on/is required by, Relates to/relates to, Duplicates/is duplicated by, Causes/is caused by, Clones/is cloned by
+3) Set isSystem=true to prevent deletion</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Class name with C-prefix
+✓ Extend CAbstractService&lt;T&gt; or CEntityOfProjectService&lt;T&gt;
+✓ @Service annotation
+✓ Constructor injection for dependencies
+✓ @Transactional on write methods
+✓ @Transactional(readOnly=true) on read methods
+✓ Use Objects.requireNonNull for validation
+✓ Use Check utility for fail-fast validation
+✓ No user state in service (stateless)
+✓ Get user from sessionService per-request</t>
+        </is>
+      </c>
+      <c r="F62" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: services/CIssueLinkTypeInitializerService.java</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="74.25" customHeight="1" s="9">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>T6.1.2.1</t>
+        </is>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.2</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>Create CComponentIssueLinkSection</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>Issue link section in detail pages.
+AI: 1) Create extends CDiv 2) Show two sections: Outward Links, Inward Links
+3) Each link shows: icon, link type name, linked item (clickable)
+4) Add button to create new link 5) Delete button per link
+6) Use CGrid for link display</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend appropriate CAbstract*Page base
+✓ Use C-prefixed components (CButton, CGrid, etc.)
+✓ Field naming: typeName format (buttonAdd, gridItems)
+✓ Event handlers: on_componentName_eventType format
+✓ Factory methods: create_componentName format
+✓ No lambda logic - delegate to named methods
+✓ @Autowired CNotificationService for messages
+✓ Use CNotifications for static contexts
+✓ Implement IGridRefreshListener for grid updates
+✓ Double-click on grid opens edit dialog
+✓ Selection-aware toolbar buttons</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CComponentIssueLinkSection.java</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="74.25" customHeight="1" s="9">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>T6.1.2.2</t>
+        </is>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>US6.1.2</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>Create CDialogAddIssueLink</t>
+        </is>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
+        <is>
+          <t>Dialog for adding issue links.
+AI: 1) Create extends CDBEditDialog 2) Combobox for link type
+3) Search field for target issue (autocomplete) 4) Show validation for circular dependencies
+5) Use FormBuilder pattern 6) Save through CIssueLinkService</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend appropriate CAbstract*Page base
+✓ Use C-prefixed components (CButton, CGrid, etc.)
+✓ Field naming: typeName format (buttonAdd, gridItems)
+✓ Event handlers: on_componentName_eventType format
+✓ Factory methods: create_componentName format
+✓ No lambda logic - delegate to named methods
+✓ @Autowired CNotificationService for messages
+✓ Use CNotifications for static contexts
+✓ Implement IGridRefreshListener for grid updates
+✓ Double-click on grid opens edit dialog
+✓ Selection-aware toolbar buttons</t>
+        </is>
+      </c>
+      <c r="F64" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CDialogAddIssueLink.java</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="74.25" customHeight="1" s="9">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>T7.1.1.1</t>
+        </is>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>US7.1.1</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>Add wipLimit field to CKanbanColumn</t>
+        </is>
+      </c>
+      <c r="D65" s="8" t="inlineStr">
+        <is>
+          <t>Add WIP limit configuration to kanban columns.
+AI: 1) Open CKanbanColumn entity 2) Add Integer wipLimit field (nullable, default null = no limit)
+3) Add @AMetaData(displayName="WIP Limit", description="Maximum items in this column")
+4) Update views to show WIP limit setting</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Use C-prefix class name
+✓ Extend appropriate CEntity base class
+✓ Add ENTITY_TITLE_SINGULAR/PLURAL constants
+✓ Add static Logger LOGGER
+✓ All fields use @AMetaData annotations
+✓ Use @NotBlank, @NotNull, @Size validations
+✓ @ManyToOne uses FetchType.LAZY
+✓ Implement equals/hashCode on id only
+✓ No business logic in entities</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>MODIFY: kanban/domain/CKanbanColumn.java</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="60" customHeight="1" s="9">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>T7.1.1.2</t>
+        </is>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>US7.1.1</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>Add WIP limit validation to service</t>
+        </is>
+      </c>
+      <c r="D66" s="8" t="inlineStr">
+        <is>
+          <t>Validate WIP limits when moving items.
+AI: 1) Update CKanbanService 2) Add method: validateWipLimit(columnId, currentCount)
+3) Modify moveItemToColumn to check WIP limit before move
+4) Show warning dialog if limit exceeded (soft limit)</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Class name with C-prefix
+✓ Extend CAbstractService&lt;T&gt; or CEntityOfProjectService&lt;T&gt;
+✓ @Service annotation
+✓ Constructor injection for dependencies
+✓ @Transactional on write methods
+✓ @Transactional(readOnly=true) on read methods
+✓ Use Objects.requireNonNull for validation
+✓ Use Check utility for fail-fast validation
+✓ No user state in service (stateless)
+✓ Get user from sessionService per-request</t>
+        </is>
+      </c>
+      <c r="F66" s="8" t="inlineStr">
+        <is>
+          <t>MODIFY: services/CKanbanService.java</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="74.25" customHeight="1" s="9">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>T7.1.1.3</t>
+        </is>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>US7.1.1</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>Show WIP limit indicator in UI</t>
+        </is>
+      </c>
+      <c r="D67" s="8" t="inlineStr">
+        <is>
+          <t>Display WIP limit status in kanban columns.
+AI: 1) Update CComponentKanbanColumn 2) Show "X / Y" indicator in column header (X=current, Y=limit)
+3) Color code: green if under limit, orange if at limit, red if over limit
+4) Add CSS classes: wip-ok, wip-warning, wip-exceeded</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend appropriate CAbstract*Page base
+✓ Use C-prefixed components (CButton, CGrid, etc.)
+✓ Field naming: typeName format (buttonAdd, gridItems)
+✓ Event handlers: on_componentName_eventType format
+✓ Factory methods: create_componentName format
+✓ No lambda logic - delegate to named methods
+✓ @Autowired CNotificationService for messages
+✓ Use CNotifications for static contexts
+✓ Implement IGridRefreshListener for grid updates
+✓ Double-click on grid opens edit dialog
+✓ Selection-aware toolbar buttons</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>MODIFY: ui/CComponentKanbanColumn.java</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="60" customHeight="1" s="9">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>T7.2.1.1</t>
+        </is>
+      </c>
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>US7.2.1</t>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
+        <is>
+          <t>Add swimlane mode to CKanbanLine</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>Configure swimlane grouping.
+AI: 1) Add enum EKanbanSwimlaneMode: NONE, BY_ASSIGNEE, BY_PRIORITY, BY_PROJECT
+2) Add swimlaneMode field to CKanbanLine entity 3) Add getter/setter</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Use C-prefix class name
+✓ Extend appropriate CEntity base class
+✓ Add ENTITY_TITLE_SINGULAR/PLURAL constants
+✓ Add static Logger LOGGER
+✓ All fields use @AMetaData annotations
+✓ Use @NotBlank, @NotNull, @Size validations
+✓ @ManyToOne uses FetchType.LAZY
+✓ Implement equals/hashCode on id only
+✓ No business logic in entities</t>
+        </is>
+      </c>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t>MODIFY: kanban/domain/CKanbanLine.java
+CREATE: EKanbanSwimlaneMode.java</t>
+        </is>
+      </c>
+      <c r="G68" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="60" customHeight="1" s="9">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>T7.2.1.2</t>
+        </is>
+      </c>
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>US7.2.1</t>
+        </is>
+      </c>
+      <c r="C69" s="8" t="inlineStr">
+        <is>
+          <t>Create CComponentKanbanSwimlane</t>
+        </is>
+      </c>
+      <c r="D69" s="8" t="inlineStr">
+        <is>
+          <t>Individual swimlane row component.
+AI: 1) Create extends CHorizontalLayout 2) Show swimlane label (assignee name, priority, etc)
+3) Contains columns for this swimlane 4) Calculate and show swimlane totals</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend appropriate CAbstract*Page base
+✓ Use C-prefixed components (CButton, CGrid, etc.)
+✓ Field naming: typeName format (buttonAdd, gridItems)
+✓ Event handlers: on_componentName_eventType format
+✓ Factory methods: create_componentName format
+✓ No lambda logic - delegate to named methods
+✓ @Autowired CNotificationService for messages
+✓ Use CNotifications for static contexts
+✓ Implement IGridRefreshListener for grid updates
+✓ Double-click on grid opens edit dialog
+✓ Selection-aware toolbar buttons</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CComponentKanbanSwimlane.java</t>
+        </is>
+      </c>
+      <c r="G69" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="74.25" customHeight="1" s="9">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>T7.2.1.3</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>US7.2.1</t>
+        </is>
+      </c>
+      <c r="C70" s="8" t="inlineStr">
+        <is>
+          <t>Update CComponentKanbanBoard for swimlanes</t>
+        </is>
+      </c>
+      <c r="D70" s="8" t="inlineStr">
+        <is>
+          <t>Modify kanban board to support swimlane layout.
+AI: 1) Check swimlaneMode setting 2) If not NONE, group items by mode
+3) Create swimlane for each group 4) Distribute columns across swimlanes
+5) Keep drag-drop working between swimlanes</t>
+        </is>
+      </c>
+      <c r="E70" s="8" t="inlineStr">
+        <is>
+          <t>CODING STANDARDS CHECKLIST:
+✓ Extend appropriate CAbstract*Page base
+✓ Use C-prefixed components (CButton, CGrid, etc.)
+✓ Field naming: typeName format (buttonAdd, gridItems)
+✓ Event handlers: on_componentName_eventType format
+✓ Factory methods: create_componentName format
+✓ No lambda logic - delegate to named methods
+✓ @Autowired CNotificationService for messages
+✓ Use CNotifications for static contexts
+✓ Implement IGridRefreshListener for grid updates
+✓ Double-click on grid opens edit dialog
+✓ Selection-aware toolbar buttons</t>
+        </is>
+      </c>
+      <c r="F70" s="8" t="inlineStr">
+        <is>
+          <t>MODIFY: ui/CComponentKanbanBoard.java</t>
+        </is>
+      </c>
+      <c r="G70" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="30.75" customHeight="1" s="9">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>T8.1.1.1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>US8.1.1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Add time fields to CProjectItem</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AI: 1) Add Long originalEstimateMinutes 2) Add Long remainingEstimateMinutes 3) Add @AMetaData 4) Add getters that return formatted strings (Xh Ym)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>✓ C-prefix class ✓ Extend CEntity* ✓ ENTITY_TITLE constants ✓ Logger ✓ @AMetaData ✓ Validations ✓ LAZY fetch ✓ equals/hashCode on id</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>MODIFY: CProjectItem.java</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="74.25" customHeight="1" s="9">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>T8.1.1.2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>US8.1.1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Create CWorkLog entity</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AI: 1) Create extends CEntityDB 2) Add @ManyToOne projectItem 3) Add @ManyToOne user 4) Add LocalDateTime startTime, Integer durationMinutes 5) Add String comment 6) Add Date workDate for reporting</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>✓ C-prefix class ✓ Extend CEntity* ✓ ENTITY_TITLE constants ✓ Logger ✓ @AMetaData ✓ Validations ✓ LAZY fetch ✓ equals/hashCode on id</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>CREATE: worklog/domain/CWorkLog.java</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="74.25" customHeight="1" s="9">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>T8.1.1.3</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>US8.1.1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Create IWorkLogRepository</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AI: 1) findByProjectItem_Id with ORDER BY workDate DESC 2) findByUser_IdAndWorkDateBetween for timesheet 3) sumDurationByProjectItem 4) sumDurationByUserAndDateRange</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>✓ I-prefix ✓ Extend IAbstractRepository ✓ #{#entityName} ✓ ORDER BY ✓ @Param ✓ e. prefix</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>CREATE: repositories/IWorkLogRepository.java</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="30.75" customHeight="1" s="9">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>T8.1.1.4</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>US8.1.1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Create CWorkLogService</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AI: 1) logWork(itemId, userId, minutes, comment) 2) updateRemainingEstimate(itemId, newRemaining) 3) getTotalTimeSpent(itemId) 4) getUserWorkLogsForDate(userId, date) 5) Validate: remaining &gt;= 0, duration &gt; 0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>✓ C-prefix ✓ Extend CAbstractService ✓ @Service ✓ Constructor injection ✓ @Transactional ✓ Objects.requireNonNull ✓ Stateless</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CREATE: services/CWorkLogService.java</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="74.25" customHeight="1" s="9">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>T8.1.2.1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>US8.1.2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Create CDialogLogWork</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AI: 1) Extends CDBEditDialog 2) Time duration field (IntegerField with 'h' suffix converter) 3) Comment textarea 4) Date picker (default today) 5) Checkbox: 'Also update remaining estimate' 6) FormBuilder pattern 7) Save through CWorkLogService</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CDialogLogWork.java</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="74.25" customHeight="1" s="9">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>T8.1.2.2</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>US8.1.2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Create CComponentWorkLogList</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AI: 1) Extends CDiv 2) CGrid showing: date, user, duration, comment 3) Total hours at bottom 4) buttonAdd opens CDialogLogWork 5) buttonDelete for own entries 6) Refresh on grid refresh event</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CComponentWorkLogList.java</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="74.25" customHeight="1" s="9">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>T8.1.2.3</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>US8.1.2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Add time tracking section to detail pages</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AI: 1) Update CAbstractItemDetailPage 2) Add CComponentWorkLogList 3) Show Original/Remaining/Logged time at top 4) Add 'Log Work' button to toolbar</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MODIFY: abstracts/CAbstractItemDetailPage.java</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="45" customHeight="1" s="9">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>T9.1.1.1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>US9.1.1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Create CDashboard entity</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AI: 1) Extends CEntityOfCompany 2) Add @ManyToOne owner (CUser) 3) Add Boolean isDefault, isShared 4) Add layout (JSON string storing widget positions) 5) Add @OneToMany widgets</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>✓ C-prefix class ✓ Extend CEntity* ✓ ENTITY_TITLE constants ✓ Logger ✓ @AMetaData ✓ Validations ✓ LAZY fetch ✓ equals/hashCode on id</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CREATE: dashboards/domain/CDashboard.java</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="60" customHeight="1" s="9">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>T9.1.1.2</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>US9.1.1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Create CDashboardWidget entity</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>AI: 1) Extends CEntityDB 2) Add @ManyToOne dashboard 3) Add widgetType (enum: BURNDOWN, VELOCITY, PIE_CHART, FILTER_RESULTS, ACTIVITY_STREAM) 4) Add configuration (JSON) 5) Add position (row, column, width, height)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>✓ C-prefix class ✓ Extend CEntity* ✓ ENTITY_TITLE constants ✓ Logger ✓ @AMetaData ✓ Validations ✓ LAZY fetch ✓ equals/hashCode on id</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CREATE: domain/CDashboardWidget.java, EDashboardWidgetType.java</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="74.25" customHeight="1" s="9">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>T9.1.1.3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>US9.1.1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Create repositories and services</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>AI: 1) IDashboardRepository: findByOwner, findSharedDashboards 2) IDashboardWidgetRepository: findByDashboard_Id 3) CDashboardService: CRUD + shareDashboard, cloneDashboard 4) CDashboardWidgetService</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>✓ I-prefix ✓ Extend IAbstractRepository ✓ #{#entityName} ✓ ORDER BY ✓ @Param ✓ e. prefix
+✓ C-prefix ✓ Extend CAbstractService ✓ @Service ✓ Constructor injection ✓ @Transactional ✓ Objects.requireNonNull ✓ Stateless</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>CREATE: repositories/I*.java, services/C*Service.java</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="30.75" customHeight="1" s="9">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>T9.1.2.1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>US9.1.2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Create CDashboardPage</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AI: 1) Extends CAbstractPage 2) Use Vaadin Board for grid layout 3) Load user's default dashboard 4) Toolbar: dropdown to switch dashboards, buttonEdit, buttonAddWidget 5) Render widgets based on type</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CDashboardPage.java</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="74.25" customHeight="1" s="9">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>T9.1.2.2</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>US9.1.2</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Create CAbstractDashboardWidget base</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>AI: 1) Abstract class extends CDiv 2) Has CDashboardWidget model 3) Abstract method: render() 4) Has buttonConfigure, buttonRemove 5) Draggable for repositioning</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>CREATE: ui/widgets/CAbstractDashboardWidget.java</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="74.25" customHeight="1" s="9">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>T9.1.2.3</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>US9.1.2</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Create CWidgetBurndownChart</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AI: 1) Extends CAbstractDashboardWidget 2) Configuration: sprintId 3) Use Vaadin Charts 4) Query CSprintMetricsService for data 5) Show ideal line and actual line</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>CREATE: ui/widgets/CWidgetBurndownChart.java</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="30.75" customHeight="1" s="9">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>T9.1.2.4</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>US9.1.2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Create CWidgetFilterResults</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>AI: 1) Configuration: saved filter ID 2) Shows CGrid of matching issues 3) Click opens issue detail 4) Refresh button 5) Show count</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>CREATE: ui/widgets/CWidgetFilterResults.java</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="74.25" customHeight="1" s="9">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>T9.1.2.5</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>US9.1.2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Create CWidgetPieChart</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>AI: 1) Configuration: groupBy (status, assignee, priority) 2) Use Vaadin Charts 3) Query aggregated data 4) Click slice filters main view</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CREATE: ui/widgets/CWidgetPieChart.java</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="30.75" customHeight="1" s="9">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>T10.1.1.1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>US10.1.1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Create JQL grammar and lexer</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>AI: 1) Research ANTLR or JavaCC 2) Define grammar for: field operator value AND/OR 3) Operators: =, !=, &gt;, &lt;, IN, NOT IN, ~, IS EMPTY 4) Functions: currentUser(), endOfMonth() 5) Example: status = 'In Progress' AND assignee = currentUser()</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>✓ Use ANTLR4 ✓ Grammar file: src/main/antlr4/JQL.g4 ✓ Generate parser/lexer ✓ Add antlr4-maven-plugin</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>CREATE: src/main/antlr4/JQL.g4
+MODIFY: pom.xml (add antlr4 dependency)</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>8</v>
+      </c>
+      <c r="H86" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="74.25" customHeight="1" s="9">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>T10.1.1.2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>US10.1.1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Create CJQLQuery model</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>AI: 1) Class representing parsed query 2) Has List&lt;CJQLClause&gt; clauses 3) CJQLClause: field, operator, value, logicalOperator 4) Method: toCriteria() returns JPA Criteria</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>✓ C-prefix ✓ Extend CAbstractService ✓ @Service ✓ Constructor injection ✓ @Transactional ✓ Objects.requireNonNull ✓ Stateless</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>CREATE: search/CJQLQuery.java, CJQLClause.java, EJQLOperator.java</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="60" customHeight="1" s="9">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>T10.1.1.3</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>US10.1.1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Create CJQLExecutor service</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>AI: 1) Method: execute(String jql) returns List&lt;CProjectItem&gt; 2) Parse JQL string 3) Convert to JPA Criteria or JPQL 4) Execute query 5) Handle functions (currentUser, etc) 6) Add result caching</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>✓ C-prefix ✓ Extend CAbstractService ✓ @Service ✓ Constructor injection ✓ @Transactional ✓ Objects.requireNonNull ✓ Stateless</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>CREATE: services/CJQLExecutor.java</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>8</v>
+      </c>
+      <c r="H88" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="74.25" customHeight="1" s="9">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>T10.1.2.1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>US10.1.2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Create CJQLSearchField component</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>AI: 1) Extends CTextField 2) Syntax highlighting 3) Autocomplete for fields and operators 4) Validation on blur 5) Show error messages for invalid syntax 6) History dropdown (recent searches)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CJQLSearchField.java</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>8</v>
+      </c>
+      <c r="H89" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" s="9">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>T10.1.2.2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>US10.1.2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Create CAdvancedSearchPage</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>AI: 1) Extends CAbstractPage 2) CJQLSearchField at top 3) CGrid showing results 4) Toolbar: buttonSaveFilter, buttonExport 5) Faceted search sidebar (quick filters) 6) Result count display</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>CREATE: ui/CAdvancedSearchPage.java</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+      <c r="H90" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="74.25" customHeight="1" s="9">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>T10.1.2.3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>US10.1.2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Create CSavedFilter entity and management</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>AI: 1) Entity: CSavedFilter with name, jql, owner, isShared 2) Service: CSavedFilterService 3) Dialog: CDialogSaveFilter 4) Component: CComponentSavedFilters (list favorites)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>✓ C-prefix class ✓ Extend CEntity* ✓ ENTITY_TITLE constants ✓ Logger ✓ @AMetaData ✓ Validations ✓ LAZY fetch ✓ equals/hashCode on id
+✓ C-prefix ✓ Extend CAbstractService ✓ @Service ✓ Constructor injection ✓ @Transactional ✓ Objects.requireNonNull ✓ Stateless
+✓ CAbstract*Page ✓ C-components ✓ typeName fields ✓ on_x_y handlers ✓ create_x factories ✓ No lambdas ✓ CNotificationService ✓ Grid refresh</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>CREATE: domain/CSavedFilter.java, services/CSavedFilterService.java, ui/CDialogSaveFilter.java</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>5</v>
+      </c>
+      <c r="H91" s="22" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
     <row r="92" ht="30.75" customHeight="1" s="9"/>
     <row r="93" ht="74.25" customHeight="1" s="9"/>
     <row r="94" ht="60" customHeight="1" s="9"/>

--- a/docs/__PROJECT_BACKLOG.xlsx
+++ b/docs/__PROJECT_BACKLOG.xlsx
@@ -1295,12 +1295,12 @@
       </c>
       <c r="F14" s="18" t="inlineStr">
         <is>
-          <t>Playwright tests exist (no entity management)</t>
+          <t>CTestCase, CTestScenario, CTestRun, CTestStep, CTestCaseType, CTestCaseResult, CTestStepResult</t>
         </is>
       </c>
       <c r="G14" s="18" t="inlineStr">
         <is>
-          <t>testcases (missing)</t>
+          <t>tech.derbent.app.testcases</t>
         </is>
       </c>
       <c r="H14" s="18" t="n">
@@ -2189,7 +2189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
@@ -3866,11 +3866,256 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="13.5" customHeight="1" s="15"/>
-    <row r="34" ht="13.5" customHeight="1" s="15"/>
-    <row r="35" ht="13.5" customHeight="1" s="15"/>
-    <row r="36" ht="13.5" customHeight="1" s="15"/>
-    <row r="37" ht="13.5" customHeight="1" s="15"/>
+    <row r="33" ht="13.5" customHeight="1" s="15">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Test Case Management</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Create, read, update, delete test cases with full workflow support, test steps, and metadata</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Users can create test cases with steps, assign types, set priority/severity, link to scenarios, view history</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Views for CTestCase and CTestStep, grid with filtering, dialog forms, test step inline editor</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CTestCase, CTestStep, CTestCaseView, CTestCaseService</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" s="15">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>F13.2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Test Scenario Management</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Organize test cases into scenarios representing business workflows or features</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Users can create scenarios, add test cases to scenarios, view scenario coverage, manage scenario lifecycle</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CTestScenarioView with grid and dialog, link to test cases, scenario execution planning</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CTestScenario, CTestScenarioView, CTestScenarioService</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" s="15">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Test Execution &amp; Results</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Execute test runs, record step-by-step results, track pass/fail metrics</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Users can create test runs from scenarios, execute tests step-by-step, record actual results, attach evidence, view statistics</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CTestRunView with execution workflow, result recording dialogs, progress tracking, metrics dashboard</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CTestRun, CTestCaseResult, CTestStepResult, CTestRunView, CTestRunService</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>13</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1" s="15">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>F13.4</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Test Type Configuration</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Configure test case types with workflows and statuses</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Admins can create test case types, assign workflows, configure colors/icons, manage type lifecycle</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CTestCaseTypeView (admin), type initializer service, workflow integration</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CTestCaseType, CTestCaseTypeView, CTestCaseTypeInitializerService</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1" s="15">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Test Reporting &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Dashboard and reports for test metrics, coverage, trends</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Users can view test metrics dashboard, analyze pass/fail trends, review test coverage by feature, export reports</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Dashboard component, metrics calculation, chart widgets, report generation</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CComponentTestMetrics, CTestReportService, dashboard integration</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
     <row r="38" ht="13.5" customHeight="1" s="15"/>
     <row r="39" ht="13.5" customHeight="1" s="15"/>
     <row r="40" ht="13.5" customHeight="1" s="15"/>
@@ -3897,7 +4142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
@@ -5744,6 +5989,686 @@
       </c>
       <c r="F48" s="14" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to create test cases with detailed steps so that I can document test procedures</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Can create test case with name, description, preconditions; Can add ordered test steps with action and expected result; Can save and view created test case</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Use CEntityFormBuilder for test case form, embed test step grid with inline editing, validate required fields</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>US13.1.2</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to assign priority and severity to test cases so that I can prioritize testing</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Can select priority (LOW/MEDIUM/HIGH/CRITICAL); Can select severity (TRIVIAL/MINOR/NORMAL/MAJOR/BLOCKER); Values are saved and displayed in grid</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Use enum fields with dropdown, display with colored badges in grid</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>US13.1.3</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to mark test cases as automated and link to test code so that I can integrate manual and automated testing</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Can toggle automated flag; Can enter automated test path; Automated tests are visually distinguished in grid</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Checkbox for automated flag, text field for path, grid column renderer with icon</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>US13.1.4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to view and filter test cases so that I can find relevant tests</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Can view all test cases in grid; Can filter by type, priority, severity, automated; Can search by name/description; Can sort by columns</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Use CGrid with standard filter toolbar, implement filter providers for enums</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>US13.2.1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F13.2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to create test scenarios to group related test cases</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Can create scenario with name, description, objective; Can save and view scenarios in grid</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Use standard view pattern with CGrid and dialog form</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>US13.2.2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>F13.2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to add test cases to scenarios so that I can organize tests by feature</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Can link test case to scenario via dropdown/selector; Can view test cases grouped by scenario; Can remove test case from scenario</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Implement entity selector in test case form, add scenario filter to test case grid</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>US13.2.3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>F13.2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to view scenario completion status so that I can track testing progress</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Can see count of total/passed/failed test cases in scenario; Can view pass rate percentage; Status updates automatically</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Add calculated fields to scenario entity, display in grid and detail view</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>US13.3.1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to create a test run from a scenario so that I can execute a group of tests</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Can select scenario and create test run; Test run is initialized with all test cases from scenario; Can enter environment and build number</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Create test run dialog with scenario selector, auto-populate test cases, initialize result entities</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>US13.3.2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to execute test cases step-by-step and record results</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Can view test case steps in execution view; Can mark each step as PASSED/FAILED/BLOCKED/SKIPPED; Can enter actual results; Can proceed to next test case</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Create test execution component with step navigator, result recorder, progress tracker</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>US13.3.3</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to attach screenshots and logs to test results</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Can upload attachments during execution; Can attach files to test run or specific test case result; Attachments are linked and accessible</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Reuse existing attachment component, link to test run and test case result entities</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>US13.3.4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to view test run statistics so that I can assess quality</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Can view total/passed/failed counts for test cases and steps; Can see pass rate percentage; Can view execution duration; Statistics update in real-time</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Calculate and display metrics in test run view, add summary panel</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>US13.3.5</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to complete a test run and view results history</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Can mark test run as complete; Can view list of all test runs; Can reopen completed test runs for review; Can compare results across runs</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Add complete button, implement test run history grid, enable result comparison view</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>US13.4.1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>F13.4</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>As an admin, I want to configure test case types so that I can categorize tests</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Can create test case type with name, color, icon; Can assign workflow to type; Types appear in test case type dropdown</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Create admin view for test case types, reuse type entity patterns</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>US13.4.2</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>F13.4</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>As an admin, I want to define workflows for test case types</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Can select workflow for each type; Test cases follow assigned workflow statuses; Workflow rules apply to test cases of that type</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Workflow assignment in type entity, enforce workflow in test case service</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>US13.5.1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>As a project manager, I want to view a test metrics dashboard</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Can view overall test coverage metrics; Can see pass/fail trends over time; Can drill down into failed tests</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Create dashboard component with charts and metrics, integrate with project dashboard</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>US13.5.2</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>As a project manager, I want to export test reports</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Can generate test summary report; Can export to PDF or Excel; Report includes all test run details and statistics</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Implement report generation service, add export buttons to test run view</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>US13.5.3</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>As a QA engineer, I want to see test coverage by feature</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Can view which features have test coverage; Can identify gaps in test coverage; Coverage percentage is calculated automatically</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Link test scenarios to features, calculate coverage metrics, display coverage matrix</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -14305,1520 +15230,1520 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="A213" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="14" t="inlineStr">
         <is>
           <t>Test Management Entities</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="14" t="inlineStr">
         <is>
           <t>As a QA, I need test management structure</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="D213" s="14" t="inlineStr">
         <is>
           <t>Create CTestScenario entity (groups of test cases)</t>
         </is>
       </c>
-      <c r="E213" t="n">
+      <c r="E213" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="F213" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="G213" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testscenario.domain.CTestScenario</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="H213" s="14" t="inlineStr">
         <is>
           <t>Extend CEntityOfProject, has test cases, comments, attachments</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A214" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="14" t="inlineStr">
         <is>
           <t>Test Management Entities</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="14" t="inlineStr">
         <is>
           <t>As a QA, I need test management structure</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D214" s="14" t="inlineStr">
         <is>
           <t>Create CTestStep entity (individual test steps)</t>
         </is>
       </c>
-      <c r="E214" t="n">
+      <c r="E214" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="F214" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="G214" s="14" t="inlineStr">
         <is>
           <t>app.testcases.teststep.domain.CTestStep</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="H214" s="14" t="inlineStr">
         <is>
           <t>Step order, action, expected result, test data</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="A215" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="14" t="inlineStr">
         <is>
           <t>Test Management Entities</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="14" t="inlineStr">
         <is>
           <t>As a QA, I need test management structure</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D215" s="14" t="inlineStr">
         <is>
           <t>Create CTestCase entity with steps</t>
         </is>
       </c>
-      <c r="E215" t="n">
+      <c r="E215" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F215" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="G215" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testcase.domain.CTestCase</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="H215" s="14" t="inlineStr">
         <is>
           <t>Extend CProjectItem, has test steps, comments, attachments, workflow</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="A216" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="14" t="inlineStr">
         <is>
           <t>Test Management Entities</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="14" t="inlineStr">
         <is>
           <t>As a QA, I need test management structure</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D216" s="14" t="inlineStr">
         <is>
           <t>Create CTestCaseType entity</t>
         </is>
       </c>
-      <c r="E216" t="n">
+      <c r="E216" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="F216" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G216" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testcasetype.domain.CTestCaseType</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="H216" s="14" t="inlineStr">
         <is>
           <t>Extend CTypeEntity for test categorization</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="A217" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="14" t="inlineStr">
         <is>
           <t>Test Management Entities</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="14" t="inlineStr">
         <is>
           <t>As a QA, I need test management structure</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D217" s="14" t="inlineStr">
         <is>
           <t>Create CTestResult enum</t>
         </is>
       </c>
-      <c r="E217" t="n">
+      <c r="E217" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="F217" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G217" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testexecution.domain.CTestResult</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H217" s="14" t="inlineStr">
         <is>
           <t>PASSED/FAILED/BLOCKED/SKIPPED/IN_PROGRESS/NOT_EXECUTED</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="A218" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="14" t="inlineStr">
         <is>
           <t>Test Management Entities</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="14" t="inlineStr">
         <is>
           <t>As a QA, I need test management structure</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D218" s="14" t="inlineStr">
         <is>
           <t>Create CTestExecution entity</t>
         </is>
       </c>
-      <c r="E218" t="n">
+      <c r="E218" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G218" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testexecution.domain.CTestExecution</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H218" s="14" t="inlineStr">
         <is>
           <t>Track test runs, results, duration, errors</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="A219" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="14" t="inlineStr">
         <is>
           <t>Test Management Entities</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="14" t="inlineStr">
         <is>
           <t>As a QA, I need test management structure</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D219" s="14" t="inlineStr">
         <is>
           <t>Create CTestPriority enum</t>
         </is>
       </c>
-      <c r="E219" t="n">
+      <c r="E219" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="F219" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="G219" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testcase.domain.CTestPriority</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H219" s="14" t="inlineStr">
         <is>
           <t>CRITICAL/HIGH/MEDIUM/LOW</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="A220" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="14" t="inlineStr">
         <is>
           <t>Test Management Entities</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="14" t="inlineStr">
         <is>
           <t>As a QA, I need test management structure</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D220" s="14" t="inlineStr">
         <is>
           <t>Create CTestSeverity enum</t>
         </is>
       </c>
-      <c r="E220" t="n">
+      <c r="E220" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="G220" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testcase.domain.CTestSeverity</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H220" s="14" t="inlineStr">
         <is>
           <t>BLOCKER/CRITICAL/MAJOR/NORMAL/MINOR/TRIVIAL</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="A221" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="14" t="inlineStr">
         <is>
           <t>Test Management Services</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="14" t="inlineStr">
         <is>
           <t>As a developer, I need test services</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D221" s="14" t="inlineStr">
         <is>
           <t>Create ITestScenarioRepository</t>
         </is>
       </c>
-      <c r="E221" t="n">
+      <c r="E221" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
+      <c r="F221" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G221" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testscenario.service</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="H221" s="14" t="inlineStr">
         <is>
           <t>Repository with proper ordering</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="A222" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="14" t="inlineStr">
         <is>
           <t>Test Management Services</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="14" t="inlineStr">
         <is>
           <t>As a developer, I need test services</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D222" s="14" t="inlineStr">
         <is>
           <t>Create CTestScenarioService</t>
         </is>
       </c>
-      <c r="E222" t="n">
+      <c r="E222" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
+      <c r="F222" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G222" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testscenario.service</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H222" s="14" t="inlineStr">
         <is>
           <t>CRUD and validation logic</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
+      <c r="A223" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="14" t="inlineStr">
         <is>
           <t>Test Management Services</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" s="14" t="inlineStr">
         <is>
           <t>As a developer, I need test services</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D223" s="14" t="inlineStr">
         <is>
           <t>Create ITestCaseRepository</t>
         </is>
       </c>
-      <c r="E223" t="n">
+      <c r="E223" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
+      <c r="F223" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G223" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testcase.service</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H223" s="14" t="inlineStr">
         <is>
           <t>Repository with proper ordering</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
+      <c r="A224" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="14" t="inlineStr">
         <is>
           <t>Test Management Services</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="14" t="inlineStr">
         <is>
           <t>As a developer, I need test services</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D224" s="14" t="inlineStr">
         <is>
           <t>Create CTestCaseService</t>
         </is>
       </c>
-      <c r="E224" t="n">
+      <c r="E224" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
+      <c r="F224" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G224" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testcase.service</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H224" s="14" t="inlineStr">
         <is>
           <t>CRUD and validation logic</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="A225" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="14" t="inlineStr">
         <is>
           <t>Test Management Services</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="14" t="inlineStr">
         <is>
           <t>As a developer, I need test services</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D225" s="14" t="inlineStr">
         <is>
           <t>Create ITestStepRepository</t>
         </is>
       </c>
-      <c r="E225" t="n">
+      <c r="E225" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
+      <c r="F225" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G225" s="14" t="inlineStr">
         <is>
           <t>app.testcases.teststep.service</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H225" s="14" t="inlineStr">
         <is>
           <t>Repository with step ordering</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="A226" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="14" t="inlineStr">
         <is>
           <t>Test Management Services</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="14" t="inlineStr">
         <is>
           <t>As a developer, I need test services</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D226" s="14" t="inlineStr">
         <is>
           <t>Create CTestStepService</t>
         </is>
       </c>
-      <c r="E226" t="n">
+      <c r="E226" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
+      <c r="F226" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G226" s="14" t="inlineStr">
         <is>
           <t>app.testcases.teststep.service</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="H226" s="14" t="inlineStr">
         <is>
           <t>CRUD, reordering steps</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="A227" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="14" t="inlineStr">
         <is>
           <t>Test Management Services</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="14" t="inlineStr">
         <is>
           <t>As a developer, I need test services</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D227" s="14" t="inlineStr">
         <is>
           <t>Create ITestExecutionRepository</t>
         </is>
       </c>
-      <c r="E227" t="n">
+      <c r="E227" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
+      <c r="F227" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G227" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testexecution.service</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H227" s="14" t="inlineStr">
         <is>
           <t>Repository with execution tracking</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="A228" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="14" t="inlineStr">
         <is>
           <t>Test Management Services</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="14" t="inlineStr">
         <is>
           <t>As a developer, I need test services</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="D228" s="14" t="inlineStr">
         <is>
           <t>Create CTestExecutionService</t>
         </is>
       </c>
-      <c r="E228" t="n">
+      <c r="E228" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
+      <c r="F228" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G228" s="14" t="inlineStr">
         <is>
           <t>app.testcases.testexecution.service</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H228" s="14" t="inlineStr">
         <is>
           <t>Track execution history, results</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
+      <c r="A229" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="14" t="inlineStr">
         <is>
           <t>Test Management UI</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="14" t="inlineStr">
         <is>
           <t>As a QA, I want test management views</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
+      <c r="D229" s="14" t="inlineStr">
         <is>
           <t>Create Test Scenarios view</t>
         </is>
       </c>
-      <c r="E229" t="n">
+      <c r="E229" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
+      <c r="F229" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G229" s="14" t="inlineStr">
         <is>
           <t>app.testcases.view.CPageTestScenario</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H229" s="14" t="inlineStr">
         <is>
           <t>Grid with CRUD, filtering by project</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="A230" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="14" t="inlineStr">
         <is>
           <t>Test Management UI</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="14" t="inlineStr">
         <is>
           <t>As a QA, I want test management views</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D230" s="14" t="inlineStr">
         <is>
           <t>Create Test Cases view</t>
         </is>
       </c>
-      <c r="E230" t="n">
+      <c r="E230" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
+      <c r="F230" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G230" s="14" t="inlineStr">
         <is>
           <t>app.testcases.view.CPageTestCase</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H230" s="14" t="inlineStr">
         <is>
           <t>Grid with CRUD, test step management</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="A231" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="14" t="inlineStr">
         <is>
           <t>Test Management UI</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="14" t="inlineStr">
         <is>
           <t>As a QA, I want test management views</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D231" s="14" t="inlineStr">
         <is>
           <t>Create Test Steps management dialog</t>
         </is>
       </c>
-      <c r="E231" t="n">
+      <c r="E231" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
+      <c r="F231" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G231" s="14" t="inlineStr">
         <is>
           <t>app.testcases.view.CDialogTestSteps</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H231" s="14" t="inlineStr">
         <is>
           <t>Ordered list with drag-drop reordering</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="A232" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="14" t="inlineStr">
         <is>
           <t>Test Management UI</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="14" t="inlineStr">
         <is>
           <t>As a QA, I want test management views</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
+      <c r="D232" s="14" t="inlineStr">
         <is>
           <t>Create Test Execution tracking view</t>
         </is>
       </c>
-      <c r="E232" t="n">
+      <c r="E232" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
+      <c r="F232" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G232" s="14" t="inlineStr">
         <is>
           <t>app.testcases.view.CPageTestExecution</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H232" s="14" t="inlineStr">
         <is>
           <t>Execute tests, record results</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="A233" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="14" t="inlineStr">
         <is>
           <t>Test Management UI</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="14" t="inlineStr">
         <is>
           <t>As a QA, I want test management views</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="D233" s="14" t="inlineStr">
         <is>
           <t>Create Test Coverage dashboard</t>
         </is>
       </c>
-      <c r="E233" t="n">
+      <c r="E233" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
+      <c r="F233" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G233" s="14" t="inlineStr">
         <is>
           <t>app.testcases.view.CTestCoverageDashboard</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H233" s="14" t="inlineStr">
         <is>
           <t>Coverage charts, pass/fail rates</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="A234" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Integration</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="14" t="inlineStr">
         <is>
           <t>As a developer, I want Playwright integration</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D234" s="14" t="inlineStr">
         <is>
           <t>Link Playwright tests to test cases</t>
         </is>
       </c>
-      <c r="E234" t="n">
+      <c r="E234" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
+      <c r="F234" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G234" s="14" t="inlineStr">
         <is>
           <t>app.testcases.service integration</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H234" s="14" t="inlineStr">
         <is>
           <t>Map automated tests to entities by test path</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="A235" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Integration</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="14" t="inlineStr">
         <is>
           <t>As a developer, I want Playwright integration</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D235" s="14" t="inlineStr">
         <is>
           <t>Auto-import Playwright test results</t>
         </is>
       </c>
-      <c r="E235" t="n">
+      <c r="E235" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
+      <c r="F235" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G235" s="14" t="inlineStr">
         <is>
           <t>app.testcases.service.CTestImportService</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="H235" s="14" t="inlineStr">
         <is>
           <t>Parse test output, create executions</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Integration</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="14" t="inlineStr">
         <is>
           <t>As a developer, I want Playwright integration</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D236" s="14" t="inlineStr">
         <is>
           <t>Generate test cases from Playwright</t>
         </is>
       </c>
-      <c r="E236" t="n">
+      <c r="E236" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
+      <c r="F236" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G236" s="14" t="inlineStr">
         <is>
           <t>app.testcases.service.CTestGeneratorService</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="H236" s="14" t="inlineStr">
         <is>
           <t>Scan test files, auto-create test cases</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="A237" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="14" t="inlineStr">
         <is>
           <t>Test-Friendly Code Guidelines</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="14" t="inlineStr">
         <is>
           <t>As a developer, I follow test-friendly patterns</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D237" s="14" t="inlineStr">
         <is>
           <t>Enforce component ID generation via CAuxillaries.setId</t>
         </is>
       </c>
-      <c r="E237" t="n">
+      <c r="E237" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="G237" s="14" t="inlineStr">
         <is>
           <t>api.utils.CAuxillaries</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H237" s="14" t="inlineStr">
         <is>
           <t>All components auto-get IDs for test selectors</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="A238" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="14" t="inlineStr">
         <is>
           <t>Test-Friendly Code Guidelines</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="14" t="inlineStr">
         <is>
           <t>As a developer, I follow test-friendly patterns</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D238" s="14" t="inlineStr">
         <is>
           <t>Use consistent button IDs (cbutton-new, cbutton-save, etc)</t>
         </is>
       </c>
-      <c r="E238" t="n">
+      <c r="E238" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F238" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="G238" s="14" t="inlineStr">
         <is>
           <t>api.ui.component.basic.CButton</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="H238" s="14" t="inlineStr">
         <is>
           <t>Standardized CRUD button IDs</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
+      <c r="A239" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="14" t="inlineStr">
         <is>
           <t>Test-Friendly Code Guidelines</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" s="14" t="inlineStr">
         <is>
           <t>As a developer, I follow test-friendly patterns</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="D239" s="14" t="inlineStr">
         <is>
           <t>Use field ID prefix pattern (field-xxx)</t>
         </is>
       </c>
-      <c r="E239" t="n">
+      <c r="E239" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F239" t="inlineStr">
+      <c r="F239" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="G239" s="14" t="inlineStr">
         <is>
           <t>Various form fields</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H239" s="14" t="inlineStr">
         <is>
           <t>All form fields get predictable IDs</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
+      <c r="A240" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="14" t="inlineStr">
         <is>
           <t>Test-Friendly Code Guidelines</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" s="14" t="inlineStr">
         <is>
           <t>As a developer, I follow test-friendly patterns</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="D240" s="14" t="inlineStr">
         <is>
           <t>Document ID selector patterns in tests</t>
         </is>
       </c>
-      <c r="E240" t="n">
+      <c r="E240" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
+      <c r="F240" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G240" s="14" t="inlineStr">
         <is>
           <t>docs/testing/ID_SELECTOR_PATTERNS.md</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H240" s="14" t="inlineStr">
         <is>
           <t>Complete guide for test selectors</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
+      <c r="A241" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="14" t="inlineStr">
         <is>
           <t>Test-Friendly Code Guidelines</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" s="14" t="inlineStr">
         <is>
           <t>As a developer, I follow test-friendly patterns</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D241" s="14" t="inlineStr">
         <is>
           <t>Add data-testid attributes to critical elements</t>
         </is>
       </c>
-      <c r="E241" t="n">
+      <c r="E241" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
+      <c r="F241" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G241" s="14" t="inlineStr">
         <is>
           <t>Various UI components</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="H241" s="14" t="inlineStr">
         <is>
           <t>Custom test IDs for complex scenarios</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="A242" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Patterns</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" s="14" t="inlineStr">
         <is>
           <t>As a developer, I write Playwright tests</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D242" s="14" t="inlineStr">
         <is>
           <t>Page filtering tests (company, status, assignee)</t>
         </is>
       </c>
-      <c r="E242" t="n">
+      <c r="E242" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F242" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="G242" s="14" t="inlineStr">
         <is>
           <t>CBaseUITest.applySearchFilter</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H242" s="14" t="inlineStr">
         <is>
           <t>Test grid filtering capabilities</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Patterns</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="14" t="inlineStr">
         <is>
           <t>As a developer, I write Playwright tests</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D243" s="14" t="inlineStr">
         <is>
           <t>CRUD test pattern (direct page navigation)</t>
         </is>
       </c>
-      <c r="E243" t="n">
+      <c r="E243" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F243" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
+      <c r="G243" s="14" t="inlineStr">
         <is>
           <t>CRecentFeaturesCrudTest</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H243" s="14" t="inlineStr">
         <is>
           <t>Create, Read, Update, Delete workflows</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="A244" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Patterns</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="14" t="inlineStr">
         <is>
           <t>As a developer, I write Playwright tests</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D244" s="14" t="inlineStr">
         <is>
           <t>Menu navigation test pattern</t>
         </is>
       </c>
-      <c r="E244" t="n">
+      <c r="E244" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
+      <c r="G244" s="14" t="inlineStr">
         <is>
           <t>CMenuNavigationTest</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H244" s="14" t="inlineStr">
         <is>
           <t>Hierarchical menu exploration</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
+      <c r="A245" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Patterns</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="14" t="inlineStr">
         <is>
           <t>As a developer, I write Playwright tests</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="D245" s="14" t="inlineStr">
         <is>
           <t>Workflow status validation tests</t>
         </is>
       </c>
-      <c r="E245" t="n">
+      <c r="E245" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F245" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
+      <c r="G245" s="14" t="inlineStr">
         <is>
           <t>CWorkflowStatusAndValidationTest</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="H245" s="14" t="inlineStr">
         <is>
           <t>Status transitions, validation</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
+      <c r="A246" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Patterns</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="14" t="inlineStr">
         <is>
           <t>As a developer, I write Playwright tests</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="D246" s="14" t="inlineStr">
         <is>
           <t>Create comprehensive test suite template</t>
         </is>
       </c>
-      <c r="E246" t="n">
+      <c r="E246" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
+      <c r="F246" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G246" s="14" t="inlineStr">
         <is>
           <t>docs/testing/COMPREHENSIVE_TEST_TEMPLATE.md</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="H246" s="14" t="inlineStr">
         <is>
           <t>Reusable test patterns</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
+      <c r="A247" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="14" t="inlineStr">
         <is>
           <t>Playwright Test Patterns</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="14" t="inlineStr">
         <is>
           <t>As a developer, I write Playwright tests</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="D247" s="14" t="inlineStr">
         <is>
           <t>Document fail-fast exception detection</t>
         </is>
       </c>
-      <c r="E247" t="n">
+      <c r="E247" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F247" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="G247" s="14" t="inlineStr">
         <is>
           <t>CBaseUITest.performFailFastCheck</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="H247" s="14" t="inlineStr">
         <is>
           <t>Auto-detect exceptions in tests</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="14" t="inlineStr">
         <is>
           <t>Test Coverage</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="14" t="inlineStr">
         <is>
           <t>As a manager, I want test metrics</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="D248" s="14" t="inlineStr">
         <is>
           <t>Calculate test coverage by module</t>
         </is>
       </c>
-      <c r="E248" t="n">
+      <c r="E248" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
+      <c r="F248" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G248" s="14" t="inlineStr">
         <is>
           <t>app.testcases.service.CTestCoverageService</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="H248" s="14" t="inlineStr">
         <is>
           <t>Coverage % per project/feature</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="A249" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="14" t="inlineStr">
         <is>
           <t>Test Coverage</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="14" t="inlineStr">
         <is>
           <t>As a manager, I want test metrics</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="D249" s="14" t="inlineStr">
         <is>
           <t>Track test execution trends</t>
         </is>
       </c>
-      <c r="E249" t="n">
+      <c r="E249" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
+      <c r="F249" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G249" s="14" t="inlineStr">
         <is>
           <t>app.testcases.service.CTestMetricsService</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="H249" s="14" t="inlineStr">
         <is>
           <t>Pass/fail trends over time</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="A250" s="14" t="inlineStr">
         <is>
           <t>QA &amp; Testing</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="14" t="inlineStr">
         <is>
           <t>Test Coverage</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="14" t="inlineStr">
         <is>
           <t>As a manager, I want test metrics</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
+      <c r="D250" s="14" t="inlineStr">
         <is>
           <t>Generate test execution reports</t>
         </is>
       </c>
-      <c r="E250" t="n">
+      <c r="E250" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
+      <c r="F250" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G250" s="14" t="inlineStr">
         <is>
           <t>app.testcases.report.CTestExecutionReport</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="H250" s="14" t="inlineStr">
         <is>
           <t>Excel/PDF export with metrics</t>
         </is>

--- a/docs/__PROJECT_BACKLOG.xlsx
+++ b/docs/__PROJECT_BACKLOG.xlsx
@@ -3867,250 +3867,250 @@
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" s="15">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="14" t="inlineStr">
         <is>
           <t>Test Case Management</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="14" t="inlineStr">
         <is>
           <t>Create, read, update, delete test cases with full workflow support, test steps, and metadata</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="14" t="inlineStr">
         <is>
           <t>Users can create test cases with steps, assign types, set priority/severity, link to scenarios, view history</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="14" t="inlineStr">
         <is>
           <t>Views for CTestCase and CTestStep, grid with filtering, dialog forms, test step inline editor</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="14" t="inlineStr">
         <is>
           <t>CTestCase, CTestStep, CTestCaseView, CTestCaseService</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" s="15">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="14" t="inlineStr">
         <is>
           <t>F13.2</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="14" t="inlineStr">
         <is>
           <t>Test Scenario Management</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="14" t="inlineStr">
         <is>
           <t>Organize test cases into scenarios representing business workflows or features</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="14" t="inlineStr">
         <is>
           <t>Users can create scenarios, add test cases to scenarios, view scenario coverage, manage scenario lifecycle</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="14" t="inlineStr">
         <is>
           <t>CTestScenarioView with grid and dialog, link to test cases, scenario execution planning</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="14" t="inlineStr">
         <is>
           <t>CTestScenario, CTestScenarioView, CTestScenarioService</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I34" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" s="15">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="14" t="inlineStr">
         <is>
           <t>Test Execution &amp; Results</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="14" t="inlineStr">
         <is>
           <t>Execute test runs, record step-by-step results, track pass/fail metrics</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="14" t="inlineStr">
         <is>
           <t>Users can create test runs from scenarios, execute tests step-by-step, record actual results, attach evidence, view statistics</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="14" t="inlineStr">
         <is>
           <t>CTestRunView with execution workflow, result recording dialogs, progress tracking, metrics dashboard</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="14" t="inlineStr">
         <is>
           <t>CTestRun, CTestCaseResult, CTestStepResult, CTestRunView, CTestRunService</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I35" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" s="15">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="14" t="inlineStr">
         <is>
           <t>F13.4</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="14" t="inlineStr">
         <is>
           <t>Test Type Configuration</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="14" t="inlineStr">
         <is>
           <t>Configure test case types with workflows and statuses</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="14" t="inlineStr">
         <is>
           <t>Admins can create test case types, assign workflows, configure colors/icons, manage type lifecycle</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="14" t="inlineStr">
         <is>
           <t>CTestCaseTypeView (admin), type initializer service, workflow integration</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="14" t="inlineStr">
         <is>
           <t>CTestCaseType, CTestCaseTypeView, CTestCaseTypeInitializerService</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I36" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" s="15">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="14" t="inlineStr">
         <is>
           <t>Test Reporting &amp; Analytics</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="14" t="inlineStr">
         <is>
           <t>Dashboard and reports for test metrics, coverage, trends</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="14" t="inlineStr">
         <is>
           <t>Users can view test metrics dashboard, analyze pass/fail trends, review test coverage by feature, export reports</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="14" t="inlineStr">
         <is>
           <t>Dashboard component, metrics calculation, chart widgets, report generation</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" s="14" t="inlineStr">
         <is>
           <t>CComponentTestMetrics, CTestReportService, dashboard integration</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I37" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
@@ -5992,680 +5992,680 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to create test cases with detailed steps so that I can document test procedures</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="14" t="inlineStr">
         <is>
           <t>Can create test case with name, description, preconditions; Can add ordered test steps with action and expected result; Can save and view created test case</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="14" t="inlineStr">
         <is>
           <t>Use CEntityFormBuilder for test case form, embed test step grid with inline editing, validate required fields</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="14" t="inlineStr">
         <is>
           <t>US13.1.2</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to assign priority and severity to test cases so that I can prioritize testing</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="14" t="inlineStr">
         <is>
           <t>Can select priority (LOW/MEDIUM/HIGH/CRITICAL); Can select severity (TRIVIAL/MINOR/NORMAL/MAJOR/BLOCKER); Values are saved and displayed in grid</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="14" t="inlineStr">
         <is>
           <t>Use enum fields with dropdown, display with colored badges in grid</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="14" t="inlineStr">
         <is>
           <t>US13.1.3</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to mark test cases as automated and link to test code so that I can integrate manual and automated testing</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="14" t="inlineStr">
         <is>
           <t>Can toggle automated flag; Can enter automated test path; Automated tests are visually distinguished in grid</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="14" t="inlineStr">
         <is>
           <t>Checkbox for automated flag, text field for path, grid column renderer with icon</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>US13.1.4</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to view and filter test cases so that I can find relevant tests</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="14" t="inlineStr">
         <is>
           <t>Can view all test cases in grid; Can filter by type, priority, severity, automated; Can search by name/description; Can sort by columns</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="14" t="inlineStr">
         <is>
           <t>Use CGrid with standard filter toolbar, implement filter providers for enums</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="14" t="inlineStr">
         <is>
           <t>US13.2.1</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="14" t="inlineStr">
         <is>
           <t>F13.2</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to create test scenarios to group related test cases</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="14" t="inlineStr">
         <is>
           <t>Can create scenario with name, description, objective; Can save and view scenarios in grid</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="14" t="inlineStr">
         <is>
           <t>Use standard view pattern with CGrid and dialog form</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="14" t="inlineStr">
         <is>
           <t>US13.2.2</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="14" t="inlineStr">
         <is>
           <t>F13.2</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to add test cases to scenarios so that I can organize tests by feature</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="14" t="inlineStr">
         <is>
           <t>Can link test case to scenario via dropdown/selector; Can view test cases grouped by scenario; Can remove test case from scenario</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="14" t="inlineStr">
         <is>
           <t>Implement entity selector in test case form, add scenario filter to test case grid</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="14" t="inlineStr">
         <is>
           <t>US13.2.3</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="14" t="inlineStr">
         <is>
           <t>F13.2</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to view scenario completion status so that I can track testing progress</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="14" t="inlineStr">
         <is>
           <t>Can see count of total/passed/failed test cases in scenario; Can view pass rate percentage; Status updates automatically</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="14" t="inlineStr">
         <is>
           <t>Add calculated fields to scenario entity, display in grid and detail view</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="14" t="inlineStr">
         <is>
           <t>US13.3.1</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to create a test run from a scenario so that I can execute a group of tests</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="14" t="inlineStr">
         <is>
           <t>Can select scenario and create test run; Test run is initialized with all test cases from scenario; Can enter environment and build number</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="14" t="inlineStr">
         <is>
           <t>Create test run dialog with scenario selector, auto-populate test cases, initialize result entities</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="14" t="inlineStr">
         <is>
           <t>US13.3.2</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to execute test cases step-by-step and record results</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="14" t="inlineStr">
         <is>
           <t>Can view test case steps in execution view; Can mark each step as PASSED/FAILED/BLOCKED/SKIPPED; Can enter actual results; Can proceed to next test case</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="14" t="inlineStr">
         <is>
           <t>Create test execution component with step navigator, result recorder, progress tracker</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="14" t="inlineStr">
         <is>
           <t>US13.3.3</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to attach screenshots and logs to test results</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="14" t="inlineStr">
         <is>
           <t>Can upload attachments during execution; Can attach files to test run or specific test case result; Attachments are linked and accessible</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" s="14" t="inlineStr">
         <is>
           <t>Reuse existing attachment component, link to test run and test case result entities</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="14" t="inlineStr">
         <is>
           <t>US13.3.4</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to view test run statistics so that I can assess quality</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="14" t="inlineStr">
         <is>
           <t>Can view total/passed/failed counts for test cases and steps; Can see pass rate percentage; Can view execution duration; Statistics update in real-time</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="14" t="inlineStr">
         <is>
           <t>Calculate and display metrics in test run view, add summary panel</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="14" t="inlineStr">
         <is>
           <t>US13.3.5</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to complete a test run and view results history</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" s="14" t="inlineStr">
         <is>
           <t>Can mark test run as complete; Can view list of all test runs; Can reopen completed test runs for review; Can compare results across runs</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="14" t="inlineStr">
         <is>
           <t>Add complete button, implement test run history grid, enable result comparison view</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="14" t="inlineStr">
         <is>
           <t>US13.4.1</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="14" t="inlineStr">
         <is>
           <t>F13.4</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="14" t="inlineStr">
         <is>
           <t>As an admin, I want to configure test case types so that I can categorize tests</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="14" t="inlineStr">
         <is>
           <t>Can create test case type with name, color, icon; Can assign workflow to type; Types appear in test case type dropdown</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="14" t="inlineStr">
         <is>
           <t>Create admin view for test case types, reuse type entity patterns</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="14" t="inlineStr">
         <is>
           <t>US13.4.2</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="14" t="inlineStr">
         <is>
           <t>F13.4</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="14" t="inlineStr">
         <is>
           <t>As an admin, I want to define workflows for test case types</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="14" t="inlineStr">
         <is>
           <t>Can select workflow for each type; Test cases follow assigned workflow statuses; Workflow rules apply to test cases of that type</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="14" t="inlineStr">
         <is>
           <t>Workflow assignment in type entity, enforce workflow in test case service</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" s="14" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="14" t="inlineStr">
         <is>
           <t>US13.5.1</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="14" t="inlineStr">
         <is>
           <t>As a project manager, I want to view a test metrics dashboard</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="14" t="inlineStr">
         <is>
           <t>Can view overall test coverage metrics; Can see pass/fail trends over time; Can drill down into failed tests</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="14" t="inlineStr">
         <is>
           <t>Create dashboard component with charts and metrics, integrate with project dashboard</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="14" t="inlineStr">
         <is>
           <t>US13.5.2</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="14" t="inlineStr">
         <is>
           <t>As a project manager, I want to export test reports</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="14" t="inlineStr">
         <is>
           <t>Can generate test summary report; Can export to PDF or Excel; Report includes all test run details and statistics</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="14" t="inlineStr">
         <is>
           <t>Implement report generation service, add export buttons to test run view</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" s="14" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="14" t="inlineStr">
         <is>
           <t>US13.5.3</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="14" t="inlineStr">
         <is>
           <t>As a QA engineer, I want to see test coverage by feature</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="14" t="inlineStr">
         <is>
           <t>Can view which features have test coverage; Can identify gaps in test coverage; Coverage percentage is calculated automatically</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="14" t="inlineStr">
         <is>
           <t>Link test scenarios to features, calculate coverage metrics, display coverage matrix</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
@@ -6685,7 +6685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
@@ -16746,6 +16746,846 @@
       <c r="H250" s="14" t="inlineStr">
         <is>
           <t>Excel/PDF export with metrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Add MenuTitle_TESTS and Menu_Order_TESTS constants to CInitializerServiceBase</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>CInitializerServiceBase</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Added constants for Tests menu organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Update CTestCaseInitializerService to use MenuTitle_TESTS parent menu</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>CTestCaseInitializerService</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Changed from Project.Test Cases to Tests.Test Cases</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>F13.2</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>US13.2.1</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Update CTestScenarioInitializerService to use MenuTitle_TESTS parent menu</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>CTestScenarioInitializerService</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Changed from Project.Test Scenarios to Tests.Test Scenarios</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>US13.3.1</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Update CTestRunInitializerService to use MenuTitle_TESTS parent menu</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>CTestRunInitializerService</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Changed from Project.Test Runs to Tests.Test Runs</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>US13.1.4</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Verify test pages appear in Tests menu after project creation</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>2</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Manual testing</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Create new project and verify Tests menu structure</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Test CRUD operations on CTestCase entities</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>3</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>UI testing</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Create, read, update, delete test cases; verify test steps inline editing</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>F13.2</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>US13.2.2</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Test linking test cases to scenarios</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>2</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>UI testing</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Create scenario, link test cases, verify relationship</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>US13.3.2</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Test test run execution workflow</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>3</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>UI testing</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Create test run, execute test cases step-by-step, record results</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>US13.3.3</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Test attachment upload during test execution</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>2</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>UI testing</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Upload screenshots and logs to test runs and results</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>US13.3.2</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Create test execution component for step-by-step testing</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>8</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>CComponentTestExecution</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Component for executing tests with step navigation and result recording</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>US13.5.1</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Create test metrics dashboard component</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>5</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>CComponentTestMetrics</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Dashboard widget showing test coverage and pass/fail metrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>US13.5.2</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Implement test report generation service</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>5</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>CTestReportService</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Generate PDF/Excel reports from test runs</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Create testing methodology architecture documentation</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>docs/architecture/TESTING_METHODOLOGY.md</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Comprehensive testing methodology guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Create testing standards compliance documentation</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>docs/testing/TESTING_STANDARDS_COMPLIANCE.md</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>ISO/ISTQB/ProjeQtOr compliance documentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Update project backlog with testing tasks</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>docs/__PROJECT_BACKLOG.xlsx</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Added features, stories, and tasks for testing module</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>US13.1.4</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Create Playwright tests for Test Cases CRUD</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>3</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>CTestCaseCRUDTest</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Automated UI tests for test case management</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>F13.2</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>US13.2.1</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Create Playwright tests for Test Scenarios CRUD</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>3</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>CTestScenarioCRUDTest</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Automated UI tests for test scenario management</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>US13.3.1</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Create Playwright tests for Test Run creation and execution</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>5</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>CTestRunExecutionTest</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Automated UI tests for test execution workflow</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>US13.1.3</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Add visual indicators for automated vs manual tests in grid</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>CTestCaseInitializerService</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Add icon/badge renderer for automated flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>US13.3.4</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Add real-time statistics calculation in test runs</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>2</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>CTestRunService</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Calculate pass/fail rates as tests are executed</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>US13.5.3</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Implement test coverage matrix by feature</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>5</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>CTestCoverageService</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Link scenarios to features and calculate coverage</t>
         </is>
       </c>
     </row>

--- a/docs/__PROJECT_BACKLOG.xlsx
+++ b/docs/__PROJECT_BACKLOG.xlsx
@@ -6685,7 +6685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="F226" s="14" t="inlineStr">
         <is>
-          <t>TODO</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="G226" s="14" t="inlineStr">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="H226" s="14" t="inlineStr">
         <is>
-          <t>CRUD, reordering steps</t>
+          <t>Completed - 2026-01-16</t>
         </is>
       </c>
     </row>
@@ -16750,842 +16750,1562 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
+      <c r="A251" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
+      <c r="D251" s="14" t="inlineStr">
         <is>
           <t>Add MenuTitle_TESTS and Menu_Order_TESTS constants to CInitializerServiceBase</t>
         </is>
       </c>
-      <c r="E251" t="n">
+      <c r="E251" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F251" t="inlineStr">
+      <c r="F251" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
+      <c r="G251" s="14" t="inlineStr">
         <is>
           <t>CInitializerServiceBase</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="H251" s="14" t="inlineStr">
         <is>
           <t>Added constants for Tests menu organization</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="A252" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="D252" s="14" t="inlineStr">
         <is>
           <t>Update CTestCaseInitializerService to use MenuTitle_TESTS parent menu</t>
         </is>
       </c>
-      <c r="E252" t="n">
+      <c r="E252" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F252" t="inlineStr">
+      <c r="F252" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
+      <c r="G252" s="14" t="inlineStr">
         <is>
           <t>CTestCaseInitializerService</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H252" s="14" t="inlineStr">
         <is>
           <t>Changed from Project.Test Cases to Tests.Test Cases</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="A253" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="14" t="inlineStr">
         <is>
           <t>F13.2</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="14" t="inlineStr">
         <is>
           <t>US13.2.1</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
+      <c r="D253" s="14" t="inlineStr">
         <is>
           <t>Update CTestScenarioInitializerService to use MenuTitle_TESTS parent menu</t>
         </is>
       </c>
-      <c r="E253" t="n">
+      <c r="E253" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F253" t="inlineStr">
+      <c r="F253" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
+      <c r="G253" s="14" t="inlineStr">
         <is>
           <t>CTestScenarioInitializerService</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H253" s="14" t="inlineStr">
         <is>
           <t>Changed from Project.Test Scenarios to Tests.Test Scenarios</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
+      <c r="A254" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="14" t="inlineStr">
         <is>
           <t>US13.3.1</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="D254" s="14" t="inlineStr">
         <is>
           <t>Update CTestRunInitializerService to use MenuTitle_TESTS parent menu</t>
         </is>
       </c>
-      <c r="E254" t="n">
+      <c r="E254" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F254" t="inlineStr">
+      <c r="F254" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
+      <c r="G254" s="14" t="inlineStr">
         <is>
           <t>CTestRunInitializerService</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="H254" s="14" t="inlineStr">
         <is>
           <t>Changed from Project.Test Runs to Tests.Test Runs</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
+      <c r="A255" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="14" t="inlineStr">
         <is>
           <t>US13.1.4</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="D255" s="14" t="inlineStr">
         <is>
           <t>Verify test pages appear in Tests menu after project creation</t>
         </is>
       </c>
-      <c r="E255" t="n">
+      <c r="E255" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr">
+      <c r="F255" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G255" s="14" t="inlineStr">
         <is>
           <t>Manual testing</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="H255" s="14" t="inlineStr">
         <is>
           <t>Create new project and verify Tests menu structure</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
+      <c r="A256" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="D256" s="14" t="inlineStr">
         <is>
           <t>Test CRUD operations on CTestCase entities</t>
         </is>
       </c>
-      <c r="E256" t="n">
+      <c r="E256" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr">
+      <c r="F256" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G256" s="14" t="inlineStr">
         <is>
           <t>UI testing</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H256" s="14" t="inlineStr">
         <is>
           <t>Create, read, update, delete test cases; verify test steps inline editing</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
+      <c r="A257" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="14" t="inlineStr">
         <is>
           <t>F13.2</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="14" t="inlineStr">
         <is>
           <t>US13.2.2</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="D257" s="14" t="inlineStr">
         <is>
           <t>Test linking test cases to scenarios</t>
         </is>
       </c>
-      <c r="E257" t="n">
+      <c r="E257" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
+      <c r="F257" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G257" s="14" t="inlineStr">
         <is>
           <t>UI testing</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="H257" s="14" t="inlineStr">
         <is>
           <t>Create scenario, link test cases, verify relationship</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
+      <c r="A258" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="14" t="inlineStr">
         <is>
           <t>US13.3.2</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="D258" s="14" t="inlineStr">
         <is>
           <t>Test test run execution workflow</t>
         </is>
       </c>
-      <c r="E258" t="n">
+      <c r="E258" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
+      <c r="F258" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G258" s="14" t="inlineStr">
         <is>
           <t>UI testing</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
+      <c r="H258" s="14" t="inlineStr">
         <is>
           <t>Create test run, execute test cases step-by-step, record results</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
+      <c r="A259" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="14" t="inlineStr">
         <is>
           <t>US13.3.3</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="D259" s="14" t="inlineStr">
         <is>
           <t>Test attachment upload during test execution</t>
         </is>
       </c>
-      <c r="E259" t="n">
+      <c r="E259" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
+      <c r="F259" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G259" s="14" t="inlineStr">
         <is>
           <t>UI testing</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
+      <c r="H259" s="14" t="inlineStr">
         <is>
           <t>Upload screenshots and logs to test runs and results</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
+      <c r="A260" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="14" t="inlineStr">
         <is>
           <t>US13.3.2</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
+      <c r="D260" s="14" t="inlineStr">
         <is>
           <t>Create test execution component for step-by-step testing</t>
         </is>
       </c>
-      <c r="E260" t="n">
+      <c r="E260" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G260" t="inlineStr">
+      <c r="F260" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G260" s="14" t="inlineStr">
         <is>
           <t>CComponentTestExecution</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
+      <c r="H260" s="14" t="inlineStr">
         <is>
           <t>Component for executing tests with step navigation and result recording</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="A261" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="14" t="inlineStr">
         <is>
           <t>US13.5.1</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
+      <c r="D261" s="14" t="inlineStr">
         <is>
           <t>Create test metrics dashboard component</t>
         </is>
       </c>
-      <c r="E261" t="n">
+      <c r="E261" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G261" t="inlineStr">
+      <c r="F261" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G261" s="14" t="inlineStr">
         <is>
           <t>CComponentTestMetrics</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
+      <c r="H261" s="14" t="inlineStr">
         <is>
           <t>Dashboard widget showing test coverage and pass/fail metrics</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="A262" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="14" t="inlineStr">
         <is>
           <t>US13.5.2</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
+      <c r="D262" s="14" t="inlineStr">
         <is>
           <t>Implement test report generation service</t>
         </is>
       </c>
-      <c r="E262" t="n">
+      <c r="E262" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr">
+      <c r="F262" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G262" s="14" t="inlineStr">
         <is>
           <t>CTestReportService</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
+      <c r="H262" s="14" t="inlineStr">
         <is>
           <t>Generate PDF/Excel reports from test runs</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
+      <c r="A263" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
+      <c r="D263" s="14" t="inlineStr">
         <is>
           <t>Create testing methodology architecture documentation</t>
         </is>
       </c>
-      <c r="E263" t="n">
+      <c r="E263" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F263" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
+      <c r="G263" s="14" t="inlineStr">
         <is>
           <t>docs/architecture/TESTING_METHODOLOGY.md</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
+      <c r="H263" s="14" t="inlineStr">
         <is>
           <t>Comprehensive testing methodology guide</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="A264" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
+      <c r="D264" s="14" t="inlineStr">
         <is>
           <t>Create testing standards compliance documentation</t>
         </is>
       </c>
-      <c r="E264" t="n">
+      <c r="E264" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F264" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
+      <c r="G264" s="14" t="inlineStr">
         <is>
           <t>docs/testing/TESTING_STANDARDS_COMPLIANCE.md</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
+      <c r="H264" s="14" t="inlineStr">
         <is>
           <t>ISO/ISTQB/ProjeQtOr compliance documentation</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
+      <c r="A265" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
+      <c r="D265" s="14" t="inlineStr">
         <is>
           <t>Update project backlog with testing tasks</t>
         </is>
       </c>
-      <c r="E265" t="n">
+      <c r="E265" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F265" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
+      <c r="G265" s="14" t="inlineStr">
         <is>
           <t>docs/__PROJECT_BACKLOG.xlsx</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
+      <c r="H265" s="14" t="inlineStr">
         <is>
           <t>Added features, stories, and tasks for testing module</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
+      <c r="A266" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="14" t="inlineStr">
         <is>
           <t>US13.1.4</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
+      <c r="D266" s="14" t="inlineStr">
         <is>
           <t>Create Playwright tests for Test Cases CRUD</t>
         </is>
       </c>
-      <c r="E266" t="n">
+      <c r="E266" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G266" t="inlineStr">
+      <c r="F266" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G266" s="14" t="inlineStr">
         <is>
           <t>CTestCaseCRUDTest</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
+      <c r="H266" s="14" t="inlineStr">
         <is>
           <t>Automated UI tests for test case management</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="A267" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="14" t="inlineStr">
         <is>
           <t>F13.2</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="14" t="inlineStr">
         <is>
           <t>US13.2.1</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
+      <c r="D267" s="14" t="inlineStr">
         <is>
           <t>Create Playwright tests for Test Scenarios CRUD</t>
         </is>
       </c>
-      <c r="E267" t="n">
+      <c r="E267" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G267" t="inlineStr">
+      <c r="F267" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G267" s="14" t="inlineStr">
         <is>
           <t>CTestScenarioCRUDTest</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="H267" s="14" t="inlineStr">
         <is>
           <t>Automated UI tests for test scenario management</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
+      <c r="A268" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="14" t="inlineStr">
         <is>
           <t>US13.3.1</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
+      <c r="D268" s="14" t="inlineStr">
         <is>
           <t>Create Playwright tests for Test Run creation and execution</t>
         </is>
       </c>
-      <c r="E268" t="n">
+      <c r="E268" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G268" t="inlineStr">
+      <c r="F268" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G268" s="14" t="inlineStr">
         <is>
           <t>CTestRunExecutionTest</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
+      <c r="H268" s="14" t="inlineStr">
         <is>
           <t>Automated UI tests for test execution workflow</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
+      <c r="A269" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="14" t="inlineStr">
         <is>
           <t>US13.1.3</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
+      <c r="D269" s="14" t="inlineStr">
         <is>
           <t>Add visual indicators for automated vs manual tests in grid</t>
         </is>
       </c>
-      <c r="E269" t="n">
+      <c r="E269" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G269" t="inlineStr">
+      <c r="F269" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G269" s="14" t="inlineStr">
         <is>
           <t>CTestCaseInitializerService</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
+      <c r="H269" s="14" t="inlineStr">
         <is>
           <t>Add icon/badge renderer for automated flag</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="A270" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="14" t="inlineStr">
         <is>
           <t>US13.3.4</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
+      <c r="D270" s="14" t="inlineStr">
         <is>
           <t>Add real-time statistics calculation in test runs</t>
         </is>
       </c>
-      <c r="E270" t="n">
+      <c r="E270" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G270" t="inlineStr">
+      <c r="F270" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G270" s="14" t="inlineStr">
         <is>
           <t>CTestRunService</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
+      <c r="H270" s="14" t="inlineStr">
         <is>
           <t>Calculate pass/fail rates as tests are executed</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
+      <c r="A271" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="14" t="inlineStr">
         <is>
           <t>US13.5.3</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
+      <c r="D271" s="14" t="inlineStr">
         <is>
           <t>Implement test coverage matrix by feature</t>
         </is>
       </c>
-      <c r="E271" t="n">
+      <c r="E271" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
+      <c r="F271" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G271" s="14" t="inlineStr">
         <is>
           <t>CTestCoverageService</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
+      <c r="H271" s="14" t="inlineStr">
         <is>
           <t>Link scenarios to features and calculate coverage</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>US13.3.2</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Implement CComponentTestExecution - main execution interface</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>8</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>CComponentTestExecution.java</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>933 lines - Auto-save, keyboard shortcuts, ISO compliance - 2026-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>US13.3.2</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Update CPageServiceTestRun with component factory method</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>CPageServiceTestRun.java</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>createTestExecutionComponent() added - 2026-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>US13.3.3</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Add single-page execution view to CTestRunInitializerService</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>2</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>CTestRunInitializerService.java</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Add second view with setAttributeNone(true) for full-screen execution</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>US13.3.3</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Add Execute button to test run detail view</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Test run detail</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Launch button for execution interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>US13.3.4</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Integrate screenshot capture functionality</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>3</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>CComponentTestExecution</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Browser screenshot API for evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>US13.3.4</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Implement file attachment upload in execution</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>2</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>CComponentTestExecution</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Drag-drop file upload integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>US13.1.4</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Playwright: Test Cases CRUD operations</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>3</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>automated_tests/</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Create, read, update, delete test cases</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>F13.2</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>US13.2.1</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Playwright: Test Suites CRUD operations</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>3</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>automated_tests/</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Create, read, update, delete test suites</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>US13.3.1</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Playwright: Test Session creation workflow</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>2</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>automated_tests/</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Create session, link to suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>US13.3.2</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Playwright: Complete test execution workflow</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>5</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>automated_tests/</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Execute test, record results, validate statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>F13.3</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>US13.3.5</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Playwright: Result recording validation</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>3</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>automated_tests/</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Test PASS/FAIL/SKIP/BLOCK recording</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>US13.5.1</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Create test metrics dashboard component</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>5</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>CComponentTestMetrics</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Charts: pass rate, coverage, trends</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>US13.5.2</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Implement test report generation service</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>5</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>CTestReportService</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Export to PDF/Excel with charts</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>F13.5</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>US13.5.3</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Implement test coverage matrix by feature</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>5</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>CTestCoverageService</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Link test cases to requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Run Spotless formatter on all test files</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Maven spotless:apply</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Format Java files to coding standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Run CodeQL security scan</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>GitHub Actions</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Security vulnerability check</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Update terminology with ISO/ISTQB UI standards</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>TESTING_TERMINOLOGY_MAPPING.md</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>UI component standards added - 2026-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>F13.1</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>US13.1.1</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Create code pattern compliance audit</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>CODE_PATTERN_COMPLIANCE_AUDIT.md</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>100% pattern compliance verified - 2026-01-16</t>
         </is>
       </c>
     </row>

--- a/docs/__PROJECT_BACKLOG.xlsx
+++ b/docs/__PROJECT_BACKLOG.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
@@ -2175,6 +2175,72 @@
         <v/>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>E32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CRM &amp; Customer Relationship Management</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Complete CRM system with customer/account management, contact tracking, lead management, opportunity/deal pipeline, sales funnel visualization, customer interactions, and customer analytics. Enables comprehensive customer lifecycle management.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Enables customer-centric operations, improves sales pipeline visibility, tracks customer interactions, forecasts revenue, manages customer lifecycle, supports sales team efficiency, provides customer insights and analytics.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Not Implemented</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>customers, contacts, leads, opportunities, deals, salespipeline</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K33">
+        <f>SUMIF(Features!B:B,A33,Features!I:I)</f>
+        <v/>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G15"/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2189,7 +2255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
@@ -4116,12 +4182,300 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1" s="15"/>
-    <row r="39" ht="13.5" customHeight="1" s="15"/>
-    <row r="40" ht="13.5" customHeight="1" s="15"/>
-    <row r="41" ht="13.5" customHeight="1" s="15"/>
-    <row r="42" ht="13.5" customHeight="1" s="15"/>
-    <row r="43" ht="13.5" customHeight="1" s="15"/>
+    <row r="38" ht="13.5" customHeight="1" s="15">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>E32F1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>E32</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Customer &amp; Account Management</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Comprehensive customer/account entity with company details, industry classification, relationship type, customer status, revenue tracking, and customer lifecycle management.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Centralizes customer data, tracks customer health, manages customer hierarchy, supports account-based selling.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>customers.customer, customers.customertype</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f>SUMIF(User_Stories!B:B,A38,User_Stories!H:H)</f>
+        <v/>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1" s="15">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>E32F2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>E32</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Contact Management</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Individual contact records linked to customers with full contact details, role/title tracking, communication preferences, interaction history, and relationship strength scoring.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Enables person-level relationship tracking, manages contact hierarchies, tracks communication preferences, improves outreach effectiveness.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>contacts.contact, contacts.contacttype</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <f>SUMIF(User_Stories!B:B,A39,User_Stories!H:H)</f>
+        <v/>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" s="15">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>E32F3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>E32</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Lead Management &amp; Qualification</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Lead capture, scoring, qualification, and conversion tracking. Manages leads from first contact through qualification to opportunity conversion.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Captures early-stage prospects, prioritizes leads by score, tracks lead sources, measures conversion rates, prevents lead leakage.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>leads.lead, leads.leadsource, leads.leadstatus</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <f>SUMIF(User_Stories!B:B,A40,User_Stories!H:H)</f>
+        <v/>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" s="15">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>E32F4</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>E32</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Opportunity &amp; Deal Pipeline Management</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sales opportunity tracking with pipeline stages, probability tracking, expected close dates, deal value, competitive tracking, and win/loss analysis.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Visualizes sales pipeline, forecasts revenue, tracks deal progress, identifies bottlenecks, improves win rates through analysis.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>opportunities.opportunity, opportunities.opportunitystage, opportunities.winlossreason</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <f>SUMIF(User_Stories!B:B,A41,User_Stories!H:H)</f>
+        <v/>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" s="15">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>E32F5</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E32</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sales Funnel &amp; Pipeline Analytics</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Visual sales funnel showing conversion rates between stages, pipeline value analysis, forecast accuracy tracking, and sales velocity metrics.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Identifies pipeline bottlenecks, forecasts revenue accurately, measures sales efficiency, tracks conversion rates, supports data-driven sales decisions.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>pipeline.dashboard, pipeline.funnel</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <f>SUMIF(User_Stories!B:B,A42,User_Stories!H:H)</f>
+        <v/>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1" s="15">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>E32F6</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>E32</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Customer Interaction &amp; Activity Tracking</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Log and track all customer touchpoints including calls, emails, meetings, demos, and custom activities. Maintains complete interaction history per customer.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Provides 360° customer view, improves handoffs, tracks engagement frequency, ensures follow-up, supports relationship quality scoring.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Leverage existing CActivity and CMeeting</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <f>SUMIF(User_Stories!B:B,A43,User_Stories!H:H)</f>
+        <v/>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
     <row r="44" ht="13.5" customHeight="1" s="15"/>
     <row r="45" ht="13.5" customHeight="1" s="15"/>
     <row r="46" ht="13.5" customHeight="1" s="15"/>
@@ -4142,7 +4496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
@@ -6668,6 +7022,726 @@
       <c r="H65" s="14" t="inlineStr">
         <is>
           <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>E32F1S1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>E32F1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>As a sales manager, I want to create and manage customer accounts with detailed company information</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Create CCustomer entity with fields: company name, industry, size, website, revenue, customer type, status, relationship start date, description, logo. Extends CProjectItem. Implements IHasStatusAndWorkflow, IHasAttachments, IHasComments.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>customers.customer.domain.CCustomer</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>E32F1S2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>E32F1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>As a user, I want to categorize customers by type (Prospect, Active, Key Account, Former)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Create CCustomerType entity with workflow support. Initialize with default types: Prospect, Active Customer, Key Account, Strategic Partner, Former Customer.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>customers.customertype.domain.CCustomerType, customers.customertype.service.CCustomerTypeInitializerService</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>E32F1S3</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>E32F1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>As a sales rep, I want to view and manage customers in a searchable grid with filters</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Create CCustomerInitializerService with grid view, detail section, sample data. Grid columns: name, type, status, industry, revenue, contact count, last interaction, assigned to. Create CCustomerService, CCustomerRepository, CPageServiceCustomer.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>customers.customer.service.*</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>8</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>E32F2S1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>E32F2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>As a sales rep, I want to manage contacts within customer accounts</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Create CContact entity: first name, last name, email, phone, mobile, title, department, isPrimary flag, linkedIn, preferredContactMethod, birthday, notes. ManyToOne with CCustomer. Implements IHasComments.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>contacts.contact.domain.CContact</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>E32F2S2</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>E32F2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>As a user, I want to categorize contacts by role (Decision Maker, Influencer, User, etc.)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Create CContactType entity. Initialize with default types: Decision Maker, Influencer, Technical Contact, End User, Champion, Blocker.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>contacts.contacttype.domain.CContactType</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>E32F2S3</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>E32F2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>As a user, I want to view and search contacts with customer linkage</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Create CContactInitializerService with grid (columns: name, title, customer, email, phone, last contact date) and detail form. Create CContactService, CContactRepository, CPageServiceContact.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>contacts.contact.service.*</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>8</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>E32F3S1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>E32F3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>As a marketing user, I want to capture and manage leads before they become customers</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Create CLead entity: company name, contact name, email, phone, lead source, lead score (0-100), status, qualification notes, assigned to user, estimated value, expected close date. Implements IHasStatusAndWorkflow, IHasComments.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>leads.lead.domain.CLead</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>E32F3S2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>E32F3</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>As a user, I want to track lead sources (Web, Referral, Event, Cold Call, etc.)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Create CLeadSource entity. Initialize with default sources: Website, Referral, Trade Show, Cold Call, Email Campaign, Partner, Social Media, Advertisement.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>leads.leadsource.domain.CLeadSource</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>E32F3S3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>E32F3</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>As a sales manager, I want to view, qualify, and convert leads to opportunities</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Create CLeadInitializerService with grid (columns: company, contact, source, score, status, assigned to, expected value) and detail form. Add 'Convert to Opportunity' action button. Create CLeadService with convertToOpportunity() method.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>leads.lead.service.*</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>8</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>E32F4S1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>E32F4</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>As a sales rep, I want to track opportunities/deals with value and close date</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Create COpportunity entity: name, customer (ManyToOne), contact (ManyToOne), stage, probability (%), expected close date, amount, description, next steps, competition info. Implements IHasStatusAndWorkflow, IHasAttachments, IHasComments.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>opportunities.opportunity.domain.COpportunity</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>E32F4S2</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>E32F4</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>As a sales manager, I want to define pipeline stages (Qualification, Proposal, Negotiation, Closed Won/Lost)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Create COpportunityStage entity with workflow. Initialize default stages: Lead, Qualification, Needs Analysis, Proposal, Negotiation, Closed Won, Closed Lost. Each stage has probability % and color.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>opportunities.opportunitystage.domain.COpportunityStage</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>E32F4S3</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>E32F4</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>As a sales manager, I want to track win/loss reasons for closed opportunities</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Create CWinLossReason entity (isWinReason boolean). Initialize: Win reasons (Better Price, Better Product, Better Service), Loss reasons (Price, Competition, Timing, No Budget, Lost to Competitor).</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>opportunities.winlossreason.domain.CWinLossReason</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>E32F4S4</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>E32F4</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>As a user, I want to view opportunities in a pipeline board (Kanban-style) and grid</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Create COpportunityInitializerService with TWO views: (1) Standard grid+detail, (2) Pipeline board (Kanban). Grid columns: name, customer, stage, amount, probability, close date, assigned to. Pipeline board groups by stage with drag-drop. Create services and repositories.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>opportunities.opportunity.service.*</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>13</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>E32F5S1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>E32F5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>As a sales manager, I want to see a visual sales funnel with conversion rates</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Create CSalesFunnelComponent: Shows leads → opportunities → deals by stage. Displays count and value at each stage, conversion rates between stages. Uses Vaadin Charts.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pipeline.funnel.ui.CSalesFunnelComponent</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>8</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>E32F5S2</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>E32F5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>As a sales manager, I want to view pipeline value by stage and time period</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Create CPipelineValueChart component: Bar/column chart showing total opportunity value by stage. Filter by date range, assigned user, customer segment. Create CPipelineAnalyticsService for data aggregation.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pipeline.dashboard.service.CPipelineAnalyticsService</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>E32F5S3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>E32F5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>As an executive, I want to see key CRM metrics dashboard (win rate, avg deal size, sales cycle)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Create CCRMDashboard view: KPI cards (total customers, active opportunities, win rate %, avg deal size, avg sales cycle days). Charts: revenue by month, opportunities by stage, leads by source. Refresh button.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pipeline.dashboard.ui.CCRMDashboard</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>8</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>E32F6S1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>E32F6</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>As a sales rep, I want to link activities and meetings to customers/contacts/opportunities</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Extend CActivity and CMeeting with optional references: customer (ManyToOne), contact (ManyToOne), opportunity (ManyToOne). Add activity type 'Customer Call', 'Customer Email', 'Demo', 'Follow-up'. Update initializers.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>activities.activity.domain.CActivity</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>E32F6S2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>E32F6</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>As a user, I want to see complete interaction history on customer detail page</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Add 'Interactions' tab to customer detail view showing related activities, meetings, comments, attachments ordered by date. Use CGrid with timeline visualization. Create CCustomerInteractionService.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>customers.customer.service.CCustomerInteractionService</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>8</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
@@ -17590,720 +18664,720 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="A272" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B272" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C272" s="14" t="inlineStr">
         <is>
           <t>US13.3.2</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
+      <c r="D272" s="14" t="inlineStr">
         <is>
           <t>Implement CComponentTestExecution - main execution interface</t>
         </is>
       </c>
-      <c r="E272" t="n">
+      <c r="E272" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F272" t="inlineStr">
+      <c r="F272" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
+      <c r="G272" s="14" t="inlineStr">
         <is>
           <t>CComponentTestExecution.java</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
+      <c r="H272" s="14" t="inlineStr">
         <is>
           <t>933 lines - Auto-save, keyboard shortcuts, ISO compliance - 2026-01-16</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
+      <c r="A273" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="14" t="inlineStr">
         <is>
           <t>US13.3.2</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
+      <c r="D273" s="14" t="inlineStr">
         <is>
           <t>Update CPageServiceTestRun with component factory method</t>
         </is>
       </c>
-      <c r="E273" t="n">
+      <c r="E273" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
+      <c r="G273" s="14" t="inlineStr">
         <is>
           <t>CPageServiceTestRun.java</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
+      <c r="H273" s="14" t="inlineStr">
         <is>
           <t>createTestExecutionComponent() added - 2026-01-16</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
+      <c r="A274" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="14" t="inlineStr">
         <is>
           <t>US13.3.3</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
+      <c r="D274" s="14" t="inlineStr">
         <is>
           <t>Add single-page execution view to CTestRunInitializerService</t>
         </is>
       </c>
-      <c r="E274" t="n">
+      <c r="E274" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F274" t="inlineStr">
+      <c r="F274" s="14" t="inlineStr">
         <is>
           <t>IN_PROGRESS</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
+      <c r="G274" s="14" t="inlineStr">
         <is>
           <t>CTestRunInitializerService.java</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
+      <c r="H274" s="14" t="inlineStr">
         <is>
           <t>Add second view with setAttributeNone(true) for full-screen execution</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="A275" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="14" t="inlineStr">
         <is>
           <t>US13.3.3</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
+      <c r="D275" s="14" t="inlineStr">
         <is>
           <t>Add Execute button to test run detail view</t>
         </is>
       </c>
-      <c r="E275" t="n">
+      <c r="E275" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr">
+      <c r="F275" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G275" s="14" t="inlineStr">
         <is>
           <t>Test run detail</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
+      <c r="H275" s="14" t="inlineStr">
         <is>
           <t>Launch button for execution interface</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="A276" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="14" t="inlineStr">
         <is>
           <t>US13.3.4</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
+      <c r="D276" s="14" t="inlineStr">
         <is>
           <t>Integrate screenshot capture functionality</t>
         </is>
       </c>
-      <c r="E276" t="n">
+      <c r="E276" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G276" t="inlineStr">
+      <c r="F276" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G276" s="14" t="inlineStr">
         <is>
           <t>CComponentTestExecution</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
+      <c r="H276" s="14" t="inlineStr">
         <is>
           <t>Browser screenshot API for evidence</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
+      <c r="A277" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C277" s="14" t="inlineStr">
         <is>
           <t>US13.3.4</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
+      <c r="D277" s="14" t="inlineStr">
         <is>
           <t>Implement file attachment upload in execution</t>
         </is>
       </c>
-      <c r="E277" t="n">
+      <c r="E277" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
+      <c r="F277" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G277" s="14" t="inlineStr">
         <is>
           <t>CComponentTestExecution</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
+      <c r="H277" s="14" t="inlineStr">
         <is>
           <t>Drag-drop file upload integration</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="A278" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C278" s="14" t="inlineStr">
         <is>
           <t>US13.1.4</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
+      <c r="D278" s="14" t="inlineStr">
         <is>
           <t>Playwright: Test Cases CRUD operations</t>
         </is>
       </c>
-      <c r="E278" t="n">
+      <c r="E278" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
+      <c r="F278" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G278" s="14" t="inlineStr">
         <is>
           <t>automated_tests/</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
+      <c r="H278" s="14" t="inlineStr">
         <is>
           <t>Create, read, update, delete test cases</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
+      <c r="A279" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="14" t="inlineStr">
         <is>
           <t>F13.2</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C279" s="14" t="inlineStr">
         <is>
           <t>US13.2.1</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
+      <c r="D279" s="14" t="inlineStr">
         <is>
           <t>Playwright: Test Suites CRUD operations</t>
         </is>
       </c>
-      <c r="E279" t="n">
+      <c r="E279" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
+      <c r="F279" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G279" s="14" t="inlineStr">
         <is>
           <t>automated_tests/</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
+      <c r="H279" s="14" t="inlineStr">
         <is>
           <t>Create, read, update, delete test suites</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
+      <c r="A280" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="14" t="inlineStr">
         <is>
           <t>US13.3.1</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
+      <c r="D280" s="14" t="inlineStr">
         <is>
           <t>Playwright: Test Session creation workflow</t>
         </is>
       </c>
-      <c r="E280" t="n">
+      <c r="E280" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
+      <c r="F280" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G280" s="14" t="inlineStr">
         <is>
           <t>automated_tests/</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
+      <c r="H280" s="14" t="inlineStr">
         <is>
           <t>Create session, link to suite</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
+      <c r="A281" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="14" t="inlineStr">
         <is>
           <t>US13.3.2</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
+      <c r="D281" s="14" t="inlineStr">
         <is>
           <t>Playwright: Complete test execution workflow</t>
         </is>
       </c>
-      <c r="E281" t="n">
+      <c r="E281" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
+      <c r="F281" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G281" s="14" t="inlineStr">
         <is>
           <t>automated_tests/</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
+      <c r="H281" s="14" t="inlineStr">
         <is>
           <t>Execute test, record results, validate statistics</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="A282" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="14" t="inlineStr">
         <is>
           <t>F13.3</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="14" t="inlineStr">
         <is>
           <t>US13.3.5</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
+      <c r="D282" s="14" t="inlineStr">
         <is>
           <t>Playwright: Result recording validation</t>
         </is>
       </c>
-      <c r="E282" t="n">
+      <c r="E282" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
+      <c r="F282" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G282" s="14" t="inlineStr">
         <is>
           <t>automated_tests/</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
+      <c r="H282" s="14" t="inlineStr">
         <is>
           <t>Test PASS/FAIL/SKIP/BLOCK recording</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="A283" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="14" t="inlineStr">
         <is>
           <t>US13.5.1</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
+      <c r="D283" s="14" t="inlineStr">
         <is>
           <t>Create test metrics dashboard component</t>
         </is>
       </c>
-      <c r="E283" t="n">
+      <c r="E283" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
+      <c r="F283" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G283" s="14" t="inlineStr">
         <is>
           <t>CComponentTestMetrics</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="H283" s="14" t="inlineStr">
         <is>
           <t>Charts: pass rate, coverage, trends</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
+      <c r="A284" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="14" t="inlineStr">
         <is>
           <t>US13.5.2</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
+      <c r="D284" s="14" t="inlineStr">
         <is>
           <t>Implement test report generation service</t>
         </is>
       </c>
-      <c r="E284" t="n">
+      <c r="E284" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr">
+      <c r="F284" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G284" s="14" t="inlineStr">
         <is>
           <t>CTestReportService</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="H284" s="14" t="inlineStr">
         <is>
           <t>Export to PDF/Excel with charts</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
+      <c r="A285" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="14" t="inlineStr">
         <is>
           <t>F13.5</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="14" t="inlineStr">
         <is>
           <t>US13.5.3</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr">
+      <c r="D285" s="14" t="inlineStr">
         <is>
           <t>Implement test coverage matrix by feature</t>
         </is>
       </c>
-      <c r="E285" t="n">
+      <c r="E285" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G285" t="inlineStr">
+      <c r="F285" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G285" s="14" t="inlineStr">
         <is>
           <t>CTestCoverageService</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
+      <c r="H285" s="14" t="inlineStr">
         <is>
           <t>Link test cases to requirements</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
+      <c r="A286" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
+      <c r="D286" s="14" t="inlineStr">
         <is>
           <t>Run Spotless formatter on all test files</t>
         </is>
       </c>
-      <c r="E286" t="n">
+      <c r="E286" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
+      <c r="F286" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G286" s="14" t="inlineStr">
         <is>
           <t>Maven spotless:apply</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
+      <c r="H286" s="14" t="inlineStr">
         <is>
           <t>Format Java files to coding standards</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
+      <c r="A287" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B287" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="C287" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr">
+      <c r="D287" s="14" t="inlineStr">
         <is>
           <t>Run CodeQL security scan</t>
         </is>
       </c>
-      <c r="E287" t="n">
+      <c r="E287" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G287" t="inlineStr">
+      <c r="F287" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G287" s="14" t="inlineStr">
         <is>
           <t>GitHub Actions</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
+      <c r="H287" s="14" t="inlineStr">
         <is>
           <t>Security vulnerability check</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
+      <c r="A288" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B288" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
+      <c r="D288" s="14" t="inlineStr">
         <is>
           <t>Update terminology with ISO/ISTQB UI standards</t>
         </is>
       </c>
-      <c r="E288" t="n">
+      <c r="E288" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F288" t="inlineStr">
+      <c r="F288" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
+      <c r="G288" s="14" t="inlineStr">
         <is>
           <t>TESTING_TERMINOLOGY_MAPPING.md</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
+      <c r="H288" s="14" t="inlineStr">
         <is>
           <t>UI component standards added - 2026-01-16</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="A289" s="14" t="inlineStr">
         <is>
           <t>E13</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B289" s="14" t="inlineStr">
         <is>
           <t>F13.1</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="C289" s="14" t="inlineStr">
         <is>
           <t>US13.1.1</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
+      <c r="D289" s="14" t="inlineStr">
         <is>
           <t>Create code pattern compliance audit</t>
         </is>
       </c>
-      <c r="E289" t="n">
+      <c r="E289" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F289" t="inlineStr">
+      <c r="F289" s="14" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr">
+      <c r="G289" s="14" t="inlineStr">
         <is>
           <t>CODE_PATTERN_COMPLIANCE_AUDIT.md</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
+      <c r="H289" s="14" t="inlineStr">
         <is>
           <t>100% pattern compliance verified - 2026-01-16</t>
         </is>

--- a/docs/__PROJECT_BACKLOG.xlsx
+++ b/docs/__PROJECT_BACKLOG.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
@@ -2176,66 +2176,126 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="14" t="inlineStr">
         <is>
           <t>E32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="14" t="inlineStr">
         <is>
           <t>CRM &amp; Customer Relationship Management</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="14" t="inlineStr">
         <is>
           <t>Complete CRM system with customer/account management, contact tracking, lead management, opportunity/deal pipeline, sales funnel visualization, customer interactions, and customer analytics. Enables comprehensive customer lifecycle management.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="14" t="inlineStr">
         <is>
           <t>Enables customer-centric operations, improves sales pipeline visibility, tracks customer interactions, forecasts revenue, manages customer lifecycle, supports sales team efficiency, provides customer insights and analytics.</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="E33" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F33" s="14" t="inlineStr">
         <is>
           <t>Not Implemented</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="14" t="inlineStr">
         <is>
           <t>customers, contacts, leads, opportunities, deals, salespipeline</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" s="14" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33" s="14" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" s="14" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="K33">
+      <c r="K33" s="14">
         <f>SUMIF(Features!B:B,A33,Features!I:I)</f>
         <v/>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Storage &amp; Inventory Management</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Enterprise storage hierarchy, inventory items with counts, audit-trailed stock transactions, low-stock/expiration alerts, and supplier-aware restocking.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Prevents stockouts and overstock, increases visibility of consumables, enables auditability of stock movements, and centralizes warehouse operations across multiple locations.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PLANNED</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CStorage, CStorageItem, CStorageTransaction, CStorageType, CStorageItemType, CTransactionType</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>plm.storage (planned)</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>SUMIF(Features!B:B,A34,Features!I:I)</f>
+        <v/>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>TODO</t>
         </is>
@@ -2255,7 +2315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
@@ -4183,303 +4243,526 @@
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" s="15">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="14" t="inlineStr">
         <is>
           <t>E32F1</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="14" t="inlineStr">
         <is>
           <t>E32</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="14" t="inlineStr">
         <is>
           <t>Customer &amp; Account Management</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="14" t="inlineStr">
         <is>
           <t>Comprehensive customer/account entity with company details, industry classification, relationship type, customer status, revenue tracking, and customer lifecycle management.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="14" t="inlineStr">
         <is>
           <t>Centralizes customer data, tracks customer health, manages customer hierarchy, supports account-based selling.</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="F38" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G38" s="14" t="inlineStr">
         <is>
           <t>customers.customer, customers.customertype</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H38" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="14">
         <f>SUMIF(User_Stories!B:B,A38,User_Stories!H:H)</f>
         <v/>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" s="15">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="14" t="inlineStr">
         <is>
           <t>E32F2</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="14" t="inlineStr">
         <is>
           <t>E32</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="14" t="inlineStr">
         <is>
           <t>Contact Management</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="14" t="inlineStr">
         <is>
           <t>Individual contact records linked to customers with full contact details, role/title tracking, communication preferences, interaction history, and relationship strength scoring.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="14" t="inlineStr">
         <is>
           <t>Enables person-level relationship tracking, manages contact hierarchies, tracks communication preferences, improves outreach effectiveness.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="F39" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G39" s="14" t="inlineStr">
         <is>
           <t>contacts.contact, contacts.contacttype</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="14">
         <f>SUMIF(User_Stories!B:B,A39,User_Stories!H:H)</f>
         <v/>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" s="15">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="14" t="inlineStr">
         <is>
           <t>E32F3</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="14" t="inlineStr">
         <is>
           <t>E32</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="14" t="inlineStr">
         <is>
           <t>Lead Management &amp; Qualification</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="14" t="inlineStr">
         <is>
           <t>Lead capture, scoring, qualification, and conversion tracking. Manages leads from first contact through qualification to opportunity conversion.</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="14" t="inlineStr">
         <is>
           <t>Captures early-stage prospects, prioritizes leads by score, tracks lead sources, measures conversion rates, prevents lead leakage.</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="F40" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G40" s="14" t="inlineStr">
         <is>
           <t>leads.lead, leads.leadsource, leads.leadstatus</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="14">
         <f>SUMIF(User_Stories!B:B,A40,User_Stories!H:H)</f>
         <v/>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" s="15">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="14" t="inlineStr">
         <is>
           <t>E32F4</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="14" t="inlineStr">
         <is>
           <t>E32</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="14" t="inlineStr">
         <is>
           <t>Opportunity &amp; Deal Pipeline Management</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="14" t="inlineStr">
         <is>
           <t>Sales opportunity tracking with pipeline stages, probability tracking, expected close dates, deal value, competitive tracking, and win/loss analysis.</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="14" t="inlineStr">
         <is>
           <t>Visualizes sales pipeline, forecasts revenue, tracks deal progress, identifies bottlenecks, improves win rates through analysis.</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="F41" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G41" s="14" t="inlineStr">
         <is>
           <t>opportunities.opportunity, opportunities.opportunitystage, opportunities.winlossreason</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="14">
         <f>SUMIF(User_Stories!B:B,A41,User_Stories!H:H)</f>
         <v/>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" s="14" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" s="15">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="14" t="inlineStr">
         <is>
           <t>E32F5</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="14" t="inlineStr">
         <is>
           <t>E32</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="14" t="inlineStr">
         <is>
           <t>Sales Funnel &amp; Pipeline Analytics</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="14" t="inlineStr">
         <is>
           <t>Visual sales funnel showing conversion rates between stages, pipeline value analysis, forecast accuracy tracking, and sales velocity metrics.</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="14" t="inlineStr">
         <is>
           <t>Identifies pipeline bottlenecks, forecasts revenue accurately, measures sales efficiency, tracks conversion rates, supports data-driven sales decisions.</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="F42" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G42" s="14" t="inlineStr">
         <is>
           <t>pipeline.dashboard, pipeline.funnel</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="14">
         <f>SUMIF(User_Stories!B:B,A42,User_Stories!H:H)</f>
         <v/>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" s="15">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="14" t="inlineStr">
         <is>
           <t>E32F6</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="14" t="inlineStr">
         <is>
           <t>E32</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="14" t="inlineStr">
         <is>
           <t>Customer Interaction &amp; Activity Tracking</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="14" t="inlineStr">
         <is>
           <t>Log and track all customer touchpoints including calls, emails, meetings, demos, and custom activities. Maintains complete interaction history per customer.</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="14" t="inlineStr">
         <is>
           <t>Provides 360° customer view, improves handoffs, tracks engagement frequency, ensures follow-up, supports relationship quality scoring.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="F43" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="G43" s="14" t="inlineStr">
         <is>
           <t>Leverage existing CActivity and CMeeting</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="14">
         <f>SUMIF(User_Stories!B:B,A43,User_Stories!H:H)</f>
         <v/>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="13.5" customHeight="1" s="15"/>
-    <row r="45" ht="13.5" customHeight="1" s="15"/>
-    <row r="46" ht="13.5" customHeight="1" s="15"/>
-    <row r="47" ht="13.5" customHeight="1" s="15"/>
+    <row r="44" ht="13.5" customHeight="1" s="15">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>E33F1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Storage Location Hierarchy &amp; Capacity</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Manage multi-level storage locations with types, parent-child hierarchy, capacity, environment, and responsible ownership.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>✓ Create storage locations with parent-child hierarchy
+✓ Define storage types (warehouse, room, shelf)
+✓ Track capacity/utilization and environment controls
+✓ Assign responsible user and active flag</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Implement CStorage entity/service with parentStorage reference, capacity/utilization helpers, and location path rendering.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CStorage, CStorageType, CStorageService, CStorageInitializerService</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <f>SUMIF(User_Stories!B:B,A44,User_Stories!F:F)</f>
+        <v/>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1" s="15">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>E33F2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Inventory Item Definition &amp; Compliance</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Define storage items with SKU/barcode, type, stock thresholds, supplier data, expiration handling, and special handling rules.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>✓ Create storage items with SKU/barcode and type
+✓ Capture stock thresholds (min/max/reorder) and unit of measure
+✓ Track supplier, lead time, and special handling/expiration data</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Define CStorageItem with quantity, thresholds, supplier link, and expiration fields; service validates SKU/barcode uniqueness and unit conversions.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CStorageItem, CStorageItemType, CStorageItemService, CStorageItemInitializerService</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <f>SUMIF(User_Stories!B:B,A45,User_Stories!F:F)</f>
+        <v/>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="13.5" customHeight="1" s="15">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>E33F3</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Stock Operations &amp; Transaction Audit Trail</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Provide stock intake, issuance, adjustment, and transfer with immutable transaction history for every movement.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>✓ Add/remove stock with validation and auto transaction log
+✓ Adjust stock with before/after quantities and reasons
+✓ Transfer stock between locations with dual transactions
+✓ Support transaction types for expired/damaged/lost</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Provide addStock/removeStock/adjustStock/transferStock methods in CStorageItemService and persist immutable CStorageTransaction entries (comment-style records).</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CStorageTransaction, CTransactionType, CStorageTransactionService, CStorageItemService</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <f>SUMIF(User_Stories!B:B,A46,User_Stories!F:F)</f>
+        <v/>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1" s="15">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>E33F4</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Alerts &amp; Reporting for Storage</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Deliver operational visibility with low-stock and expiration alerts plus transaction history and value/utilization summaries.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>✓ Low-stock alerts based on minimum levels
+✓ Expiration monitoring with expiring-soon threshold
+✓ Transaction history grids with filters
+✓ Stock value and utilization summaries</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Query helpers getLowStockItems/getExpiredItems/getItemsExpiringSoon plus history views using grid column helpers.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CStorageItemService, CStorageTransactionService</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f>SUMIF(User_Stories!B:B,A47,User_Stories!F:F)</f>
+        <v/>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
     <row r="48" ht="13.5" customHeight="1" s="15"/>
     <row r="49" ht="13.5" customHeight="1" s="15"/>
   </sheetData>
@@ -4496,7 +4779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
@@ -7026,722 +7309,1242 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="14" t="inlineStr">
         <is>
           <t>E32F1S1</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="14" t="inlineStr">
         <is>
           <t>E32F1</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="14" t="inlineStr">
         <is>
           <t>As a sales manager, I want to create and manage customer accounts with detailed company information</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="14" t="inlineStr">
         <is>
           <t>Create CCustomer entity with fields: company name, industry, size, website, revenue, customer type, status, relationship start date, description, logo. Extends CProjectItem. Implements IHasStatusAndWorkflow, IHasAttachments, IHasComments.</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
+      <c r="E66" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F66" s="14" t="inlineStr">
         <is>
           <t>customers.customer.domain.CCustomer</t>
         </is>
       </c>
-      <c r="G66" t="n">
+      <c r="G66" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" s="14" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="14" t="inlineStr">
         <is>
           <t>E32F1S2</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="14" t="inlineStr">
         <is>
           <t>E32F1</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="14" t="inlineStr">
         <is>
           <t>As a user, I want to categorize customers by type (Prospect, Active, Key Account, Former)</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" s="14" t="inlineStr">
         <is>
           <t>Create CCustomerType entity with workflow support. Initialize with default types: Prospect, Active Customer, Key Account, Strategic Partner, Former Customer.</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="E67" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F67" s="14" t="inlineStr">
         <is>
           <t>customers.customertype.domain.CCustomerType, customers.customertype.service.CCustomerTypeInitializerService</t>
         </is>
       </c>
-      <c r="G67" t="n">
+      <c r="G67" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="14" t="inlineStr">
         <is>
           <t>E32F1S3</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="14" t="inlineStr">
         <is>
           <t>E32F1</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="14" t="inlineStr">
         <is>
           <t>As a sales rep, I want to view and manage customers in a searchable grid with filters</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="14" t="inlineStr">
         <is>
           <t>Create CCustomerInitializerService with grid view, detail section, sample data. Grid columns: name, type, status, industry, revenue, contact count, last interaction, assigned to. Create CCustomerService, CCustomerRepository, CPageServiceCustomer.</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
+      <c r="E68" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F68" s="14" t="inlineStr">
         <is>
           <t>customers.customer.service.*</t>
         </is>
       </c>
-      <c r="G68" t="n">
+      <c r="G68" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" s="14" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="14" t="inlineStr">
         <is>
           <t>E32F2S1</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="14" t="inlineStr">
         <is>
           <t>E32F2</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="14" t="inlineStr">
         <is>
           <t>As a sales rep, I want to manage contacts within customer accounts</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="14" t="inlineStr">
         <is>
           <t>Create CContact entity: first name, last name, email, phone, mobile, title, department, isPrimary flag, linkedIn, preferredContactMethod, birthday, notes. ManyToOne with CCustomer. Implements IHasComments.</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
+      <c r="E69" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F69" s="14" t="inlineStr">
         <is>
           <t>contacts.contact.domain.CContact</t>
         </is>
       </c>
-      <c r="G69" t="n">
+      <c r="G69" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" s="14" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="14" t="inlineStr">
         <is>
           <t>E32F2S2</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="14" t="inlineStr">
         <is>
           <t>E32F2</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="14" t="inlineStr">
         <is>
           <t>As a user, I want to categorize contacts by role (Decision Maker, Influencer, User, etc.)</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="14" t="inlineStr">
         <is>
           <t>Create CContactType entity. Initialize with default types: Decision Maker, Influencer, Technical Contact, End User, Champion, Blocker.</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
+      <c r="E70" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F70" s="14" t="inlineStr">
         <is>
           <t>contacts.contacttype.domain.CContactType</t>
         </is>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="14" t="inlineStr">
         <is>
           <t>E32F2S3</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="14" t="inlineStr">
         <is>
           <t>E32F2</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="14" t="inlineStr">
         <is>
           <t>As a user, I want to view and search contacts with customer linkage</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="14" t="inlineStr">
         <is>
           <t>Create CContactInitializerService with grid (columns: name, title, customer, email, phone, last contact date) and detail form. Create CContactService, CContactRepository, CPageServiceContact.</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
+      <c r="E71" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F71" s="14" t="inlineStr">
         <is>
           <t>contacts.contact.service.*</t>
         </is>
       </c>
-      <c r="G71" t="n">
+      <c r="G71" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="14" t="inlineStr">
         <is>
           <t>E32F3S1</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="14" t="inlineStr">
         <is>
           <t>E32F3</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="14" t="inlineStr">
         <is>
           <t>As a marketing user, I want to capture and manage leads before they become customers</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" s="14" t="inlineStr">
         <is>
           <t>Create CLead entity: company name, contact name, email, phone, lead source, lead score (0-100), status, qualification notes, assigned to user, estimated value, expected close date. Implements IHasStatusAndWorkflow, IHasComments.</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
+      <c r="E72" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F72" s="14" t="inlineStr">
         <is>
           <t>leads.lead.domain.CLead</t>
         </is>
       </c>
-      <c r="G72" t="n">
+      <c r="G72" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="14" t="inlineStr">
         <is>
           <t>E32F3S2</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="14" t="inlineStr">
         <is>
           <t>E32F3</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="14" t="inlineStr">
         <is>
           <t>As a user, I want to track lead sources (Web, Referral, Event, Cold Call, etc.)</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="14" t="inlineStr">
         <is>
           <t>Create CLeadSource entity. Initialize with default sources: Website, Referral, Trade Show, Cold Call, Email Campaign, Partner, Social Media, Advertisement.</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
+      <c r="E73" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F73" s="14" t="inlineStr">
         <is>
           <t>leads.leadsource.domain.CLeadSource</t>
         </is>
       </c>
-      <c r="G73" t="n">
+      <c r="G73" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="14" t="inlineStr">
         <is>
           <t>E32F3S3</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="14" t="inlineStr">
         <is>
           <t>E32F3</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="14" t="inlineStr">
         <is>
           <t>As a sales manager, I want to view, qualify, and convert leads to opportunities</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" s="14" t="inlineStr">
         <is>
           <t>Create CLeadInitializerService with grid (columns: company, contact, source, score, status, assigned to, expected value) and detail form. Add 'Convert to Opportunity' action button. Create CLeadService with convertToOpportunity() method.</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
+      <c r="E74" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F74" s="14" t="inlineStr">
         <is>
           <t>leads.lead.service.*</t>
         </is>
       </c>
-      <c r="G74" t="n">
+      <c r="G74" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="14" t="inlineStr">
         <is>
           <t>E32F4S1</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="14" t="inlineStr">
         <is>
           <t>E32F4</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="14" t="inlineStr">
         <is>
           <t>As a sales rep, I want to track opportunities/deals with value and close date</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="14" t="inlineStr">
         <is>
           <t>Create COpportunity entity: name, customer (ManyToOne), contact (ManyToOne), stage, probability (%), expected close date, amount, description, next steps, competition info. Implements IHasStatusAndWorkflow, IHasAttachments, IHasComments.</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="E75" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F75" s="14" t="inlineStr">
         <is>
           <t>opportunities.opportunity.domain.COpportunity</t>
         </is>
       </c>
-      <c r="G75" t="n">
+      <c r="G75" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" s="14" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="14" t="inlineStr">
         <is>
           <t>E32F4S2</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="14" t="inlineStr">
         <is>
           <t>E32F4</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="14" t="inlineStr">
         <is>
           <t>As a sales manager, I want to define pipeline stages (Qualification, Proposal, Negotiation, Closed Won/Lost)</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" s="14" t="inlineStr">
         <is>
           <t>Create COpportunityStage entity with workflow. Initialize default stages: Lead, Qualification, Needs Analysis, Proposal, Negotiation, Closed Won, Closed Lost. Each stage has probability % and color.</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="E76" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F76" s="14" t="inlineStr">
         <is>
           <t>opportunities.opportunitystage.domain.COpportunityStage</t>
         </is>
       </c>
-      <c r="G76" t="n">
+      <c r="G76" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="14" t="inlineStr">
         <is>
           <t>E32F4S3</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="14" t="inlineStr">
         <is>
           <t>E32F4</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="14" t="inlineStr">
         <is>
           <t>As a sales manager, I want to track win/loss reasons for closed opportunities</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" s="14" t="inlineStr">
         <is>
           <t>Create CWinLossReason entity (isWinReason boolean). Initialize: Win reasons (Better Price, Better Product, Better Service), Loss reasons (Price, Competition, Timing, No Budget, Lost to Competitor).</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="E77" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F77" s="14" t="inlineStr">
         <is>
           <t>opportunities.winlossreason.domain.CWinLossReason</t>
         </is>
       </c>
-      <c r="G77" t="n">
+      <c r="G77" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="14" t="inlineStr">
         <is>
           <t>E32F4S4</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="14" t="inlineStr">
         <is>
           <t>E32F4</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="14" t="inlineStr">
         <is>
           <t>As a user, I want to view opportunities in a pipeline board (Kanban-style) and grid</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" s="14" t="inlineStr">
         <is>
           <t>Create COpportunityInitializerService with TWO views: (1) Standard grid+detail, (2) Pipeline board (Kanban). Grid columns: name, customer, stage, amount, probability, close date, assigned to. Pipeline board groups by stage with drag-drop. Create services and repositories.</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="E78" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F78" s="14" t="inlineStr">
         <is>
           <t>opportunities.opportunity.service.*</t>
         </is>
       </c>
-      <c r="G78" t="n">
+      <c r="G78" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" s="14" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="14" t="inlineStr">
         <is>
           <t>E32F5S1</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="14" t="inlineStr">
         <is>
           <t>E32F5</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="14" t="inlineStr">
         <is>
           <t>As a sales manager, I want to see a visual sales funnel with conversion rates</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" s="14" t="inlineStr">
         <is>
           <t>Create CSalesFunnelComponent: Shows leads → opportunities → deals by stage. Displays count and value at each stage, conversion rates between stages. Uses Vaadin Charts.</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
+      <c r="E79" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F79" s="14" t="inlineStr">
         <is>
           <t>pipeline.funnel.ui.CSalesFunnelComponent</t>
         </is>
       </c>
-      <c r="G79" t="n">
+      <c r="G79" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="14" t="inlineStr">
         <is>
           <t>E32F5S2</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="14" t="inlineStr">
         <is>
           <t>E32F5</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="14" t="inlineStr">
         <is>
           <t>As a sales manager, I want to view pipeline value by stage and time period</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" s="14" t="inlineStr">
         <is>
           <t>Create CPipelineValueChart component: Bar/column chart showing total opportunity value by stage. Filter by date range, assigned user, customer segment. Create CPipelineAnalyticsService for data aggregation.</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
+      <c r="E80" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F80" s="14" t="inlineStr">
         <is>
           <t>pipeline.dashboard.service.CPipelineAnalyticsService</t>
         </is>
       </c>
-      <c r="G80" t="n">
+      <c r="G80" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="14" t="inlineStr">
         <is>
           <t>E32F5S3</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="14" t="inlineStr">
         <is>
           <t>E32F5</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="14" t="inlineStr">
         <is>
           <t>As an executive, I want to see key CRM metrics dashboard (win rate, avg deal size, sales cycle)</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" s="14" t="inlineStr">
         <is>
           <t>Create CCRMDashboard view: KPI cards (total customers, active opportunities, win rate %, avg deal size, avg sales cycle days). Charts: revenue by month, opportunities by stage, leads by source. Refresh button.</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
+      <c r="E81" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F81" s="14" t="inlineStr">
         <is>
           <t>pipeline.dashboard.ui.CCRMDashboard</t>
         </is>
       </c>
-      <c r="G81" t="n">
+      <c r="G81" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="14" t="inlineStr">
         <is>
           <t>E32F6S1</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="14" t="inlineStr">
         <is>
           <t>E32F6</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="14" t="inlineStr">
         <is>
           <t>As a sales rep, I want to link activities and meetings to customers/contacts/opportunities</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="14" t="inlineStr">
         <is>
           <t>Extend CActivity and CMeeting with optional references: customer (ManyToOne), contact (ManyToOne), opportunity (ManyToOne). Add activity type 'Customer Call', 'Customer Email', 'Demo', 'Follow-up'. Update initializers.</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
+      <c r="E82" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F82" s="14" t="inlineStr">
         <is>
           <t>activities.activity.domain.CActivity</t>
         </is>
       </c>
-      <c r="G82" t="n">
+      <c r="G82" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" s="14" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="14" t="inlineStr">
         <is>
           <t>E32F6S2</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="14" t="inlineStr">
         <is>
           <t>E32F6</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="14" t="inlineStr">
         <is>
           <t>As a user, I want to see complete interaction history on customer detail page</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" s="14" t="inlineStr">
         <is>
           <t>Add 'Interactions' tab to customer detail view showing related activities, meetings, comments, attachments ordered by date. Use CGrid with timeline visualization. Create CCustomerInteractionService.</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>TODO</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
+      <c r="E83" s="14" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+      <c r="F83" s="14" t="inlineStr">
         <is>
           <t>customers.customer.service.CCustomerInteractionService</t>
         </is>
       </c>
-      <c r="G83" t="n">
+      <c r="G83" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" s="14" t="inlineStr">
         <is>
           <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>E33F1S1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>E33F1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>As a warehouse manager, I can create hierarchical storage locations with types</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Given a project, when I add a storage location, then I can select a parent (warehouse/room/shelf), choose a storage type, and see the full location path.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>CStorage extends CProjectItem with parentStorage self-reference and getLocationPath(); CStorageType combo via CStorageTypeService.</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>E33F1S2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>E33F1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>As a staff member, I can capture capacity, utilization, and environment settings for a storage location</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Given a storage location, when I edit details, then I can set capacity/unit, current utilization, temperature/climate controls, secure storage flag, and responsible user.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Fields: capacity, capacityUnit, currentUtilization, temperatureControl, climateControl, secureStorage, responsibleUser; getUtilizationPercentage() helper.</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>E33F1S3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>E33F1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>As an admin, I cannot delete a storage location that still has child locations or items</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Given a storage with children or assigned items, when I attempt deletion, then the system blocks it with a validation message.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>CStorageService.checkDeleteAllowed() validates parent/child hierarchy and linked CStorageItem records.</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>E33F2S1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>E33F2</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>As a warehouse manager, I can create storage items with SKU and barcode linked to a storage location</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Given a storage location, when I add an item, then I set name, type, SKU, barcode, and storage reference; duplicate SKU/barcode in the same project are rejected.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>CStorageItem extends CProjectItem with storage reference; validateEntity enforces project-scoped SKU/barcode uniqueness; FormBuilder shows SKU/barcode fields.</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>5</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>E33F2S2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>E33F2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>As a purchasing manager, I can maintain stock thresholds and reorder settings</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Given a storage item, when I edit thresholds, then I can set unit of measure, minimum stock level, reorder quantity, and maximum stock level to drive alerts.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>CStorageItem numeric fields with validation feed isLowStock() and getStockPercentage(); reorderQuantity used for purchase suggestions.</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>E33F2S3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>E33F2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>As a quality manager, I can track batches, expiration, and special handling requirements</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Given an item with expiration tracking enabled, when I save details, then batch number and expiration date are stored and special handling instructions are captured.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>trackExpiration flag controls isExpired()/isExpiringSoon(); handlingInstructions text with max length; requiresSpecialHandling boolean.</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>E33F3S1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>E33F3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>As a warehouse worker, I can receive stock with an audit trail</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Given a storage item, when I record incoming quantity, then the system increases current quantity and creates a STOCK_IN transaction capturing before/after, user, timestamp, and description.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>CStorageItemService.addStock() wraps save and CStorageTransactionService.createTransaction(CTransactionType.STOCK_IN); updates lastRestockedDate.</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>5</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>E33F3S2</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>E33F3</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>As a staff member, I can issue or remove stock with validation</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Given available stock, when I issue quantity for consumption, then removeStock validates availability, decrements quantity, and logs STOCK_OUT/DAMAGED/LOST/EXPIRED transaction with reason.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>removeStock() prevents negative quantities; description stored like comment note; transaction type parameterized.</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>E33F3S3</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>E33F3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>As an auditor, I can adjust stock counts while preserving an immutable trail</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Given a discrepancy, when I adjust to a new quantity, then the system records an ADJUSTMENT transaction with before/after values and required reason while existing transactions remain unchanged.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>adjustStock() captures quantityBefore/After and description; CStorageTransaction records are immutable (no updates/deletes).</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>E33F3S4</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>E33F3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>As a warehouse worker, I can transfer stock between storage locations</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Given a source and target item, when I transfer quantity, then the system validates source stock, decrements source, increments target, and records paired TRANSFER transactions with shared description/reference.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>transferStock() creates OUT and IN CStorageTransaction entries using CTransactionType.TRANSFER; enforces same SKU when linking source/target.</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>5</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>E33F4S1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>E33F4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>As a purchasing manager, I can view low-stock items ready for reorder</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Given minimum stock levels, when I view storage alerts, then I see items where current quantity is at or below minimum, sorted by quantity.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>CStorageItemService.getLowStockItems(project) query with ORDER BY; grid shows unitOfMeasure and reorderQuantity.</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>E33F4S2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>E33F4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>As a staff member, I can monitor expired and expiring items</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Given items with expiration tracking, when I open the expiration view, then I see expired items and items expiring within a configurable number of days.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>getExpiredItems() and getItemsExpiringSoon(project, days) use LocalDate filters; include batchNumber and expirationDate columns.</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>TODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>E33F4S3</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>E33F4</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>As an auditor, I can review full transaction history for a storage item</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Given a storage item, when I open its history, then I can filter by transaction type or date range and see before/after quantities, user, and descriptions.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>CStorageTransactionService.getTransactionsForItem(), getTransactionsByType(), getTransactionsByDateRange(); grid uses entity column helpers; transactions act like comment-style records.</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>TODO</t>
         </is>
       </c>
     </row>
